--- a/2024_09_housing_prices.xlsx
+++ b/2024_09_housing_prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\a.xamidov\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.khamidov\Documents\09_september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07BF12D6-EEA9-46B7-AB44-2E1AD96627DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64825C-88C2-493F-8246-F49D4803634B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0A68128-6003-4809-9CD7-322F14E0A5F8}"/>
   </bookViews>
@@ -29,12 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -371,8 +365,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -455,7 +449,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +474,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="58">
     <border>
@@ -1205,17 +1205,17 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1326,7 +1326,7 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1669,8 +1669,20 @@
     <xf numFmtId="167" fontId="6" fillId="2" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="6" fillId="2" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,28 +1828,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3" xr:uid="{A2D025E5-8550-4878-BF92-FE890C7C2E8B}"/>
     <cellStyle name="Обычный 3" xfId="6" xr:uid="{9C987A45-42A3-4562-9AE6-C434DE5BDCC9}"/>
     <cellStyle name="Обычный 4" xfId="9" xr:uid="{4EF9473B-7C7A-4510-A07A-6E53D883A102}"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
     <cellStyle name="Процентный 2" xfId="4" xr:uid="{53F965C6-D0C0-4656-9F5A-386D29384DD4}"/>
     <cellStyle name="Процентный 3" xfId="8" xr:uid="{D349AE15-C6AE-44A7-9F04-A5E685687B44}"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
     <cellStyle name="Финансовый 2" xfId="5" xr:uid="{BCB92B19-8D92-4E36-A115-F0B222B0EAE2}"/>
     <cellStyle name="Финансовый 3" xfId="7" xr:uid="{668B538F-173A-42F6-A7BB-A1066E5FB3A9}"/>
     <cellStyle name="Финансовый 4" xfId="10" xr:uid="{4D6C42C2-2A5A-494B-8D91-E904A8662E2D}"/>
@@ -1863,9 +1863,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1903,7 +1903,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2009,7 +2009,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2151,7 +2151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2165,11 +2165,11 @@
   <dimension ref="A1:BJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BF4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="BE12" sqref="BE12"/>
+      <selection pane="bottomRight" activeCell="BM18" sqref="BM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2192,82 +2192,82 @@
   <sheetData>
     <row r="1" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:62" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="222">
+      <c r="C2" s="220"/>
+      <c r="D2" s="226">
         <v>2022</v>
       </c>
-      <c r="E2" s="223"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="226">
+      <c r="E2" s="227"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="230">
         <v>2023</v>
       </c>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="229"/>
-      <c r="AB2" s="226">
+      <c r="Q2" s="231"/>
+      <c r="R2" s="231"/>
+      <c r="S2" s="231"/>
+      <c r="T2" s="231"/>
+      <c r="U2" s="231"/>
+      <c r="V2" s="231"/>
+      <c r="W2" s="231"/>
+      <c r="X2" s="231"/>
+      <c r="Y2" s="231"/>
+      <c r="Z2" s="231"/>
+      <c r="AA2" s="233"/>
+      <c r="AB2" s="230">
         <v>2024</v>
       </c>
-      <c r="AC2" s="227"/>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="229"/>
+      <c r="AC2" s="231"/>
+      <c r="AD2" s="231"/>
+      <c r="AE2" s="231"/>
+      <c r="AF2" s="233"/>
       <c r="AG2" s="164"/>
       <c r="AH2" s="164"/>
       <c r="AI2" s="164"/>
       <c r="AJ2" s="164"/>
-      <c r="AK2" s="226" t="s">
+      <c r="AK2" s="230" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="227"/>
-      <c r="AM2" s="227"/>
-      <c r="AN2" s="227"/>
-      <c r="AO2" s="227"/>
-      <c r="AP2" s="227"/>
-      <c r="AQ2" s="227"/>
-      <c r="AR2" s="227"/>
-      <c r="AS2" s="227"/>
-      <c r="AT2" s="228"/>
-      <c r="AU2" s="228"/>
-      <c r="AV2" s="228"/>
-      <c r="AW2" s="227"/>
-      <c r="AX2" s="229"/>
-      <c r="AY2" s="212" t="s">
+      <c r="AL2" s="231"/>
+      <c r="AM2" s="231"/>
+      <c r="AN2" s="231"/>
+      <c r="AO2" s="231"/>
+      <c r="AP2" s="231"/>
+      <c r="AQ2" s="231"/>
+      <c r="AR2" s="231"/>
+      <c r="AS2" s="231"/>
+      <c r="AT2" s="232"/>
+      <c r="AU2" s="232"/>
+      <c r="AV2" s="232"/>
+      <c r="AW2" s="231"/>
+      <c r="AX2" s="233"/>
+      <c r="AY2" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="AZ2" s="213"/>
-      <c r="BA2" s="213"/>
-      <c r="BB2" s="213"/>
-      <c r="BC2" s="213"/>
-      <c r="BD2" s="213"/>
-      <c r="BE2" s="213"/>
-      <c r="BF2" s="213"/>
-      <c r="BG2" s="213"/>
-      <c r="BH2" s="213"/>
-      <c r="BI2" s="214"/>
+      <c r="AZ2" s="217"/>
+      <c r="BA2" s="217"/>
+      <c r="BB2" s="217"/>
+      <c r="BC2" s="217"/>
+      <c r="BD2" s="217"/>
+      <c r="BE2" s="217"/>
+      <c r="BF2" s="217"/>
+      <c r="BG2" s="217"/>
+      <c r="BH2" s="217"/>
+      <c r="BI2" s="218"/>
     </row>
     <row r="3" spans="1:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="217"/>
-      <c r="C3" s="218"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="222"/>
       <c r="D3" s="69" t="s">
         <v>0</v>
       </c>
@@ -2550,107 +2550,107 @@
         <v>562.5</v>
       </c>
       <c r="AJ4" s="197">
-        <v>0</v>
+        <v>523.63636363636294</v>
       </c>
       <c r="AK4" s="87">
-        <f>+P4/O4-1</f>
+        <f t="shared" ref="AK4:AK17" si="0">+P4/O4-1</f>
         <v>-1.5873015873016039E-2</v>
       </c>
       <c r="AL4" s="49">
-        <f>+Q4/P4-1</f>
+        <f t="shared" ref="AL4:AL17" si="1">+Q4/P4-1</f>
         <v>8.3870967741935587E-2</v>
       </c>
       <c r="AM4" s="49">
-        <f>+R4/Q4-1</f>
+        <f t="shared" ref="AM4:AM17" si="2">+R4/Q4-1</f>
         <v>2.2821969696969591E-2</v>
       </c>
       <c r="AN4" s="49">
-        <f>+S4/R4-1</f>
+        <f t="shared" ref="AN4:AN17" si="3">+S4/R4-1</f>
         <v>4.8452303799031426E-3</v>
       </c>
       <c r="AO4" s="49">
-        <f>+T4/S4-1</f>
+        <f t="shared" ref="AO4:AO17" si="4">+T4/S4-1</f>
         <v>1.3513513513513598E-2</v>
       </c>
       <c r="AP4" s="49">
-        <f>+U4/T4-1</f>
+        <f t="shared" ref="AP4:AP17" si="5">+U4/T4-1</f>
         <v>4.1818181818181754E-2</v>
       </c>
       <c r="AQ4" s="49">
-        <f>+V4/U4-1</f>
+        <f t="shared" ref="AQ4:AQ17" si="6">+V4/U4-1</f>
         <v>1.2216404886561616E-2</v>
       </c>
       <c r="AR4" s="49">
-        <f>+W4/V4-1</f>
+        <f t="shared" ref="AR4:AR17" si="7">+W4/V4-1</f>
         <v>-2.1126760563379698E-2</v>
       </c>
       <c r="AS4" s="49">
-        <f>+X4/W4-1</f>
+        <f t="shared" ref="AS4:AS17" si="8">+X4/W4-1</f>
         <v>2.6866782436119951E-2</v>
       </c>
       <c r="AT4" s="49">
-        <f>+Y4/X4-1</f>
+        <f t="shared" ref="AT4:AT17" si="9">+Y4/X4-1</f>
         <v>2.7444253859348011E-2</v>
       </c>
       <c r="AU4" s="49">
-        <f>+Z4/Y4-1</f>
+        <f t="shared" ref="AU4:AU17" si="10">+Z4/Y4-1</f>
         <v>-4.1934970983382724E-3</v>
       </c>
       <c r="AV4" s="49">
-        <f>+AA4/Z4-1</f>
+        <f t="shared" ref="AV4:AV17" si="11">+AA4/Z4-1</f>
         <v>2.3949705618200312E-3</v>
       </c>
       <c r="AW4" s="42">
-        <f>+AA4/O4-1</f>
+        <f t="shared" ref="AW4:AW17" si="12">+AA4/O4-1</f>
         <v>0.20791245791245783</v>
       </c>
       <c r="AX4" s="43">
-        <f>+AA4/O4-1</f>
+        <f t="shared" ref="AX4:AX17" si="13">+AA4/O4-1</f>
         <v>0.20791245791245783</v>
       </c>
       <c r="AY4" s="116">
-        <f>+AB4/AA4-1</f>
+        <f t="shared" ref="AY4:BG4" si="14">+AB4/AA4-1</f>
         <v>3.7602787456446185E-2</v>
       </c>
       <c r="AZ4" s="117">
-        <f>+AC4/AB4-1</f>
+        <f t="shared" si="14"/>
         <v>5.4964539007092306E-2</v>
       </c>
       <c r="BA4" s="117">
-        <f>+AD4/AC4-1</f>
+        <f t="shared" si="14"/>
         <v>-5.7183849149415877E-2</v>
       </c>
       <c r="BB4" s="117">
-        <f>+AE4/AD4-1</f>
+        <f t="shared" si="14"/>
         <v>-2.7667984189724049E-2</v>
       </c>
       <c r="BC4" s="117">
-        <f>+AF4/AE4-1</f>
+        <f t="shared" si="14"/>
         <v>4.7619047619048338E-2</v>
       </c>
       <c r="BD4" s="117">
-        <f>+AG4/AF4-1</f>
+        <f t="shared" si="14"/>
         <v>-5.2414772727273129E-2</v>
       </c>
       <c r="BE4" s="119">
-        <f>+AH4/AG4-1</f>
+        <f t="shared" si="14"/>
         <v>3.7697718705058669E-3</v>
       </c>
       <c r="BF4" s="119">
-        <f>+AI4/AH4-1</f>
+        <f t="shared" si="14"/>
         <v>3.4923339011925902E-2</v>
       </c>
       <c r="BG4" s="119">
-        <f>+AJ4/AI4-1</f>
-        <v>-1</v>
+        <f t="shared" si="14"/>
+        <v>-6.9090909090910313E-2</v>
       </c>
       <c r="BH4" s="119">
         <f>+AJ4/AA4-1</f>
-        <v>-1</v>
+        <v>-3.6655052264809584E-2</v>
       </c>
       <c r="BI4" s="120">
         <f>+AJ4/X4-1</f>
-        <v>-1</v>
+        <v>-1.2006861063466157E-2</v>
       </c>
       <c r="BJ4" s="15"/>
     </row>
@@ -2761,107 +2761,107 @@
         <v>537.77777777777783</v>
       </c>
       <c r="AJ5" s="197">
-        <v>0</v>
+        <v>546.51162790697674</v>
       </c>
       <c r="AK5" s="44">
-        <f>+P5/O5-1</f>
+        <f t="shared" si="0"/>
         <v>1.5488054743291402E-2</v>
       </c>
       <c r="AL5" s="42">
-        <f>+Q5/P5-1</f>
+        <f t="shared" si="1"/>
         <v>2.2012578616352307E-2</v>
       </c>
       <c r="AM5" s="49">
-        <f>+R5/Q5-1</f>
+        <f t="shared" si="2"/>
         <v>1.6190476190476089E-2</v>
       </c>
       <c r="AN5" s="49">
-        <f>+S5/R5-1</f>
+        <f t="shared" si="3"/>
         <v>1.6869728209934376E-2</v>
       </c>
       <c r="AO5" s="49">
-        <f>+T5/S5-1</f>
+        <f t="shared" si="4"/>
         <v>3.6228287841191031E-2</v>
       </c>
       <c r="AP5" s="49">
-        <f>+U5/T5-1</f>
+        <f t="shared" si="5"/>
         <v>8.6206896551725976E-3</v>
       </c>
       <c r="AQ5" s="49">
-        <f>+V5/U5-1</f>
+        <f t="shared" si="6"/>
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="AR5" s="49">
-        <f>+W5/V5-1</f>
+        <f t="shared" si="7"/>
         <v>4.1983657368272809E-2</v>
       </c>
       <c r="AS5" s="49">
-        <f>+X5/W5-1</f>
+        <f t="shared" si="8"/>
         <v>2.1478791624816473E-2</v>
       </c>
       <c r="AT5" s="49">
-        <f>+Y5/X5-1</f>
+        <f t="shared" si="9"/>
         <v>2.507374631268422E-2</v>
       </c>
       <c r="AU5" s="49">
-        <f>+Z5/Y5-1</f>
+        <f t="shared" si="10"/>
         <v>4.930886751273178E-3</v>
       </c>
       <c r="AV5" s="49">
-        <f>+AA5/Z5-1</f>
+        <f t="shared" si="11"/>
         <v>2.2522522522523403E-3</v>
       </c>
       <c r="AW5" s="45">
-        <f>+AA5/O5-1</f>
+        <f t="shared" si="12"/>
         <v>0.24540987845875373</v>
       </c>
       <c r="AX5" s="46">
-        <f>+AA5/O5-1</f>
+        <f t="shared" si="13"/>
         <v>0.24540987845875373</v>
       </c>
       <c r="AY5" s="118">
-        <f>+AB5/AA5-1</f>
+        <f t="shared" ref="AY5:AY17" si="15">+AB5/AA5-1</f>
         <v>2.6666666666666838E-2</v>
       </c>
       <c r="AZ5" s="119">
-        <f>+AC5/AB5-1</f>
+        <f t="shared" ref="AZ5:AZ17" si="16">+AC5/AB5-1</f>
         <v>7.3308365716597823E-3</v>
       </c>
       <c r="BA5" s="119">
-        <f>+AD5/AC5-1</f>
+        <f t="shared" ref="BA5:BA17" si="17">+AD5/AC5-1</f>
         <v>2.4082809185355991E-2</v>
       </c>
       <c r="BB5" s="119">
-        <f>+AE5/AD5-1</f>
+        <f t="shared" ref="BB5:BB17" si="18">+AE5/AD5-1</f>
         <v>-1.3523893161114464E-2</v>
       </c>
       <c r="BC5" s="119">
-        <f>+AF5/AE5-1</f>
+        <f t="shared" ref="BC5:BC17" si="19">+AF5/AE5-1</f>
         <v>1.6964285714285543E-2</v>
       </c>
       <c r="BD5" s="119">
-        <f>+AG5/AF5-1</f>
+        <f t="shared" ref="BD5:BD17" si="20">+AG5/AF5-1</f>
         <v>-7.9449961802902092E-3</v>
       </c>
       <c r="BE5" s="119">
-        <f>+AH5/AG5-1</f>
+        <f t="shared" ref="BE5:BE17" si="21">+AH5/AG5-1</f>
         <v>1.647928538425969E-2</v>
       </c>
       <c r="BF5" s="119">
-        <f>+AI5/AH5-1</f>
+        <f t="shared" ref="BF5:BF17" si="22">+AI5/AH5-1</f>
         <v>3.8518518518519951E-3</v>
       </c>
       <c r="BG5" s="119">
-        <f t="shared" ref="BG5:BG17" si="0">+AJ5/AI5-1</f>
-        <v>-1</v>
+        <f t="shared" ref="BG5:BG17" si="23">+AJ5/AI5-1</f>
+        <v>1.6240630405535139E-2</v>
       </c>
       <c r="BH5" s="119">
-        <f t="shared" ref="BH5:BH17" si="1">+AJ5/AA5-1</f>
-        <v>-1</v>
+        <f t="shared" ref="BH5:BH17" si="24">+AJ5/AA5-1</f>
+        <v>9.3023255813953432E-2</v>
       </c>
       <c r="BI5" s="120">
-        <f t="shared" ref="BI5:BI17" si="2">+AJ5/X5-1</f>
-        <v>-1</v>
+        <f t="shared" ref="BI5:BI17" si="25">+AJ5/X5-1</f>
+        <v>0.12849008712355081</v>
       </c>
       <c r="BJ5" s="15"/>
     </row>
@@ -2972,107 +2972,107 @@
         <v>395.6521739130435</v>
       </c>
       <c r="AJ6" s="197">
-        <v>0</v>
+        <v>416.65277777777783</v>
       </c>
       <c r="AK6" s="44">
-        <f>+P6/O6-1</f>
+        <f t="shared" si="0"/>
         <v>-2.9493087557603603E-2</v>
       </c>
       <c r="AL6" s="42">
-        <f>+Q6/P6-1</f>
+        <f t="shared" si="1"/>
         <v>0.14074074074074083</v>
       </c>
       <c r="AM6" s="49">
-        <f>+R6/Q6-1</f>
+        <f t="shared" si="2"/>
         <v>-2.7639027639027702E-2</v>
       </c>
       <c r="AN6" s="49">
-        <f>+S6/R6-1</f>
+        <f t="shared" si="3"/>
         <v>5.780821917808221E-2</v>
       </c>
       <c r="AO6" s="49">
-        <f>+T6/S6-1</f>
+        <f t="shared" si="4"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="AP6" s="49">
-        <f>+U6/T6-1</f>
+        <f t="shared" si="5"/>
         <v>-1.6487455197132794E-2</v>
       </c>
       <c r="AQ6" s="49">
-        <f>+V6/U6-1</f>
+        <f t="shared" si="6"/>
         <v>4.2345629561796327E-2</v>
       </c>
       <c r="AR6" s="49">
-        <f>+W6/V6-1</f>
+        <f t="shared" si="7"/>
         <v>-8.0282940829730087E-2</v>
       </c>
       <c r="AS6" s="49">
-        <f>+X6/W6-1</f>
+        <f t="shared" si="8"/>
         <v>8.0404040404040256E-2</v>
       </c>
       <c r="AT6" s="49">
-        <f>+Y6/X6-1</f>
+        <f t="shared" si="9"/>
         <v>-2.3560209424083767E-2</v>
       </c>
       <c r="AU6" s="49">
-        <f>+Z6/Y6-1</f>
+        <f t="shared" si="10"/>
         <v>-3.180806107146994E-4</v>
       </c>
       <c r="AV6" s="49">
-        <f>+AA6/Z6-1</f>
+        <f t="shared" si="11"/>
         <v>-6.8068181818181861E-2</v>
       </c>
       <c r="AW6" s="45">
-        <f>+AA6/O6-1</f>
+        <f t="shared" si="12"/>
         <v>9.9188940092165945E-2</v>
       </c>
       <c r="AX6" s="46">
-        <f>+AA6/O6-1</f>
+        <f t="shared" si="13"/>
         <v>9.9188940092165945E-2</v>
       </c>
       <c r="AY6" s="118">
-        <f>+AB6/AA6-1</f>
+        <f t="shared" si="15"/>
         <v>4.7482014388489313E-2</v>
       </c>
       <c r="AZ6" s="119">
-        <f>+AC6/AB6-1</f>
+        <f t="shared" si="16"/>
         <v>3.0219780219780112E-2</v>
       </c>
       <c r="BA6" s="119">
-        <f>+AD6/AC6-1</f>
+        <f t="shared" si="17"/>
         <v>1.1494252873563315E-2</v>
       </c>
       <c r="BB6" s="119">
-        <f>+AE6/AD6-1</f>
+        <f t="shared" si="18"/>
         <v>-1.1363636363636354E-2</v>
       </c>
       <c r="BC6" s="119">
-        <f>+AF6/AE6-1</f>
+        <f t="shared" si="19"/>
         <v>3.3673469387754729E-2</v>
       </c>
       <c r="BD6" s="119">
-        <f>+AG6/AF6-1</f>
+        <f t="shared" si="20"/>
         <v>2.8384427105167642E-2</v>
       </c>
       <c r="BE6" s="119">
-        <f>+AH6/AG6-1</f>
+        <f t="shared" si="21"/>
         <v>-3.090738013418437E-2</v>
       </c>
       <c r="BF6" s="119">
-        <f>+AI6/AH6-1</f>
+        <f t="shared" si="22"/>
         <v>2.4184363904334427E-2</v>
       </c>
       <c r="BG6" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>5.3078449328449295E-2</v>
       </c>
       <c r="BH6" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>0.19900079936051163</v>
       </c>
       <c r="BI6" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>9.0714077952297911E-2</v>
       </c>
       <c r="BJ6" s="15"/>
     </row>
@@ -3183,107 +3183,107 @@
         <v>388.88888888888891</v>
       </c>
       <c r="AJ7" s="197">
+        <v>436.36363636363637</v>
+      </c>
+      <c r="AK7" s="44">
+        <f t="shared" si="0"/>
+        <v>-7.5313807531380728E-2</v>
+      </c>
+      <c r="AL7" s="42">
+        <f t="shared" si="1"/>
+        <v>8.736512356421855E-2</v>
+      </c>
+      <c r="AM7" s="49">
+        <f t="shared" si="2"/>
+        <v>4.6643497347724772E-3</v>
+      </c>
+      <c r="AN7" s="49">
+        <f t="shared" si="3"/>
+        <v>4.8667492316866179E-2</v>
+      </c>
+      <c r="AO7" s="49">
+        <f t="shared" si="4"/>
+        <v>-5.9951010410287719E-2</v>
+      </c>
+      <c r="AP7" s="49">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="44">
-        <f>+P7/O7-1</f>
-        <v>-7.5313807531380728E-2</v>
-      </c>
-      <c r="AL7" s="42">
-        <f>+Q7/P7-1</f>
-        <v>8.736512356421855E-2</v>
-      </c>
-      <c r="AM7" s="49">
-        <f>+R7/Q7-1</f>
-        <v>4.6643497347724772E-3</v>
-      </c>
-      <c r="AN7" s="49">
-        <f>+S7/R7-1</f>
-        <v>4.8667492316866179E-2</v>
-      </c>
-      <c r="AO7" s="49">
-        <f>+T7/S7-1</f>
-        <v>-5.9951010410287719E-2</v>
-      </c>
-      <c r="AP7" s="49">
-        <f>+U7/T7-1</f>
+      <c r="AQ7" s="49">
+        <f t="shared" si="6"/>
+        <v>3.4482758620689724E-2</v>
+      </c>
+      <c r="AR7" s="49">
+        <f t="shared" si="7"/>
+        <v>-8.9947089947088887E-3</v>
+      </c>
+      <c r="AS7" s="49">
+        <f t="shared" si="8"/>
+        <v>5.1687838096484917E-2</v>
+      </c>
+      <c r="AT7" s="49">
+        <f t="shared" si="9"/>
+        <v>-3.4642857142857086E-2</v>
+      </c>
+      <c r="AU7" s="49">
+        <f t="shared" si="10"/>
+        <v>3.7037037037037202E-2</v>
+      </c>
+      <c r="AV7" s="49">
+        <f t="shared" si="11"/>
+        <v>4.8264945737095388E-3</v>
+      </c>
+      <c r="AW7" s="45">
+        <f t="shared" si="12"/>
+        <v>8.0036659904424212E-2</v>
+      </c>
+      <c r="AX7" s="46">
+        <f t="shared" si="13"/>
+        <v>8.0036659904424212E-2</v>
+      </c>
+      <c r="AY7" s="118">
+        <f t="shared" si="15"/>
+        <v>-5.9078582413948366E-3</v>
+      </c>
+      <c r="AZ7" s="119">
+        <f t="shared" si="16"/>
+        <v>2.4846938775510363E-2</v>
+      </c>
+      <c r="BA7" s="119">
+        <f t="shared" si="17"/>
+        <v>-2.6385224274406704E-3</v>
+      </c>
+      <c r="BB7" s="119">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AQ7" s="49">
-        <f>+V7/U7-1</f>
-        <v>3.4482758620689724E-2</v>
-      </c>
-      <c r="AR7" s="49">
-        <f>+W7/V7-1</f>
-        <v>-8.9947089947088887E-3</v>
-      </c>
-      <c r="AS7" s="49">
-        <f>+X7/W7-1</f>
-        <v>5.1687838096484917E-2</v>
-      </c>
-      <c r="AT7" s="49">
-        <f>+Y7/X7-1</f>
-        <v>-3.4642857142857086E-2</v>
-      </c>
-      <c r="AU7" s="49">
-        <f>+Z7/Y7-1</f>
-        <v>3.7037037037037202E-2</v>
-      </c>
-      <c r="AV7" s="49">
-        <f>+AA7/Z7-1</f>
-        <v>4.8264945737095388E-3</v>
-      </c>
-      <c r="AW7" s="45">
-        <f>+AA7/O7-1</f>
-        <v>8.0036659904424212E-2</v>
-      </c>
-      <c r="AX7" s="46">
-        <f>+AA7/O7-1</f>
-        <v>8.0036659904424212E-2</v>
-      </c>
-      <c r="AY7" s="118">
-        <f>+AB7/AA7-1</f>
-        <v>-5.9078582413948366E-3</v>
-      </c>
-      <c r="AZ7" s="119">
-        <f>+AC7/AB7-1</f>
-        <v>2.4846938775510363E-2</v>
-      </c>
-      <c r="BA7" s="119">
-        <f>+AD7/AC7-1</f>
-        <v>-2.6385224274406704E-3</v>
-      </c>
-      <c r="BB7" s="119">
-        <f>+AE7/AD7-1</f>
+      <c r="BC7" s="119">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BC7" s="119">
-        <f>+AF7/AE7-1</f>
-        <v>0</v>
-      </c>
       <c r="BD7" s="119">
-        <f>+AG7/AF7-1</f>
+        <f t="shared" si="20"/>
         <v>3.7037037037036979E-2</v>
       </c>
       <c r="BE7" s="119">
-        <f>+AH7/AG7-1</f>
+        <f t="shared" si="21"/>
         <v>-3.8690476190476164E-2</v>
       </c>
       <c r="BF7" s="119">
-        <f>+AI7/AH7-1</f>
+        <f t="shared" si="22"/>
         <v>1.1351909184726505E-2</v>
       </c>
       <c r="BG7" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>0.12207792207792201</v>
       </c>
       <c r="BH7" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>0.14953200392449628</v>
       </c>
       <c r="BI7" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>0.15636363636363648</v>
       </c>
       <c r="BJ7" s="15"/>
     </row>
@@ -3394,107 +3394,107 @@
         <v>428.57142857142861</v>
       </c>
       <c r="AJ8" s="197">
-        <v>0</v>
+        <v>422.41379310344831</v>
       </c>
       <c r="AK8" s="44">
-        <f>+P8/O8-1</f>
+        <f t="shared" si="0"/>
         <v>-1.9748538052969389E-2</v>
       </c>
       <c r="AL8" s="42">
-        <f>+Q8/P8-1</f>
+        <f t="shared" si="1"/>
         <v>1.1897650496717649E-2</v>
       </c>
       <c r="AM8" s="49">
-        <f>+R8/Q8-1</f>
+        <f t="shared" si="2"/>
         <v>1.047241765816187E-2</v>
       </c>
       <c r="AN8" s="49">
-        <f>+S8/R8-1</f>
+        <f t="shared" si="3"/>
         <v>2.6209207332714923E-2</v>
       </c>
       <c r="AO8" s="49">
-        <f>+T8/S8-1</f>
+        <f t="shared" si="4"/>
         <v>-1.6893186397293425E-2</v>
       </c>
       <c r="AP8" s="49">
-        <f>+U8/T8-1</f>
+        <f t="shared" si="5"/>
         <v>3.3723038575457887E-2</v>
       </c>
       <c r="AQ8" s="49">
-        <f>+V8/U8-1</f>
+        <f t="shared" si="6"/>
         <v>3.7480978856008207E-3</v>
       </c>
       <c r="AR8" s="49">
-        <f>+W8/V8-1</f>
+        <f t="shared" si="7"/>
         <v>3.0372298002708575E-2</v>
       </c>
       <c r="AS8" s="49">
-        <f>+X8/W8-1</f>
+        <f t="shared" si="8"/>
         <v>3.0714285714285694E-2</v>
       </c>
       <c r="AT8" s="49">
-        <f>+Y8/X8-1</f>
+        <f t="shared" si="9"/>
         <v>-4.9806955138420594E-3</v>
       </c>
       <c r="AU8" s="49">
-        <f>+Z8/Y8-1</f>
+        <f t="shared" si="10"/>
         <v>-3.575537898138359E-3</v>
       </c>
       <c r="AV8" s="49">
-        <f>+AA8/Z8-1</f>
+        <f t="shared" si="11"/>
         <v>4.1983594023200066E-2</v>
       </c>
       <c r="AW8" s="45">
-        <f>+AA8/O8-1</f>
+        <f t="shared" si="12"/>
         <v>0.15115374643505319</v>
       </c>
       <c r="AX8" s="46">
-        <f>+AA8/O8-1</f>
+        <f t="shared" si="13"/>
         <v>0.15115374643505319</v>
       </c>
       <c r="AY8" s="118">
-        <f>+AB8/AA8-1</f>
+        <f t="shared" si="15"/>
         <v>-1.0561236912588479E-2</v>
       </c>
       <c r="AZ8" s="119">
-        <f>+AC8/AB8-1</f>
+        <f t="shared" si="16"/>
         <v>4.9637753406450713E-3</v>
       </c>
       <c r="BA8" s="119">
-        <f>+AD8/AC8-1</f>
+        <f t="shared" si="17"/>
         <v>-8.173453406422615E-4</v>
       </c>
       <c r="BB8" s="119">
-        <f>+AE8/AD8-1</f>
+        <f t="shared" si="18"/>
         <v>3.5121754412446027E-2</v>
       </c>
       <c r="BC8" s="119">
-        <f>+AF8/AE8-1</f>
+        <f t="shared" si="19"/>
         <v>1.3819099161564763E-2</v>
       </c>
       <c r="BD8" s="119">
-        <f>+AG8/AF8-1</f>
+        <f t="shared" si="20"/>
         <v>1.6712900904608974E-2</v>
       </c>
       <c r="BE8" s="119">
-        <f>+AH8/AG8-1</f>
+        <f t="shared" si="21"/>
         <v>-2.9625834126786987E-2</v>
       </c>
       <c r="BF8" s="119">
-        <f>+AI8/AH8-1</f>
+        <f t="shared" si="22"/>
         <v>3.4065764667696286E-2</v>
       </c>
       <c r="BG8" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>-1.4367816091954033E-2</v>
       </c>
       <c r="BH8" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>4.8423423423423539E-2</v>
       </c>
       <c r="BI8" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>8.3112290008841905E-2</v>
       </c>
       <c r="BJ8" s="15"/>
     </row>
@@ -3605,107 +3605,107 @@
         <v>632.66</v>
       </c>
       <c r="AJ9" s="197">
-        <v>0</v>
+        <v>616.89814814814815</v>
       </c>
       <c r="AK9" s="44">
-        <f>+P9/O9-1</f>
+        <f t="shared" si="0"/>
         <v>2.3917583333333381E-2</v>
       </c>
       <c r="AL9" s="42">
-        <f>+Q9/P9-1</f>
+        <f t="shared" si="1"/>
         <v>2.1134239592183413E-2</v>
       </c>
       <c r="AM9" s="49">
-        <f>+R9/Q9-1</f>
+        <f t="shared" si="2"/>
         <v>1.5600624024962872E-3</v>
       </c>
       <c r="AN9" s="49">
-        <f>+S9/R9-1</f>
+        <f t="shared" si="3"/>
         <v>3.5314384151593492E-2</v>
       </c>
       <c r="AO9" s="49">
-        <f>+T9/S9-1</f>
+        <f t="shared" si="4"/>
         <v>3.2351702984984687E-2</v>
       </c>
       <c r="AP9" s="49">
-        <f>+U9/T9-1</f>
+        <f t="shared" si="5"/>
         <v>-2.0040080160320661E-3</v>
       </c>
       <c r="AQ9" s="49">
-        <f>+V9/U9-1</f>
+        <f t="shared" si="6"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="AR9" s="49">
-        <f>+W9/V9-1</f>
+        <f t="shared" si="7"/>
         <v>-1.0383051019750345E-2</v>
       </c>
       <c r="AS9" s="49">
-        <f>+X9/W9-1</f>
+        <f t="shared" si="8"/>
         <v>3.1064587702669622E-2</v>
       </c>
       <c r="AT9" s="49">
-        <f>+Y9/X9-1</f>
+        <f t="shared" si="9"/>
         <v>-3.7442443938977554E-2</v>
       </c>
       <c r="AU9" s="49">
-        <f>+Z9/Y9-1</f>
+        <f t="shared" si="10"/>
         <v>1.725139849072832E-2</v>
       </c>
       <c r="AV9" s="49">
-        <f>+AA9/Z9-1</f>
+        <f t="shared" si="11"/>
         <v>-8.9638377544865033E-3</v>
       </c>
       <c r="AW9" s="45">
-        <f>+AA9/O9-1</f>
+        <f t="shared" si="12"/>
         <v>0.15207255215029725</v>
       </c>
       <c r="AX9" s="46">
-        <f>+AA9/O9-1</f>
+        <f t="shared" si="13"/>
         <v>0.15207255215029725</v>
       </c>
       <c r="AY9" s="118">
-        <f>+AB9/AA9-1</f>
+        <f t="shared" si="15"/>
         <v>2.4768795320513126E-2</v>
       </c>
       <c r="AZ9" s="119">
-        <f>+AC9/AB9-1</f>
+        <f t="shared" si="16"/>
         <v>-9.8707331234911821E-3</v>
       </c>
       <c r="BA9" s="119">
-        <f>+AD9/AC9-1</f>
+        <f t="shared" si="17"/>
         <v>3.5357875948237361E-2</v>
       </c>
       <c r="BB9" s="119">
-        <f>+AE9/AD9-1</f>
+        <f t="shared" si="18"/>
         <v>-4.0930442688749902E-2</v>
       </c>
       <c r="BC9" s="119">
-        <f>+AF9/AE9-1</f>
+        <f t="shared" si="19"/>
         <v>3.2797313535823935E-3</v>
       </c>
       <c r="BD9" s="119">
-        <f>+AG9/AF9-1</f>
+        <f t="shared" si="20"/>
         <v>-3.6500730633270972E-4</v>
       </c>
       <c r="BE9" s="119">
-        <f>+AH9/AG9-1</f>
+        <f t="shared" si="21"/>
         <v>-8.500967931992176E-3</v>
       </c>
       <c r="BF9" s="119">
-        <f>+AI9/AH9-1</f>
+        <f t="shared" si="22"/>
         <v>2.0419354838709713E-2</v>
       </c>
       <c r="BG9" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>-2.4913621616431958E-2</v>
       </c>
       <c r="BH9" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>-3.1359178240739638E-3</v>
       </c>
       <c r="BI9" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>-3.2657089049020094E-2</v>
       </c>
       <c r="BJ9" s="15"/>
     </row>
@@ -3816,107 +3816,107 @@
         <v>500</v>
       </c>
       <c r="AJ10" s="197">
+        <v>500</v>
+      </c>
+      <c r="AK10" s="44">
+        <f t="shared" si="0"/>
+        <v>3.4894398530761928E-2</v>
+      </c>
+      <c r="AL10" s="42">
+        <f t="shared" si="1"/>
+        <v>5.9006211180123946E-2</v>
+      </c>
+      <c r="AM10" s="49">
+        <f t="shared" si="2"/>
+        <v>-8.7096774193546889E-3</v>
+      </c>
+      <c r="AN10" s="49">
+        <f t="shared" si="3"/>
+        <v>2.0708221163800999E-4</v>
+      </c>
+      <c r="AO10" s="49">
+        <f t="shared" si="4"/>
+        <v>6.2801932367149815E-2</v>
+      </c>
+      <c r="AP10" s="49">
+        <f t="shared" si="5"/>
+        <v>-3.2467532467533866E-3</v>
+      </c>
+      <c r="AQ10" s="49">
+        <f t="shared" si="6"/>
+        <v>3.2573289902280145E-3</v>
+      </c>
+      <c r="AR10" s="49">
+        <f t="shared" si="7"/>
+        <v>4.305624688899945E-2</v>
+      </c>
+      <c r="AS10" s="49">
+        <f t="shared" si="8"/>
+        <v>-1.3886900501073773E-2</v>
+      </c>
+      <c r="AT10" s="49">
+        <f t="shared" si="9"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="AU10" s="49">
+        <f t="shared" si="10"/>
+        <v>-8.0601665967519054E-3</v>
+      </c>
+      <c r="AV10" s="49">
+        <f t="shared" si="11"/>
+        <v>-1.6093574317407544E-2</v>
+      </c>
+      <c r="AW10" s="45">
+        <f t="shared" si="12"/>
+        <v>0.19154508043396912</v>
+      </c>
+      <c r="AX10" s="46">
+        <f t="shared" si="13"/>
+        <v>0.19154508043396912</v>
+      </c>
+      <c r="AY10" s="118">
+        <f t="shared" si="15"/>
+        <v>2.0659340659340497E-2</v>
+      </c>
+      <c r="AZ10" s="119">
+        <f t="shared" si="16"/>
+        <v>-8.720930232558155E-3</v>
+      </c>
+      <c r="BA10" s="119">
+        <f t="shared" si="17"/>
+        <v>-9.7751710654925272E-4</v>
+      </c>
+      <c r="BB10" s="119">
+        <f t="shared" si="18"/>
+        <v>1.0273972602739656E-2</v>
+      </c>
+      <c r="BC10" s="119">
+        <f t="shared" si="19"/>
+        <v>-1.5408320493067729E-3</v>
+      </c>
+      <c r="BD10" s="119">
+        <f t="shared" si="20"/>
+        <v>-4.9382716049382602E-2</v>
+      </c>
+      <c r="BE10" s="119">
+        <f t="shared" si="21"/>
+        <v>5.7142857142857162E-2</v>
+      </c>
+      <c r="BF10" s="119">
+        <f t="shared" si="22"/>
+        <v>1.3513513513513598E-2</v>
+      </c>
+      <c r="BG10" s="119">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="44">
-        <f>+P10/O10-1</f>
-        <v>3.4894398530761928E-2</v>
-      </c>
-      <c r="AL10" s="42">
-        <f>+Q10/P10-1</f>
-        <v>5.9006211180123946E-2</v>
-      </c>
-      <c r="AM10" s="49">
-        <f>+R10/Q10-1</f>
-        <v>-8.7096774193546889E-3</v>
-      </c>
-      <c r="AN10" s="49">
-        <f>+S10/R10-1</f>
-        <v>2.0708221163800999E-4</v>
-      </c>
-      <c r="AO10" s="49">
-        <f>+T10/S10-1</f>
-        <v>6.2801932367149815E-2</v>
-      </c>
-      <c r="AP10" s="49">
-        <f>+U10/T10-1</f>
-        <v>-3.2467532467533866E-3</v>
-      </c>
-      <c r="AQ10" s="49">
-        <f>+V10/U10-1</f>
-        <v>3.2573289902280145E-3</v>
-      </c>
-      <c r="AR10" s="49">
-        <f>+W10/V10-1</f>
-        <v>4.305624688899945E-2</v>
-      </c>
-      <c r="AS10" s="49">
-        <f>+X10/W10-1</f>
-        <v>-1.3886900501073773E-2</v>
-      </c>
-      <c r="AT10" s="49">
-        <f>+Y10/X10-1</f>
-        <v>2.7777777777777679E-2</v>
-      </c>
-      <c r="AU10" s="49">
-        <f>+Z10/Y10-1</f>
-        <v>-8.0601665967519054E-3</v>
-      </c>
-      <c r="AV10" s="49">
-        <f>+AA10/Z10-1</f>
-        <v>-1.6093574317407544E-2</v>
-      </c>
-      <c r="AW10" s="45">
-        <f>+AA10/O10-1</f>
-        <v>0.19154508043396912</v>
-      </c>
-      <c r="AX10" s="46">
-        <f>+AA10/O10-1</f>
-        <v>0.19154508043396912</v>
-      </c>
-      <c r="AY10" s="118">
-        <f>+AB10/AA10-1</f>
-        <v>2.0659340659340497E-2</v>
-      </c>
-      <c r="AZ10" s="119">
-        <f>+AC10/AB10-1</f>
-        <v>-8.720930232558155E-3</v>
-      </c>
-      <c r="BA10" s="119">
-        <f>+AD10/AC10-1</f>
-        <v>-9.7751710654925272E-4</v>
-      </c>
-      <c r="BB10" s="119">
-        <f>+AE10/AD10-1</f>
-        <v>1.0273972602739656E-2</v>
-      </c>
-      <c r="BC10" s="119">
-        <f>+AF10/AE10-1</f>
-        <v>-1.5408320493067729E-3</v>
-      </c>
-      <c r="BD10" s="119">
-        <f>+AG10/AF10-1</f>
-        <v>-4.9382716049382602E-2</v>
-      </c>
-      <c r="BE10" s="119">
-        <f>+AH10/AG10-1</f>
-        <v>5.7142857142857162E-2</v>
-      </c>
-      <c r="BF10" s="119">
-        <f>+AI10/AH10-1</f>
-        <v>1.3513513513513598E-2</v>
-      </c>
-      <c r="BG10" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
       <c r="BH10" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>3.8461538461538325E-2</v>
       </c>
       <c r="BI10" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="BJ10" s="15"/>
     </row>
@@ -4027,107 +4027,107 @@
         <v>326.15194805194812</v>
       </c>
       <c r="AJ11" s="197">
-        <v>0</v>
+        <v>329.94</v>
       </c>
       <c r="AK11" s="44">
-        <f>+P11/O11-1</f>
+        <f t="shared" si="0"/>
         <v>5.2979826546003306E-2</v>
       </c>
       <c r="AL11" s="42">
-        <f>+Q11/P11-1</f>
+        <f t="shared" si="1"/>
         <v>2.3181864730550172E-2</v>
       </c>
       <c r="AM11" s="49">
-        <f>+R11/Q11-1</f>
+        <f t="shared" si="2"/>
         <v>-4.0194515846677548E-2</v>
       </c>
       <c r="AN11" s="49">
-        <f>+S11/R11-1</f>
+        <f t="shared" si="3"/>
         <v>2.0321018631771492E-2</v>
       </c>
       <c r="AO11" s="49">
-        <f>+T11/S11-1</f>
+        <f t="shared" si="4"/>
         <v>2.2167432874033999E-3</v>
       </c>
       <c r="AP11" s="49">
-        <f>+U11/T11-1</f>
+        <f t="shared" si="5"/>
         <v>9.4393972585193886E-4</v>
       </c>
       <c r="AQ11" s="49">
-        <f>+V11/U11-1</f>
+        <f t="shared" si="6"/>
         <v>3.809331054609455E-3</v>
       </c>
       <c r="AR11" s="49">
-        <f>+W11/V11-1</f>
+        <f t="shared" si="7"/>
         <v>-2.1994559198195263E-2</v>
       </c>
       <c r="AS11" s="49">
-        <f>+X11/W11-1</f>
+        <f t="shared" si="8"/>
         <v>9.7961526290148981E-3</v>
       </c>
       <c r="AT11" s="49">
-        <f>+Y11/X11-1</f>
+        <f t="shared" si="9"/>
         <v>-1.5376295854105049E-2</v>
       </c>
       <c r="AU11" s="49">
-        <f>+Z11/Y11-1</f>
+        <f t="shared" si="10"/>
         <v>1.033842625479453E-3</v>
       </c>
       <c r="AV11" s="49">
-        <f>+AA11/Z11-1</f>
+        <f t="shared" si="11"/>
         <v>-1.9710598129617507E-3</v>
       </c>
       <c r="AW11" s="45">
-        <f>+AA11/O11-1</f>
+        <f t="shared" si="12"/>
         <v>3.2173598759090094E-2</v>
       </c>
       <c r="AX11" s="46">
-        <f>+AA11/O11-1</f>
+        <f t="shared" si="13"/>
         <v>3.2173598759090094E-2</v>
       </c>
       <c r="AY11" s="118">
-        <f>+AB11/AA11-1</f>
+        <f t="shared" si="15"/>
         <v>7.9753951225740582E-3</v>
       </c>
       <c r="AZ11" s="119">
-        <f>+AC11/AB11-1</f>
+        <f t="shared" si="16"/>
         <v>-2.3437251991074159E-2</v>
       </c>
       <c r="BA11" s="119">
-        <f>+AD11/AC11-1</f>
+        <f t="shared" si="17"/>
         <v>4.7107746647261139E-2</v>
       </c>
       <c r="BB11" s="119">
-        <f>+AE11/AD11-1</f>
+        <f t="shared" si="18"/>
         <v>-2.7108979808022515E-2</v>
       </c>
       <c r="BC11" s="119">
-        <f>+AF11/AE11-1</f>
+        <f t="shared" si="19"/>
         <v>1.2771176839576626E-4</v>
       </c>
       <c r="BD11" s="119">
-        <f>+AG11/AF11-1</f>
+        <f t="shared" si="20"/>
         <v>5.4804989639112289E-3</v>
       </c>
       <c r="BE11" s="119">
-        <f>+AH11/AG11-1</f>
+        <f t="shared" si="21"/>
         <v>4.0968971981686808E-2</v>
       </c>
       <c r="BF11" s="119">
-        <f>+AI11/AH11-1</f>
+        <f t="shared" si="22"/>
         <v>-1.1061406755766834E-2</v>
       </c>
       <c r="BG11" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>1.1614377809721077E-2</v>
       </c>
       <c r="BH11" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>5.0163376481818123E-2</v>
       </c>
       <c r="BI11" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>3.3044549291597169E-2</v>
       </c>
       <c r="BJ11" s="15"/>
     </row>
@@ -4238,107 +4238,107 @@
         <v>750</v>
       </c>
       <c r="AJ12" s="197">
-        <v>0</v>
+        <v>763.88888888888891</v>
       </c>
       <c r="AK12" s="44">
-        <f>+P12/O12-1</f>
+        <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
       <c r="AL12" s="42">
-        <f>+Q12/P12-1</f>
+        <f t="shared" si="1"/>
         <v>3.7437437437437548E-2</v>
       </c>
       <c r="AM12" s="49">
-        <f>+R12/Q12-1</f>
+        <f t="shared" si="2"/>
         <v>-8.546066052820156E-3</v>
       </c>
       <c r="AN12" s="49">
-        <f>+S12/R12-1</f>
+        <f t="shared" si="3"/>
         <v>6.5359477124182774E-3</v>
       </c>
       <c r="AO12" s="49">
-        <f>+T12/S12-1</f>
+        <f t="shared" si="4"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AP12" s="49">
-        <f>+U12/T12-1</f>
+        <f t="shared" si="5"/>
         <v>1.6260162601626105E-2</v>
       </c>
       <c r="AQ12" s="49">
-        <f>+V12/U12-1</f>
+        <f t="shared" si="6"/>
         <v>3.6253842775581857E-2</v>
       </c>
       <c r="AR12" s="49">
-        <f>+W12/V12-1</f>
+        <f t="shared" si="7"/>
         <v>-3.9430595468823437E-3</v>
       </c>
       <c r="AS12" s="49">
-        <f>+X12/W12-1</f>
+        <f t="shared" si="8"/>
         <v>4.8309178743961567E-3</v>
       </c>
       <c r="AT12" s="49">
-        <f>+Y12/X12-1</f>
+        <f t="shared" si="9"/>
         <v>2.6785714285714413E-2</v>
       </c>
       <c r="AU12" s="49">
-        <f>+Z12/Y12-1</f>
+        <f t="shared" si="10"/>
         <v>-1.176470588235301E-2</v>
       </c>
       <c r="AV12" s="49">
-        <f>+AA12/Z12-1</f>
+        <f t="shared" si="11"/>
         <v>1.1904761904762085E-2</v>
       </c>
       <c r="AW12" s="45">
-        <f>+AA12/O12-1</f>
+        <f t="shared" si="12"/>
         <v>0.16071428571428581</v>
       </c>
       <c r="AX12" s="46">
-        <f>+AA12/O12-1</f>
+        <f t="shared" si="13"/>
         <v>0.16071428571428581</v>
       </c>
       <c r="AY12" s="118">
-        <f>+AB12/AA12-1</f>
+        <f t="shared" si="15"/>
         <v>2.0338983050847359E-2</v>
       </c>
       <c r="AZ12" s="119">
-        <f>+AC12/AB12-1</f>
+        <f t="shared" si="16"/>
         <v>2.9069767441860517E-2</v>
       </c>
       <c r="BA12" s="119">
-        <f>+AD12/AC12-1</f>
+        <f t="shared" si="17"/>
         <v>-2.5641025641025661E-2</v>
       </c>
       <c r="BB12" s="119">
-        <f>+AE12/AD12-1</f>
+        <f t="shared" si="18"/>
         <v>1.4432853906538146E-2</v>
       </c>
       <c r="BC12" s="119">
-        <f>+AF12/AE12-1</f>
+        <f t="shared" si="19"/>
         <v>-1.0768659487560228E-2</v>
       </c>
       <c r="BD12" s="119">
-        <f>+AG12/AF12-1</f>
+        <f t="shared" si="20"/>
         <v>2.9731275014293956E-2</v>
       </c>
       <c r="BE12" s="119">
-        <f>+AH12/AG12-1</f>
+        <f t="shared" si="21"/>
         <v>-5.5524708495291453E-4</v>
       </c>
       <c r="BF12" s="119">
-        <f>+AI12/AH12-1</f>
+        <f t="shared" si="22"/>
         <v>-6.2499999999999778E-3</v>
       </c>
       <c r="BG12" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>1.8518518518518601E-2</v>
       </c>
       <c r="BH12" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="BI12" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>9.8090277777777679E-2</v>
       </c>
       <c r="BJ12" s="15"/>
     </row>
@@ -4449,107 +4449,107 @@
         <v>641.56545209176784</v>
       </c>
       <c r="AJ13" s="197">
-        <v>0</v>
+        <v>644.73684210526312</v>
       </c>
       <c r="AK13" s="44">
-        <f>+P13/O13-1</f>
+        <f t="shared" si="0"/>
         <v>2.8571428571428692E-2</v>
       </c>
       <c r="AL13" s="42">
-        <f>+Q13/P13-1</f>
+        <f t="shared" si="1"/>
         <v>1.8808962264150964E-2</v>
       </c>
       <c r="AM13" s="42">
-        <f>+R13/Q13-1</f>
+        <f t="shared" si="2"/>
         <v>2.5487758844529695E-2</v>
       </c>
       <c r="AN13" s="49">
-        <f>+S13/R13-1</f>
+        <f t="shared" si="3"/>
         <v>1.3445378151260456E-2</v>
       </c>
       <c r="AO13" s="49">
-        <f>+T13/S13-1</f>
+        <f t="shared" si="4"/>
         <v>3.298611111111116E-2</v>
       </c>
       <c r="AP13" s="49">
-        <f>+U13/T13-1</f>
+        <f t="shared" si="5"/>
         <v>2.857142857142847E-2</v>
       </c>
       <c r="AQ13" s="49">
-        <f>+V13/U13-1</f>
+        <f t="shared" si="6"/>
         <v>2.2222222222222143E-2</v>
       </c>
       <c r="AR13" s="49">
-        <f>+W13/V13-1</f>
+        <f t="shared" si="7"/>
         <v>1.2329656067488592E-2</v>
       </c>
       <c r="AS13" s="49">
-        <f>+X13/W13-1</f>
+        <f t="shared" si="8"/>
         <v>2.3897435897435981E-2</v>
       </c>
       <c r="AT13" s="49">
-        <f>+Y13/X13-1</f>
+        <f t="shared" si="9"/>
         <v>1.7897091722594904E-2</v>
       </c>
       <c r="AU13" s="49">
-        <f>+Z13/Y13-1</f>
+        <f t="shared" si="10"/>
         <v>1.4370245139475823E-2</v>
       </c>
       <c r="AV13" s="49">
-        <f>+AA13/Z13-1</f>
+        <f t="shared" si="11"/>
         <v>1.8333333333333313E-2</v>
       </c>
       <c r="AW13" s="45">
-        <f>+AA13/O13-1</f>
+        <f t="shared" si="12"/>
         <v>0.28914285714285715</v>
       </c>
       <c r="AX13" s="46">
-        <f>+AA13/O13-1</f>
+        <f t="shared" si="13"/>
         <v>0.28914285714285715</v>
       </c>
       <c r="AY13" s="118">
-        <f>+AB13/AA13-1</f>
+        <f t="shared" si="15"/>
         <v>2.5835866261398222E-2</v>
       </c>
       <c r="AZ13" s="119">
-        <f>+AC13/AB13-1</f>
+        <f t="shared" si="16"/>
         <v>-1.6583747927031434E-3</v>
       </c>
       <c r="BA13" s="119">
-        <f>+AD13/AC13-1</f>
+        <f t="shared" si="17"/>
         <v>1.6177957532861553E-2</v>
       </c>
       <c r="BB13" s="119">
-        <f>+AE13/AD13-1</f>
+        <f t="shared" si="18"/>
         <v>3.6363636363636598E-3</v>
       </c>
       <c r="BC13" s="119">
-        <f>+AF13/AE13-1</f>
+        <f t="shared" si="19"/>
         <v>-9.7736625514402986E-3</v>
       </c>
       <c r="BD13" s="119">
-        <f>+AG13/AF13-1</f>
+        <f t="shared" si="20"/>
         <v>6.4954205705862744E-3</v>
       </c>
       <c r="BE13" s="119">
-        <f>+AH13/AG13-1</f>
+        <f t="shared" si="21"/>
         <v>-1.1132610607929805E-2</v>
       </c>
       <c r="BF13" s="119">
-        <f>+AI13/AH13-1</f>
+        <f t="shared" si="22"/>
         <v>-5.472431024072133E-3</v>
       </c>
       <c r="BG13" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>4.9432057214977565E-3</v>
       </c>
       <c r="BH13" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>2.8835386338185831E-2</v>
       </c>
       <c r="BI13" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>8.1773225008830774E-2</v>
       </c>
       <c r="BJ13" s="15"/>
     </row>
@@ -4660,107 +4660,107 @@
         <v>422.222222222222</v>
       </c>
       <c r="AJ14" s="197">
-        <v>0</v>
+        <v>431.506849315068</v>
       </c>
       <c r="AK14" s="44">
-        <f>+P14/O14-1</f>
+        <f t="shared" si="0"/>
         <v>-4.8317378493621832E-2</v>
       </c>
       <c r="AL14" s="42">
-        <f>+Q14/P14-1</f>
+        <f t="shared" si="1"/>
         <v>7.3535533140074216E-2</v>
       </c>
       <c r="AM14" s="49">
-        <f>+R14/Q14-1</f>
+        <f t="shared" si="2"/>
         <v>-2.8503290187429253E-2</v>
       </c>
       <c r="AN14" s="49">
-        <f>+S14/R14-1</f>
+        <f t="shared" si="3"/>
         <v>-2.0176700657288604E-2</v>
       </c>
       <c r="AO14" s="49">
-        <f>+T14/S14-1</f>
+        <f t="shared" si="4"/>
         <v>3.9886039886039892E-2</v>
       </c>
       <c r="AP14" s="49">
-        <f>+U14/T14-1</f>
+        <f t="shared" si="5"/>
         <v>3.8420615832817084E-3</v>
       </c>
       <c r="AQ14" s="49">
-        <f>+V14/U14-1</f>
+        <f t="shared" si="6"/>
         <v>1.5299158109090882E-2</v>
       </c>
       <c r="AR14" s="49">
-        <f>+W14/V14-1</f>
+        <f t="shared" si="7"/>
         <v>-6.0093842650772111E-2</v>
       </c>
       <c r="AS14" s="49">
-        <f>+X14/W14-1</f>
+        <f t="shared" si="8"/>
         <v>6.9364247651028776E-2</v>
       </c>
       <c r="AT14" s="49">
-        <f>+Y14/X14-1</f>
+        <f t="shared" si="9"/>
         <v>-2.366222322465128E-2</v>
       </c>
       <c r="AU14" s="49">
-        <f>+Z14/Y14-1</f>
+        <f t="shared" si="10"/>
         <v>-2.5156382978723246E-2</v>
       </c>
       <c r="AV14" s="49">
-        <f>+AA14/Z14-1</f>
+        <f t="shared" si="11"/>
         <v>7.9000942237572813E-2</v>
       </c>
       <c r="AW14" s="45">
-        <f>+AA14/O14-1</f>
+        <f t="shared" si="12"/>
         <v>6.3922140399655047E-2</v>
       </c>
       <c r="AX14" s="46">
-        <f>+AA14/O14-1</f>
+        <f t="shared" si="13"/>
         <v>6.3922140399655047E-2</v>
       </c>
       <c r="AY14" s="118">
-        <f>+AB14/AA14-1</f>
+        <f t="shared" si="15"/>
         <v>-3.8891444444444478E-2</v>
       </c>
       <c r="AZ14" s="119">
-        <f>+AC14/AB14-1</f>
+        <f t="shared" si="16"/>
         <v>5.3209912536443138E-2</v>
       </c>
       <c r="BA14" s="119">
-        <f>+AD14/AC14-1</f>
+        <f t="shared" si="17"/>
         <v>2.8525872592741752E-3</v>
       </c>
       <c r="BB14" s="119">
-        <f>+AE14/AD14-1</f>
+        <f t="shared" si="18"/>
         <v>-5.5554389573322038E-2</v>
       </c>
       <c r="BC14" s="119">
-        <f>+AF14/AE14-1</f>
+        <f t="shared" si="19"/>
         <v>4.6511111111111614E-2</v>
       </c>
       <c r="BD14" s="119">
-        <f>+AG14/AF14-1</f>
+        <f t="shared" si="20"/>
         <v>1.2278531346747501E-2</v>
       </c>
       <c r="BE14" s="119">
-        <f>+AH14/AG14-1</f>
+        <f t="shared" si="21"/>
         <v>1.9566666666666732E-2</v>
       </c>
       <c r="BF14" s="119">
-        <f>+AI14/AH14-1</f>
+        <f t="shared" si="22"/>
         <v>7.6902678334653807E-3</v>
       </c>
       <c r="BG14" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>2.1989906272529947E-2</v>
       </c>
       <c r="BH14" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>6.6435520547943883E-2</v>
       </c>
       <c r="BI14" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>9.5195049023015121E-2</v>
       </c>
       <c r="BJ14" s="15"/>
     </row>
@@ -4871,107 +4871,107 @@
         <v>422.67373063683311</v>
       </c>
       <c r="AJ15" s="197">
-        <v>0</v>
+        <v>437.1</v>
       </c>
       <c r="AK15" s="44">
-        <f>+P15/O15-1</f>
+        <f t="shared" si="0"/>
         <v>4.416955903960007E-2</v>
       </c>
       <c r="AL15" s="42">
-        <f>+Q15/P15-1</f>
+        <f t="shared" si="1"/>
         <v>2.6137993953900818E-5</v>
       </c>
       <c r="AM15" s="49">
-        <f>+R15/Q15-1</f>
+        <f t="shared" si="2"/>
         <v>3.4337430381864653E-2</v>
       </c>
       <c r="AN15" s="49">
-        <f>+S15/R15-1</f>
+        <f t="shared" si="3"/>
         <v>-2.330860745341623E-2</v>
       </c>
       <c r="AO15" s="49">
-        <f>+T15/S15-1</f>
+        <f t="shared" si="4"/>
         <v>8.764300639338396E-2</v>
       </c>
       <c r="AP15" s="49">
-        <f>+U15/T15-1</f>
+        <f t="shared" si="5"/>
         <v>3.8337643668453492E-3</v>
       </c>
       <c r="AQ15" s="49">
-        <f>+V15/U15-1</f>
+        <f t="shared" si="6"/>
         <v>8.2231827303047567E-7</v>
       </c>
       <c r="AR15" s="49">
-        <f>+W15/V15-1</f>
+        <f t="shared" si="7"/>
         <v>-2.8700168635996448E-2</v>
       </c>
       <c r="AS15" s="49">
-        <f>+X15/W15-1</f>
+        <f t="shared" si="8"/>
         <v>4.765587260651416E-2</v>
       </c>
       <c r="AT15" s="49">
-        <f>+Y15/X15-1</f>
+        <f t="shared" si="9"/>
         <v>3.8896369878917758E-2</v>
       </c>
       <c r="AU15" s="49">
-        <f>+Z15/Y15-1</f>
+        <f t="shared" si="10"/>
         <v>4.1748673684210535E-2</v>
       </c>
       <c r="AV15" s="49">
-        <f>+AA15/Z15-1</f>
+        <f t="shared" si="11"/>
         <v>2.5837886838742774E-2</v>
       </c>
       <c r="AW15" s="45">
-        <f>+AA15/O15-1</f>
+        <f t="shared" si="12"/>
         <v>0.30117704690908464</v>
       </c>
       <c r="AX15" s="46">
-        <f>+AA15/O15-1</f>
+        <f t="shared" si="13"/>
         <v>0.30117704690908464</v>
       </c>
       <c r="AY15" s="118">
-        <f>+AB15/AA15-1</f>
+        <f t="shared" si="15"/>
         <v>6.3795815384615429E-2</v>
       </c>
       <c r="AZ15" s="119">
-        <f>+AC15/AB15-1</f>
+        <f t="shared" si="16"/>
         <v>-7.4404761904761973E-2</v>
       </c>
       <c r="BA15" s="119">
-        <f>+AD15/AC15-1</f>
+        <f t="shared" si="17"/>
         <v>1.2382747532986071E-2</v>
       </c>
       <c r="BB15" s="119">
-        <f>+AE15/AD15-1</f>
+        <f t="shared" si="18"/>
         <v>-2.0048479412267173E-2</v>
       </c>
       <c r="BC15" s="119">
-        <f>+AF15/AE15-1</f>
+        <f t="shared" si="19"/>
         <v>6.9557713577306002E-2</v>
       </c>
       <c r="BD15" s="119">
-        <f>+AG15/AF15-1</f>
+        <f t="shared" si="20"/>
         <v>7.1805194805163453E-4</v>
       </c>
       <c r="BE15" s="119">
-        <f>+AH15/AG15-1</f>
+        <f t="shared" si="21"/>
         <v>3.3348910892425643E-2</v>
       </c>
       <c r="BF15" s="119">
-        <f>+AI15/AH15-1</f>
+        <f t="shared" si="22"/>
         <v>-3.3888615687238555E-2</v>
       </c>
       <c r="BG15" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>3.4130981694630469E-2</v>
       </c>
       <c r="BH15" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>7.9429814600000093E-2</v>
       </c>
       <c r="BI15" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>0.19841801541922433</v>
       </c>
       <c r="BJ15" s="15"/>
     </row>
@@ -5082,107 +5082,107 @@
         <v>439.09552845528458</v>
       </c>
       <c r="AJ16" s="197">
-        <v>0</v>
+        <v>425.531914893617</v>
       </c>
       <c r="AK16" s="44">
-        <f>+P16/O16-1</f>
+        <f t="shared" si="0"/>
         <v>8.5972850678732948E-2</v>
       </c>
       <c r="AL16" s="42">
-        <f>+Q16/P16-1</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333037E-3</v>
       </c>
       <c r="AM16" s="49">
-        <f>+R16/Q16-1</f>
+        <f t="shared" si="2"/>
         <v>1.3368983957218195E-3</v>
       </c>
       <c r="AN16" s="49">
-        <f>+S16/R16-1</f>
+        <f t="shared" si="3"/>
         <v>2.1361815754339153E-2</v>
       </c>
       <c r="AO16" s="49">
-        <f>+T16/S16-1</f>
+        <f t="shared" si="4"/>
         <v>4.4669772540421704E-2</v>
       </c>
       <c r="AP16" s="49">
-        <f>+U16/T16-1</f>
+        <f t="shared" si="5"/>
         <v>-1.562965999810928E-2</v>
       </c>
       <c r="AQ16" s="49">
-        <f>+V16/U16-1</f>
+        <f t="shared" si="6"/>
         <v>1.4719152363117383E-2</v>
       </c>
       <c r="AR16" s="49">
-        <f>+W16/V16-1</f>
+        <f t="shared" si="7"/>
         <v>-6.1728395061725339E-3</v>
       </c>
       <c r="AS16" s="49">
-        <f>+X16/W16-1</f>
+        <f t="shared" si="8"/>
         <v>1.4185110663983647E-2</v>
       </c>
       <c r="AT16" s="49">
-        <f>+Y16/X16-1</f>
+        <f t="shared" si="9"/>
         <v>-3.9253475420523154E-3</v>
       </c>
       <c r="AU16" s="49">
-        <f>+Z16/Y16-1</f>
+        <f t="shared" si="10"/>
         <v>2.5668449197860932E-2</v>
       </c>
       <c r="AV16" s="49">
-        <f>+AA16/Z16-1</f>
+        <f t="shared" si="11"/>
         <v>1.4322052643220617E-2</v>
       </c>
       <c r="AW16" s="45">
-        <f>+AA16/O16-1</f>
+        <f t="shared" si="12"/>
         <v>0.22058823529411753</v>
       </c>
       <c r="AX16" s="46">
-        <f>+AA16/O16-1</f>
+        <f t="shared" si="13"/>
         <v>0.22058823529411753</v>
       </c>
       <c r="AY16" s="118">
-        <f>+AB16/AA16-1</f>
+        <f t="shared" si="15"/>
         <v>7.4687891838849385E-3</v>
       </c>
       <c r="AZ16" s="119">
-        <f>+AC16/AB16-1</f>
+        <f t="shared" si="16"/>
         <v>1.1904761904762085E-2</v>
       </c>
       <c r="BA16" s="119">
-        <f>+AD16/AC16-1</f>
+        <f t="shared" si="17"/>
         <v>-7.2727272727279857E-4</v>
       </c>
       <c r="BB16" s="119">
-        <f>+AE16/AD16-1</f>
+        <f t="shared" si="18"/>
         <v>2.9320024953212842E-2</v>
       </c>
       <c r="BC16" s="119">
-        <f>+AF16/AE16-1</f>
+        <f t="shared" si="19"/>
         <v>-2.0752688172043121E-2</v>
       </c>
       <c r="BD16" s="119">
-        <f>+AG16/AF16-1</f>
+        <f t="shared" si="20"/>
         <v>2.7168786248340515E-2</v>
       </c>
       <c r="BE16" s="119">
-        <f>+AH16/AG16-1</f>
+        <f t="shared" si="21"/>
         <v>1.3282954761799859E-2</v>
       </c>
       <c r="BF16" s="119">
-        <f>+AI16/AH16-1</f>
+        <f t="shared" si="22"/>
         <v>5.2425452712399068E-3</v>
       </c>
       <c r="BG16" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>-3.0889892250517081E-2</v>
       </c>
       <c r="BH16" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>4.1153155995504065E-2</v>
       </c>
       <c r="BI16" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>7.8920319877080702E-2</v>
       </c>
       <c r="BJ16" s="15"/>
     </row>
@@ -5292,129 +5292,129 @@
       <c r="AI17" s="197">
         <v>1128</v>
       </c>
-      <c r="AJ17" s="197">
+      <c r="AJ17" s="215">
+        <v>1117</v>
+      </c>
+      <c r="AK17" s="54">
+        <f t="shared" si="0"/>
+        <v>1.8675110953239704E-2</v>
+      </c>
+      <c r="AL17" s="55">
+        <f t="shared" si="1"/>
+        <v>3.7800902640231504E-2</v>
+      </c>
+      <c r="AM17" s="50">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="AN17" s="50">
+        <f t="shared" si="3"/>
+        <v>2.4024024024023927E-2</v>
+      </c>
+      <c r="AO17" s="50">
+        <f t="shared" si="4"/>
+        <v>1.6617790811339184E-2</v>
+      </c>
+      <c r="AP17" s="50">
+        <f t="shared" si="5"/>
+        <v>6.7307692307692069E-3</v>
+      </c>
+      <c r="AQ17" s="50">
+        <f t="shared" si="6"/>
+        <v>1.5281757402101137E-2</v>
+      </c>
+      <c r="AR17" s="50">
+        <f t="shared" si="7"/>
+        <v>1.8814675446848561E-2</v>
+      </c>
+      <c r="AS17" s="50">
+        <f t="shared" si="8"/>
+        <v>1.3204062788550353E-2</v>
+      </c>
+      <c r="AT17" s="50">
+        <f t="shared" si="9"/>
+        <v>1.6130502141620484E-2</v>
+      </c>
+      <c r="AU17" s="50">
+        <f t="shared" si="10"/>
+        <v>3.5874439461882623E-3</v>
+      </c>
+      <c r="AV17" s="50">
+        <f t="shared" si="11"/>
+        <v>3.5746201966040392E-3</v>
+      </c>
+      <c r="AW17" s="66">
+        <f t="shared" si="12"/>
+        <v>0.22141494799451888</v>
+      </c>
+      <c r="AX17" s="88">
+        <f t="shared" si="13"/>
+        <v>0.22141494799451888</v>
+      </c>
+      <c r="AY17" s="121">
+        <f t="shared" si="15"/>
+        <v>-8.9047195013358671E-4</v>
+      </c>
+      <c r="AZ17" s="122">
+        <f t="shared" si="16"/>
+        <v>1.6042780748663166E-2</v>
+      </c>
+      <c r="BA17" s="122">
+        <f t="shared" si="17"/>
+        <v>1.7543859649122862E-3</v>
+      </c>
+      <c r="BB17" s="122">
+        <f t="shared" si="18"/>
+        <v>1.138353765323985E-2</v>
+      </c>
+      <c r="BC17" s="122">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="54">
-        <f>+P17/O17-1</f>
-        <v>1.8675110953239704E-2</v>
-      </c>
-      <c r="AL17" s="55">
-        <f>+Q17/P17-1</f>
-        <v>3.7800902640231504E-2</v>
-      </c>
-      <c r="AM17" s="50">
-        <f>+R17/Q17-1</f>
-        <v>2.7777777777777679E-2</v>
-      </c>
-      <c r="AN17" s="50">
-        <f>+S17/R17-1</f>
-        <v>2.4024024024023927E-2</v>
-      </c>
-      <c r="AO17" s="50">
-        <f>+T17/S17-1</f>
-        <v>1.6617790811339184E-2</v>
-      </c>
-      <c r="AP17" s="50">
-        <f>+U17/T17-1</f>
-        <v>6.7307692307692069E-3</v>
-      </c>
-      <c r="AQ17" s="50">
-        <f>+V17/U17-1</f>
-        <v>1.5281757402101137E-2</v>
-      </c>
-      <c r="AR17" s="50">
-        <f>+W17/V17-1</f>
-        <v>1.8814675446848561E-2</v>
-      </c>
-      <c r="AS17" s="50">
-        <f>+X17/W17-1</f>
-        <v>1.3204062788550353E-2</v>
-      </c>
-      <c r="AT17" s="50">
-        <f>+Y17/X17-1</f>
-        <v>1.6130502141620484E-2</v>
-      </c>
-      <c r="AU17" s="50">
-        <f>+Z17/Y17-1</f>
-        <v>3.5874439461882623E-3</v>
-      </c>
-      <c r="AV17" s="50">
-        <f>+AA17/Z17-1</f>
-        <v>3.5746201966040392E-3</v>
-      </c>
-      <c r="AW17" s="66">
-        <f>+AA17/O17-1</f>
-        <v>0.22141494799451888</v>
-      </c>
-      <c r="AX17" s="88">
-        <f>+AA17/O17-1</f>
-        <v>0.22141494799451888</v>
-      </c>
-      <c r="AY17" s="121">
-        <f>+AB17/AA17-1</f>
-        <v>-8.9047195013358671E-4</v>
-      </c>
-      <c r="AZ17" s="122">
-        <f>+AC17/AB17-1</f>
-        <v>1.6042780748663166E-2</v>
-      </c>
-      <c r="BA17" s="122">
-        <f>+AD17/AC17-1</f>
-        <v>1.7543859649122862E-3</v>
-      </c>
-      <c r="BB17" s="122">
-        <f>+AE17/AD17-1</f>
-        <v>1.138353765323985E-2</v>
-      </c>
-      <c r="BC17" s="122">
-        <f>+AF17/AE17-1</f>
-        <v>0</v>
-      </c>
       <c r="BD17" s="122">
-        <f>+AG17/AF17-1</f>
+        <f t="shared" si="20"/>
         <v>-1.1255411255411296E-2</v>
       </c>
       <c r="BE17" s="119">
-        <f>+AH17/AG17-1</f>
+        <f t="shared" si="21"/>
         <v>-1.4010507880910628E-2</v>
       </c>
       <c r="BF17" s="119">
-        <f>+AI17/AH17-1</f>
+        <f t="shared" si="22"/>
         <v>1.7761989342806039E-3</v>
       </c>
       <c r="BG17" s="119">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="23"/>
+        <v>-9.7517730496453625E-3</v>
       </c>
       <c r="BH17" s="119">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>-5.3428317008014092E-3</v>
       </c>
       <c r="BI17" s="120">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="25"/>
+        <v>1.7953157750842941E-2</v>
       </c>
       <c r="BJ17" s="15"/>
     </row>
     <row r="18" spans="1:62" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="220"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="221"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="221"/>
-      <c r="O18" s="221"/>
-      <c r="P18" s="221"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="225"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
@@ -5440,39 +5440,39 @@
         <v>9.3962846348428462E-3</v>
       </c>
       <c r="AL18" s="77">
-        <f t="shared" ref="AL18:AO18" si="3">+AVERAGE(AL4:AL17)</f>
+        <f t="shared" ref="AL18:AO18" si="26">+AVERAGE(AL4:AL17)</f>
         <v>4.4653691676571704E-2</v>
       </c>
       <c r="AM18" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>2.2183259955329154E-3</v>
       </c>
       <c r="AN18" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>1.6580301424560056E-2</v>
       </c>
       <c r="AO18" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>2.5266955042544576E-2</v>
       </c>
       <c r="AP18" s="77">
-        <f t="shared" ref="AP18:AT18" si="4">+AVERAGE(AP4:AP17)</f>
+        <f t="shared" ref="AP18:AT18" si="27">+AVERAGE(AP4:AP17)</f>
         <v>7.6411542621848206E-3</v>
       </c>
       <c r="AQ18" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>1.83153059976893E-2</v>
       </c>
       <c r="AR18" s="89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>-6.7953855122335526E-3</v>
       </c>
       <c r="AS18" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>2.9375944684876223E-2</v>
       </c>
       <c r="AT18" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>2.6010988098634541E-3</v>
       </c>
       <c r="AU18" s="90">
@@ -5488,27 +5488,27 @@
         <v>0.17528841274969298</v>
       </c>
       <c r="AX18" s="91">
-        <f t="shared" ref="AX18:BC18" si="5">+AVERAGE(AX4:AX17)</f>
+        <f t="shared" ref="AX18:BC18" si="28">+AVERAGE(AX4:AX17)</f>
         <v>0.17260374482862359</v>
       </c>
       <c r="AY18" s="165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>1.6167388710443899E-2</v>
       </c>
       <c r="AZ18" s="166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>8.1757886072734241E-3</v>
       </c>
       <c r="BA18" s="166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>4.5160593251503834E-3</v>
       </c>
       <c r="BB18" s="166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>-6.5735212880211656E-3</v>
       </c>
       <c r="BC18" s="166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>1.3479737673764194E-2</v>
       </c>
       <c r="BD18" s="166">
@@ -5525,15 +5525,15 @@
       </c>
       <c r="BG18" s="166">
         <f>+AVERAGE(BG4:BG17)</f>
-        <v>-1</v>
+        <v>9.5414271235246817E-3</v>
       </c>
       <c r="BH18" s="166">
         <f>+(1+AY18)*(1+AZ18)*(1+BB18)*(1+BA18)*(1+BC18)*(1+BD18)*(1+BE18)*(1+BF18)*(1+BG18)-1</f>
-        <v>-1</v>
+        <v>6.0570070953833266E-2</v>
       </c>
       <c r="BI18" s="167">
         <f>+AVERAGE(BI4:BI17)</f>
-        <v>-1</v>
+        <v>7.5648385867919749E-2</v>
       </c>
     </row>
     <row r="19" spans="1:62" ht="15" x14ac:dyDescent="0.2">
@@ -5603,7 +5603,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="AK4:AW17 AW20">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5617,7 +5617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX17">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5628,6 +5628,18 @@
           <x14:id>{625AEE9D-87F2-4484-ACAD-D75F86EFA497}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG4:BG17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5672,11 +5684,11 @@
   <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="BE5" sqref="BE5"/>
+      <selection pane="bottomRight" activeCell="BG11" sqref="BG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5697,96 +5709,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
     </row>
     <row r="2" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="244" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="237">
+      <c r="C2" s="245"/>
+      <c r="D2" s="241">
         <v>2022</v>
       </c>
-      <c r="E2" s="238"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="244">
+      <c r="E2" s="242"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="243"/>
+      <c r="M2" s="243"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="243"/>
+      <c r="P2" s="248">
         <v>2023</v>
       </c>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="245"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="245">
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="249"/>
+      <c r="AA2" s="249"/>
+      <c r="AB2" s="249">
         <v>2024</v>
       </c>
-      <c r="AC2" s="245"/>
-      <c r="AD2" s="245"/>
-      <c r="AE2" s="245"/>
-      <c r="AF2" s="245"/>
+      <c r="AC2" s="249"/>
+      <c r="AD2" s="249"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="249"/>
       <c r="AG2" s="173"/>
       <c r="AH2" s="173"/>
       <c r="AI2" s="173"/>
       <c r="AJ2" s="173"/>
-      <c r="AK2" s="228" t="s">
+      <c r="AK2" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="228"/>
-      <c r="AM2" s="228"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="228"/>
-      <c r="AP2" s="228"/>
-      <c r="AQ2" s="228"/>
-      <c r="AR2" s="228"/>
-      <c r="AS2" s="228"/>
-      <c r="AT2" s="228"/>
-      <c r="AU2" s="228"/>
-      <c r="AV2" s="228"/>
-      <c r="AW2" s="228"/>
-      <c r="AX2" s="233"/>
-      <c r="AY2" s="230" t="s">
+      <c r="AL2" s="232"/>
+      <c r="AM2" s="232"/>
+      <c r="AN2" s="232"/>
+      <c r="AO2" s="232"/>
+      <c r="AP2" s="232"/>
+      <c r="AQ2" s="232"/>
+      <c r="AR2" s="232"/>
+      <c r="AS2" s="232"/>
+      <c r="AT2" s="232"/>
+      <c r="AU2" s="232"/>
+      <c r="AV2" s="232"/>
+      <c r="AW2" s="232"/>
+      <c r="AX2" s="237"/>
+      <c r="AY2" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="231"/>
-      <c r="BA2" s="231"/>
-      <c r="BB2" s="231"/>
-      <c r="BC2" s="231"/>
-      <c r="BD2" s="231"/>
-      <c r="BE2" s="231"/>
-      <c r="BF2" s="231"/>
-      <c r="BG2" s="231"/>
-      <c r="BH2" s="231"/>
-      <c r="BI2" s="232"/>
+      <c r="AZ2" s="235"/>
+      <c r="BA2" s="235"/>
+      <c r="BB2" s="235"/>
+      <c r="BC2" s="235"/>
+      <c r="BD2" s="235"/>
+      <c r="BE2" s="235"/>
+      <c r="BF2" s="235"/>
+      <c r="BG2" s="235"/>
+      <c r="BH2" s="235"/>
+      <c r="BI2" s="236"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="242"/>
-      <c r="C3" s="243"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
       <c r="D3" s="56" t="s">
         <v>0</v>
       </c>
@@ -6069,107 +6081,107 @@
         <v>941.66666666666674</v>
       </c>
       <c r="AJ4" s="174">
+        <v>933.33333333333337</v>
+      </c>
+      <c r="AK4" s="212">
+        <f t="shared" ref="AK4:AK15" si="0">+P4/O4-1</f>
+        <v>2.94460795752014E-2</v>
+      </c>
+      <c r="AL4" s="42">
+        <f t="shared" ref="AL4:AL15" si="1">+Q4/P4-1</f>
+        <v>4.7766666666667179E-2</v>
+      </c>
+      <c r="AM4" s="41">
+        <f t="shared" ref="AM4:AM15" si="2">+R4/Q4-1</f>
+        <v>6.8531252414432142E-2</v>
+      </c>
+      <c r="AN4" s="41">
+        <f t="shared" ref="AN4:AN15" si="3">+S4/R4-1</f>
+        <v>2.1691973969630851E-3</v>
+      </c>
+      <c r="AO4" s="41">
+        <f t="shared" ref="AO4:AO15" si="4">+T4/S4-1</f>
+        <v>1.0101010101010166E-2</v>
+      </c>
+      <c r="AP4" s="41">
+        <f t="shared" ref="AP4:AP15" si="5">+U4/T4-1</f>
+        <v>6.1660079051384376E-3</v>
+      </c>
+      <c r="AQ4" s="41">
+        <f t="shared" ref="AQ4:AQ15" si="6">+V4/U4-1</f>
+        <v>2.6466498381352066E-2</v>
+      </c>
+      <c r="AR4" s="41">
+        <f t="shared" ref="AR4:AR15" si="7">+W4/V4-1</f>
+        <v>2.0583311057022602E-2</v>
+      </c>
+      <c r="AS4" s="41">
+        <f t="shared" ref="AS4:AS15" si="8">+X4/W4-1</f>
+        <v>9.0271241550432535E-4</v>
+      </c>
+      <c r="AT4" s="41">
+        <f t="shared" ref="AT4:AT15" si="9">+Y4/X4-1</f>
+        <v>3.1961849002345444E-2</v>
+      </c>
+      <c r="AU4" s="41">
+        <f t="shared" ref="AU4:AU15" si="10">+Z4/Y4-1</f>
+        <v>-4.9527239981990157E-3</v>
+      </c>
+      <c r="AV4" s="41">
+        <f t="shared" ref="AV4:AV15" si="11">+AA4/Z4-1</f>
+        <v>-1.7830949538266583E-2</v>
+      </c>
+      <c r="AW4" s="41">
+        <f t="shared" ref="AW4:AW15" si="12">+AA4/O4-1</f>
+        <v>0.24139392968679152</v>
+      </c>
+      <c r="AX4" s="43">
+        <f t="shared" ref="AX4:AX14" si="13">+Z4/N4-1</f>
+        <v>0.18487794568318727</v>
+      </c>
+      <c r="AY4" s="105">
+        <f t="shared" ref="AY4:BF5" si="14">+AB4/AA4-1</f>
+        <v>2.6299901759399891E-2</v>
+      </c>
+      <c r="AZ4" s="110">
+        <f t="shared" si="14"/>
+        <v>-1.098901098901095E-2</v>
+      </c>
+      <c r="BA4" s="111">
+        <f t="shared" si="14"/>
+        <v>3.3333333333333437E-2</v>
+      </c>
+      <c r="BB4" s="111">
+        <f t="shared" si="14"/>
+        <v>3.7540086776080006E-2</v>
+      </c>
+      <c r="BC4" s="111">
+        <f t="shared" si="14"/>
+        <v>4.7023405698778387E-3</v>
+      </c>
+      <c r="BD4" s="111">
+        <f t="shared" si="14"/>
+        <v>-3.2956458984844894E-2</v>
+      </c>
+      <c r="BE4" s="111">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="261">
-        <f>+P4/O4-1</f>
-        <v>2.94460795752014E-2</v>
-      </c>
-      <c r="AL4" s="42">
-        <f>+Q4/P4-1</f>
-        <v>4.7766666666667179E-2</v>
-      </c>
-      <c r="AM4" s="41">
-        <f>+R4/Q4-1</f>
-        <v>6.8531252414432142E-2</v>
-      </c>
-      <c r="AN4" s="41">
-        <f>+S4/R4-1</f>
-        <v>2.1691973969630851E-3</v>
-      </c>
-      <c r="AO4" s="41">
-        <f>+T4/S4-1</f>
-        <v>1.0101010101010166E-2</v>
-      </c>
-      <c r="AP4" s="41">
-        <f>+U4/T4-1</f>
-        <v>6.1660079051384376E-3</v>
-      </c>
-      <c r="AQ4" s="41">
-        <f>+V4/U4-1</f>
-        <v>2.6466498381352066E-2</v>
-      </c>
-      <c r="AR4" s="41">
-        <f>+W4/V4-1</f>
-        <v>2.0583311057022602E-2</v>
-      </c>
-      <c r="AS4" s="41">
-        <f>+X4/W4-1</f>
-        <v>9.0271241550432535E-4</v>
-      </c>
-      <c r="AT4" s="41">
-        <f>+Y4/X4-1</f>
-        <v>3.1961849002345444E-2</v>
-      </c>
-      <c r="AU4" s="41">
-        <f>+Z4/Y4-1</f>
-        <v>-4.9527239981990157E-3</v>
-      </c>
-      <c r="AV4" s="41">
-        <f>+AA4/Z4-1</f>
-        <v>-1.7830949538266583E-2</v>
-      </c>
-      <c r="AW4" s="41">
-        <f>+AA4/O4-1</f>
-        <v>0.24139392968679152</v>
-      </c>
-      <c r="AX4" s="43">
-        <f>+Z4/N4-1</f>
-        <v>0.18487794568318727</v>
-      </c>
-      <c r="AY4" s="105">
-        <f>+AB4/AA4-1</f>
-        <v>2.6299901759399891E-2</v>
-      </c>
-      <c r="AZ4" s="110">
-        <f>+AC4/AB4-1</f>
-        <v>-1.098901098901095E-2</v>
-      </c>
-      <c r="BA4" s="111">
-        <f>+AD4/AC4-1</f>
-        <v>3.3333333333333437E-2</v>
-      </c>
-      <c r="BB4" s="111">
-        <f>+AE4/AD4-1</f>
-        <v>3.7540086776080006E-2</v>
-      </c>
-      <c r="BC4" s="111">
-        <f>+AF4/AE4-1</f>
-        <v>4.7023405698778387E-3</v>
-      </c>
-      <c r="BD4" s="111">
-        <f>+AG4/AF4-1</f>
-        <v>-3.2956458984844894E-2</v>
-      </c>
-      <c r="BE4" s="111">
-        <f>+AH4/AG4-1</f>
-        <v>0</v>
-      </c>
       <c r="BF4" s="111">
-        <f>+AI4/AH4-1</f>
+        <f t="shared" si="14"/>
         <v>4.4444444444444731E-3</v>
       </c>
       <c r="BG4" s="111">
-        <f>+AK4/AI4-1</f>
-        <v>-0.9999687298269998</v>
+        <f>+AJ4/AI4-1</f>
+        <v>-8.8495575221239076E-3</v>
       </c>
       <c r="BH4" s="111">
         <f>+AJ4/AA4-1</f>
-        <v>-1</v>
+        <v>5.2615283855794726E-2</v>
       </c>
       <c r="BI4" s="107">
         <f>+AJ4/X4-1</f>
-        <v>-1</v>
+        <v>6.1605777848068088E-2</v>
       </c>
     </row>
     <row r="5" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6278,108 +6290,108 @@
       <c r="AI5" s="143">
         <v>941.66666666666663</v>
       </c>
-      <c r="AJ5" s="260">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="262">
-        <f>+P5/O5-1</f>
+      <c r="AJ5" s="211">
+        <v>923.61111111111109</v>
+      </c>
+      <c r="AK5" s="213">
+        <f t="shared" si="0"/>
         <v>4.9930787150795908E-3</v>
       </c>
       <c r="AL5" s="45">
-        <f>+Q5/P5-1</f>
+        <f t="shared" si="1"/>
         <v>6.2171870682508956E-2</v>
       </c>
       <c r="AM5" s="51">
-        <f>+R5/Q5-1</f>
+        <f t="shared" si="2"/>
         <v>2.1328522920203596E-2</v>
       </c>
       <c r="AN5" s="51">
-        <f>+S5/R5-1</f>
+        <f t="shared" si="3"/>
         <v>2.8923076923077051E-2</v>
       </c>
       <c r="AO5" s="51">
-        <f>+T5/S5-1</f>
+        <f t="shared" si="4"/>
         <v>1.931818181818179E-2</v>
       </c>
       <c r="AP5" s="51">
-        <f>+U5/T5-1</f>
+        <f t="shared" si="5"/>
         <v>4.8309178743961567E-3</v>
       </c>
       <c r="AQ5" s="51">
-        <f>+V5/U5-1</f>
+        <f t="shared" si="6"/>
         <v>1.2145748987854255E-2</v>
       </c>
       <c r="AR5" s="51">
-        <f>+W5/V5-1</f>
+        <f t="shared" si="7"/>
         <v>2.6000000000000023E-2</v>
       </c>
       <c r="AS5" s="51">
-        <f>+X5/W5-1</f>
+        <f t="shared" si="8"/>
         <v>1.0101010101010166E-2</v>
       </c>
       <c r="AT5" s="51">
-        <f>+Y5/X5-1</f>
+        <f t="shared" si="9"/>
         <v>8.3333333333333037E-3</v>
       </c>
       <c r="AU5" s="51">
-        <f>+Z5/Y5-1</f>
+        <f t="shared" si="10"/>
         <v>1.4545454545454639E-2</v>
       </c>
       <c r="AV5" s="51">
-        <f>+AA5/Z5-1</f>
+        <f t="shared" si="11"/>
         <v>-1.536098310291889E-3</v>
       </c>
       <c r="AW5" s="41">
-        <f>+AA5/O5-1</f>
+        <f t="shared" si="12"/>
         <v>0.23104015417075074</v>
       </c>
       <c r="AX5" s="46">
-        <f>+Z5/N5-1</f>
+        <f t="shared" si="13"/>
         <v>0.23279069767441873</v>
       </c>
       <c r="AY5" s="106">
-        <f>+AB5/AA5-1</f>
+        <f t="shared" si="14"/>
         <v>9.6153846153845812E-3</v>
       </c>
       <c r="AZ5" s="111">
-        <f>+AC5/AB5-1</f>
+        <f t="shared" si="14"/>
         <v>1.5873015873015817E-2</v>
       </c>
       <c r="BA5" s="111">
-        <f>+AD5/AC5-1</f>
+        <f t="shared" si="14"/>
         <v>1.8174512055108893E-2</v>
       </c>
       <c r="BB5" s="111">
-        <f>+AE5/AD5-1</f>
+        <f t="shared" si="14"/>
         <v>1.0313306365973274E-2</v>
       </c>
       <c r="BC5" s="111">
-        <f>+AF5/AE5-1</f>
+        <f t="shared" si="14"/>
         <v>-7.6472255207448159E-3</v>
       </c>
       <c r="BD5" s="111">
-        <f>+AG5/AF5-1</f>
+        <f t="shared" si="14"/>
         <v>-1.5225929932595417E-2</v>
       </c>
       <c r="BE5" s="111">
-        <f>+AH5/AG5-1</f>
+        <f t="shared" si="14"/>
         <v>-7.7253022913356117E-3</v>
       </c>
       <c r="BF5" s="111">
-        <f>+AI5/AH5-1</f>
+        <f t="shared" si="14"/>
         <v>-8.7719298245614308E-3</v>
       </c>
       <c r="BG5" s="111">
-        <f t="shared" ref="BG5:BG14" si="0">+AK5/AI5-1</f>
-        <v>-0.99999469761552384</v>
+        <f t="shared" ref="BG5:BG14" si="15">+AJ5/AI5-1</f>
+        <v>-1.9174041297935096E-2</v>
       </c>
       <c r="BH5" s="111">
-        <f t="shared" ref="BH5:BH14" si="1">+AJ5/AA5-1</f>
-        <v>-1</v>
+        <f t="shared" ref="BH5:BH14" si="16">+AJ5/AA5-1</f>
+        <v>-5.3418803418803229E-3</v>
       </c>
       <c r="BI5" s="107">
-        <f t="shared" ref="BI5:BI14" si="2">+AJ5/X5-1</f>
-        <v>-1</v>
+        <f t="shared" ref="BI5:BI14" si="17">+AJ5/X5-1</f>
+        <v>1.5972222222222054E-2</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6488,108 +6500,108 @@
       <c r="AI6" s="143">
         <v>1074.0740740740739</v>
       </c>
-      <c r="AJ6" s="260">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="262">
-        <f>+P6/O6-1</f>
+      <c r="AJ6" s="211">
+        <v>1060.30303030303</v>
+      </c>
+      <c r="AK6" s="213">
+        <f t="shared" si="0"/>
         <v>1.9454545454545391E-2</v>
       </c>
       <c r="AL6" s="45">
-        <f>+Q6/P6-1</f>
+        <f t="shared" si="1"/>
         <v>2.5891548607718695E-2</v>
       </c>
       <c r="AM6" s="51">
-        <f>+R6/Q6-1</f>
+        <f t="shared" si="2"/>
         <v>3.2051282051281937E-2</v>
       </c>
       <c r="AN6" s="51">
-        <f>+S6/R6-1</f>
+        <f t="shared" si="3"/>
         <v>2.5850340136054362E-2</v>
       </c>
       <c r="AO6" s="51">
-        <f>+T6/S6-1</f>
+        <f t="shared" si="4"/>
         <v>2.6645768025078453E-2</v>
       </c>
       <c r="AP6" s="51">
-        <f>+U6/T6-1</f>
+        <f t="shared" si="5"/>
         <v>7.6335877862596657E-3</v>
       </c>
       <c r="AQ6" s="51">
-        <f>+V6/U6-1</f>
+        <f t="shared" si="6"/>
         <v>1.3523391812864993E-2</v>
       </c>
       <c r="AR6" s="51">
-        <f>+W6/V6-1</f>
+        <f t="shared" si="7"/>
         <v>1.3565878766023332E-2</v>
       </c>
       <c r="AS6" s="51">
-        <f>+X6/W6-1</f>
+        <f t="shared" si="8"/>
         <v>1.0716261061947119E-2</v>
       </c>
       <c r="AT6" s="51">
-        <f>+Y6/X6-1</f>
+        <f t="shared" si="9"/>
         <v>2.7338851266616837E-2</v>
       </c>
       <c r="AU6" s="51">
-        <f>+Z6/Y6-1</f>
+        <f t="shared" si="10"/>
         <v>6.0096153846078693E-4</v>
       </c>
       <c r="AV6" s="51">
-        <f>+AA6/Z6-1</f>
+        <f t="shared" si="11"/>
         <v>9.0090090090093611E-3</v>
       </c>
       <c r="AW6" s="41">
-        <f>+AA6/O6-1</f>
+        <f t="shared" si="12"/>
         <v>0.23356643356643358</v>
       </c>
       <c r="AX6" s="46">
-        <f>+Z6/N6-1</f>
+        <f t="shared" si="13"/>
         <v>0.23102574161813028</v>
       </c>
       <c r="AY6" s="106">
-        <f>+AB6/AA6-1</f>
+        <f t="shared" ref="AY6:AY15" si="18">+AB6/AA6-1</f>
         <v>9.8244565217391333E-3</v>
       </c>
       <c r="AZ6" s="111">
-        <f>+AC6/AB6-1</f>
+        <f t="shared" ref="AZ6:AZ15" si="19">+AC6/AB6-1</f>
         <v>1.9487197939436429E-2</v>
       </c>
       <c r="BA6" s="111">
-        <f t="shared" ref="BA6:BA14" si="3">+AD6/AC6-1</f>
+        <f t="shared" ref="BA6:BA14" si="20">+AD6/AC6-1</f>
         <v>-1.830065359476829E-3</v>
       </c>
       <c r="BB6" s="111">
-        <f>+AE6/AD6-1</f>
+        <f t="shared" ref="BB6:BB15" si="21">+AE6/AD6-1</f>
         <v>-1.2682308180088642E-3</v>
       </c>
       <c r="BC6" s="111">
-        <f>+AF6/AE6-1</f>
+        <f t="shared" ref="BC6:BC15" si="22">+AF6/AE6-1</f>
         <v>1.2698412698413097E-3</v>
       </c>
       <c r="BD6" s="111">
-        <f>+AG6/AF6-1</f>
+        <f t="shared" ref="BD6:BD15" si="23">+AG6/AF6-1</f>
         <v>-9.1946734305649036E-3</v>
       </c>
       <c r="BE6" s="111">
-        <f>+AH6/AG6-1</f>
+        <f t="shared" ref="BE6:BE15" si="24">+AH6/AG6-1</f>
         <v>-1.9599999999999729E-2</v>
       </c>
       <c r="BF6" s="111">
-        <f>+AI6/AH6-1</f>
+        <f t="shared" ref="BF6:BF15" si="25">+AI6/AH6-1</f>
         <v>-8.6132644272196579E-4</v>
       </c>
       <c r="BG6" s="111">
-        <f t="shared" si="0"/>
-        <v>-0.99998188714733538</v>
+        <f t="shared" si="15"/>
+        <v>-1.2821316614420208E-2</v>
       </c>
       <c r="BH6" s="111">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>-1.5432900432900687E-2</v>
       </c>
       <c r="BI6" s="107">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>2.1209841074400604E-2</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6698,108 +6710,108 @@
       <c r="AI7" s="143">
         <v>1067.441860465116</v>
       </c>
-      <c r="AJ7" s="260">
+      <c r="AJ7" s="211">
+        <v>1056.864375461937</v>
+      </c>
+      <c r="AK7" s="213">
+        <f t="shared" si="0"/>
+        <v>2.796052631578938E-2</v>
+      </c>
+      <c r="AL7" s="45">
+        <f t="shared" si="1"/>
+        <v>4.9142857142857155E-2</v>
+      </c>
+      <c r="AM7" s="51">
+        <f t="shared" si="2"/>
+        <v>3.0248684839789597E-2</v>
+      </c>
+      <c r="AN7" s="51">
+        <f t="shared" si="3"/>
+        <v>3.2622834831372405E-2</v>
+      </c>
+      <c r="AO7" s="51">
+        <f t="shared" si="4"/>
+        <v>2.3379811675650508E-2</v>
+      </c>
+      <c r="AP7" s="51">
+        <f t="shared" si="5"/>
+        <v>-4.5542053946634464E-4</v>
+      </c>
+      <c r="AQ7" s="51">
+        <f t="shared" si="6"/>
+        <v>9.009009009008917E-3</v>
+      </c>
+      <c r="AR7" s="51">
+        <f t="shared" si="7"/>
+        <v>1.4285714285714013E-2</v>
+      </c>
+      <c r="AS7" s="51">
+        <f t="shared" si="8"/>
+        <v>4.1731872717785112E-3</v>
+      </c>
+      <c r="AT7" s="51">
+        <f t="shared" si="9"/>
+        <v>1.688311688311761E-2</v>
+      </c>
+      <c r="AU7" s="51">
+        <f t="shared" si="10"/>
+        <v>5.7471264367816577E-3</v>
+      </c>
+      <c r="AV7" s="51">
+        <f t="shared" si="11"/>
+        <v>7.9999999999997851E-3</v>
+      </c>
+      <c r="AW7" s="41">
+        <f t="shared" si="12"/>
+        <v>0.24342105263157898</v>
+      </c>
+      <c r="AX7" s="46">
+        <f t="shared" si="13"/>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="AY7" s="106">
+        <f t="shared" si="18"/>
+        <v>1.7006802721084568E-3</v>
+      </c>
+      <c r="AZ7" s="111">
+        <f t="shared" si="19"/>
+        <v>1.0186757215620013E-2</v>
+      </c>
+      <c r="BA7" s="111">
+        <f t="shared" si="20"/>
+        <v>1.7635967020371623E-2</v>
+      </c>
+      <c r="BB7" s="111">
+        <f t="shared" si="21"/>
+        <v>-9.0726015736916077E-3</v>
+      </c>
+      <c r="BC7" s="111">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="262">
-        <f>+P7/O7-1</f>
-        <v>2.796052631578938E-2</v>
-      </c>
-      <c r="AL7" s="45">
-        <f>+Q7/P7-1</f>
-        <v>4.9142857142857155E-2</v>
-      </c>
-      <c r="AM7" s="51">
-        <f>+R7/Q7-1</f>
-        <v>3.0248684839789597E-2</v>
-      </c>
-      <c r="AN7" s="51">
-        <f>+S7/R7-1</f>
-        <v>3.2622834831372405E-2</v>
-      </c>
-      <c r="AO7" s="51">
-        <f>+T7/S7-1</f>
-        <v>2.3379811675650508E-2</v>
-      </c>
-      <c r="AP7" s="51">
-        <f>+U7/T7-1</f>
-        <v>-4.5542053946634464E-4</v>
-      </c>
-      <c r="AQ7" s="51">
-        <f>+V7/U7-1</f>
-        <v>9.009009009008917E-3</v>
-      </c>
-      <c r="AR7" s="51">
-        <f>+W7/V7-1</f>
-        <v>1.4285714285714013E-2</v>
-      </c>
-      <c r="AS7" s="51">
-        <f>+X7/W7-1</f>
-        <v>4.1731872717785112E-3</v>
-      </c>
-      <c r="AT7" s="51">
-        <f>+Y7/X7-1</f>
-        <v>1.688311688311761E-2</v>
-      </c>
-      <c r="AU7" s="51">
-        <f>+Z7/Y7-1</f>
-        <v>5.7471264367816577E-3</v>
-      </c>
-      <c r="AV7" s="51">
-        <f>+AA7/Z7-1</f>
-        <v>7.9999999999997851E-3</v>
-      </c>
-      <c r="AW7" s="41">
-        <f>+AA7/O7-1</f>
-        <v>0.24342105263157898</v>
-      </c>
-      <c r="AX7" s="46">
-        <f>+Z7/N7-1</f>
-        <v>0.25000000000000022</v>
-      </c>
-      <c r="AY7" s="106">
-        <f>+AB7/AA7-1</f>
-        <v>1.7006802721084568E-3</v>
-      </c>
-      <c r="AZ7" s="111">
-        <f>+AC7/AB7-1</f>
-        <v>1.0186757215620013E-2</v>
-      </c>
-      <c r="BA7" s="111">
-        <f t="shared" si="3"/>
-        <v>1.7635967020371623E-2</v>
-      </c>
-      <c r="BB7" s="111">
-        <f>+AE7/AD7-1</f>
-        <v>-9.0726015736916077E-3</v>
-      </c>
-      <c r="BC7" s="111">
-        <f>+AF7/AE7-1</f>
-        <v>0</v>
-      </c>
       <c r="BD7" s="111">
-        <f>+AG7/AF7-1</f>
+        <f t="shared" si="23"/>
         <v>3.3333333333336324E-3</v>
       </c>
       <c r="BE7" s="111">
-        <f>+AH7/AG7-1</f>
+        <f t="shared" si="24"/>
         <v>-1.9933554817275434E-2</v>
       </c>
       <c r="BF7" s="111">
-        <f>+AI7/AH7-1</f>
+        <f t="shared" si="25"/>
         <v>1.3165155695702868E-2</v>
       </c>
       <c r="BG7" s="111">
-        <f t="shared" si="0"/>
-        <v>-0.99997380604288499</v>
+        <f t="shared" si="15"/>
+        <v>-9.9091907437188764E-3</v>
       </c>
       <c r="BH7" s="111">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>6.5375004399399472E-3</v>
       </c>
       <c r="BI7" s="107">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>3.7648659544447849E-2</v>
       </c>
     </row>
     <row r="8" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6908,108 +6920,108 @@
       <c r="AI8" s="143">
         <v>1102.7342500799491</v>
       </c>
-      <c r="AJ8" s="260">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="262">
-        <f>+P8/O8-1</f>
+      <c r="AJ8" s="211">
+        <v>1089.7435897435901</v>
+      </c>
+      <c r="AK8" s="213">
+        <f t="shared" si="0"/>
         <v>1.4201701701701763E-2</v>
       </c>
       <c r="AL8" s="45">
-        <f>+Q8/P8-1</f>
+        <f t="shared" si="1"/>
         <v>2.9885057471264354E-2</v>
       </c>
       <c r="AM8" s="51">
-        <f>+R8/Q8-1</f>
+        <f t="shared" si="2"/>
         <v>3.5622250157133939E-2</v>
       </c>
       <c r="AN8" s="51">
-        <f>+S8/R8-1</f>
+        <f t="shared" si="3"/>
         <v>2.4549744336717083E-2</v>
       </c>
       <c r="AO8" s="51">
-        <f>+T8/S8-1</f>
+        <f t="shared" si="4"/>
         <v>5.8976207642387202E-3</v>
       </c>
       <c r="AP8" s="51">
-        <f>+U8/T8-1</f>
+        <f t="shared" si="5"/>
         <v>1.4329630437007967E-2</v>
       </c>
       <c r="AQ8" s="51">
-        <f>+V8/U8-1</f>
+        <f t="shared" si="6"/>
         <v>1.0551739926739856E-2</v>
       </c>
       <c r="AR8" s="51">
-        <f>+W8/V8-1</f>
+        <f t="shared" si="7"/>
         <v>3.6287585134572309E-2</v>
       </c>
       <c r="AS8" s="51">
-        <f>+X8/W8-1</f>
+        <f t="shared" si="8"/>
         <v>1.8540283246165856E-2</v>
       </c>
       <c r="AT8" s="51">
-        <f>+Y8/X8-1</f>
+        <f t="shared" si="9"/>
         <v>1.200634645896459E-2</v>
       </c>
       <c r="AU8" s="51">
-        <f>+Z8/Y8-1</f>
+        <f t="shared" si="10"/>
         <v>-2.3566378633155249E-3</v>
       </c>
       <c r="AV8" s="51">
-        <f>+AA8/Z8-1</f>
+        <f t="shared" si="11"/>
         <v>4.0294941945815399E-3</v>
       </c>
       <c r="AW8" s="41">
-        <f>+AA8/O8-1</f>
+        <f t="shared" si="12"/>
         <v>0.22265095246897171</v>
       </c>
       <c r="AX8" s="46">
-        <f>+Z8/N8-1</f>
+        <f t="shared" si="13"/>
         <v>0.24848759830610989</v>
       </c>
       <c r="AY8" s="106">
-        <f>+AB8/AA8-1</f>
+        <f t="shared" si="18"/>
         <v>2.6949584182793807E-3</v>
       </c>
       <c r="AZ8" s="111">
-        <f>+AC8/AB8-1</f>
+        <f t="shared" si="19"/>
         <v>-4.3438500228616395E-3</v>
       </c>
       <c r="BA8" s="111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>-2.1321961620474061E-3</v>
       </c>
       <c r="BB8" s="111">
-        <f>+AE8/AD8-1</f>
+        <f t="shared" si="21"/>
         <v>1.7094017094017033E-2</v>
       </c>
       <c r="BC8" s="111">
-        <f>+AF8/AE8-1</f>
+        <f t="shared" si="22"/>
         <v>8.4033613445380073E-3</v>
       </c>
       <c r="BD8" s="111">
-        <f>+AG8/AF8-1</f>
+        <f t="shared" si="23"/>
         <v>-2.0730537280704286E-3</v>
       </c>
       <c r="BE8" s="111">
-        <f>+AH8/AG8-1</f>
+        <f t="shared" si="24"/>
         <v>-3.5500540800384339E-2</v>
       </c>
       <c r="BF8" s="111">
-        <f>+AI8/AH8-1</f>
+        <f t="shared" si="25"/>
         <v>2.4856818908627343E-3</v>
       </c>
       <c r="BG8" s="111">
-        <f t="shared" si="0"/>
-        <v>-0.99998712137425616</v>
+        <f t="shared" si="15"/>
+        <v>-1.1780408865886938E-2</v>
       </c>
       <c r="BH8" s="111">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>-2.5730778857409375E-2</v>
       </c>
       <c r="BI8" s="107">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>-1.2393347313295111E-2</v>
       </c>
     </row>
     <row r="9" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7118,108 +7130,108 @@
       <c r="AI9" s="143">
         <v>1145.833333333333</v>
       </c>
-      <c r="AJ9" s="260">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="262">
-        <f>+P9/O9-1</f>
+      <c r="AJ9" s="211">
+        <v>1117.9144385026741</v>
+      </c>
+      <c r="AK9" s="213">
+        <f t="shared" si="0"/>
         <v>2.8945852534562277E-2</v>
       </c>
       <c r="AL9" s="45">
-        <f>+Q9/P9-1</f>
+        <f t="shared" si="1"/>
         <v>1.889433170048993E-2</v>
       </c>
       <c r="AM9" s="51">
-        <f>+R9/Q9-1</f>
+        <f t="shared" si="2"/>
         <v>3.6038961038960871E-2</v>
       </c>
       <c r="AN9" s="51">
-        <f>+S9/R9-1</f>
+        <f t="shared" si="3"/>
         <v>-5.6826491173090909E-3</v>
       </c>
       <c r="AO9" s="51">
-        <f>+T9/S9-1</f>
+        <f t="shared" si="4"/>
         <v>4.353581409030749E-2</v>
       </c>
       <c r="AP9" s="51">
-        <f>+U9/T9-1</f>
+        <f t="shared" si="5"/>
         <v>-1.5348169897562158E-3</v>
       </c>
       <c r="AQ9" s="51">
-        <f>+V9/U9-1</f>
+        <f t="shared" si="6"/>
         <v>-2.6082299766506667E-3</v>
       </c>
       <c r="AR9" s="51">
-        <f>+W9/V9-1</f>
+        <f t="shared" si="7"/>
         <v>1.8167729209960015E-2</v>
       </c>
       <c r="AS9" s="51">
-        <f>+X9/W9-1</f>
+        <f t="shared" si="8"/>
         <v>1.6819571865443139E-2</v>
       </c>
       <c r="AT9" s="51">
-        <f>+Y9/X9-1</f>
+        <f t="shared" si="9"/>
         <v>1.2145748987854699E-2</v>
       </c>
       <c r="AU9" s="51">
-        <f>+Z9/Y9-1</f>
+        <f t="shared" si="10"/>
         <v>1.6384962406014614E-2</v>
       </c>
       <c r="AV9" s="51">
-        <f>+AA9/Z9-1</f>
+        <f t="shared" si="11"/>
         <v>-6.000923218956733E-3</v>
       </c>
       <c r="AW9" s="41">
-        <f>+AA9/O9-1</f>
+        <f t="shared" si="12"/>
         <v>0.18817204301075252</v>
       </c>
       <c r="AX9" s="46">
-        <f>+Z9/N9-1</f>
+        <f t="shared" si="13"/>
         <v>0.21245297466623536</v>
       </c>
       <c r="AY9" s="106">
-        <f>+AB9/AA9-1</f>
+        <f t="shared" si="18"/>
         <v>-7.3529411764703401E-3</v>
       </c>
       <c r="AZ9" s="111">
-        <f>+AC9/AB9-1</f>
+        <f t="shared" si="19"/>
         <v>1.4914914914914812E-2</v>
       </c>
       <c r="BA9" s="111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>4.0877554722740239E-3</v>
       </c>
       <c r="BB9" s="111">
-        <f>+AE9/AD9-1</f>
+        <f t="shared" si="21"/>
         <v>1.7637169494116645E-2</v>
       </c>
       <c r="BC9" s="111">
-        <f>+AF9/AE9-1</f>
+        <f t="shared" si="22"/>
         <v>1.4642857142854737E-3</v>
       </c>
       <c r="BD9" s="111">
-        <f>+AG9/AF9-1</f>
+        <f t="shared" si="23"/>
         <v>-1.9095055256390325E-2</v>
       </c>
       <c r="BE9" s="111">
-        <f>+AH9/AG9-1</f>
+        <f t="shared" si="24"/>
         <v>-1.1587239154241535E-3</v>
       </c>
       <c r="BF9" s="111">
-        <f>+AI9/AH9-1</f>
+        <f t="shared" si="25"/>
         <v>9.5785440613016526E-4</v>
       </c>
       <c r="BG9" s="111">
-        <f t="shared" si="0"/>
-        <v>-0.99997473816506077</v>
+        <f t="shared" si="15"/>
+        <v>-2.4365580943120579E-2</v>
       </c>
       <c r="BH9" s="111">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>-1.3604907203522587E-2</v>
       </c>
       <c r="BI9" s="107">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>8.6446061678264741E-3</v>
       </c>
     </row>
     <row r="10" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7328,71 +7340,71 @@
       <c r="AI10" s="143">
         <v>1190.4761904761899</v>
       </c>
-      <c r="AJ10" s="260">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="262">
-        <f>+P10/O10-1</f>
+      <c r="AJ10" s="211">
+        <v>1184.2105263157889</v>
+      </c>
+      <c r="AK10" s="213">
+        <f t="shared" si="0"/>
         <v>1.4285714285714013E-2</v>
       </c>
       <c r="AL10" s="45">
-        <f>+Q10/P10-1</f>
+        <f t="shared" si="1"/>
         <v>9.5882990249187117E-2</v>
       </c>
       <c r="AM10" s="51">
-        <f>+R10/Q10-1</f>
+        <f t="shared" si="2"/>
         <v>-2.3779724655819567E-2</v>
       </c>
       <c r="AN10" s="51">
-        <f>+S10/R10-1</f>
+        <f t="shared" si="3"/>
         <v>1.1443828739225559E-2</v>
       </c>
       <c r="AO10" s="51">
-        <f>+T10/S10-1</f>
+        <f t="shared" si="4"/>
         <v>1.9610925525643363E-2</v>
       </c>
       <c r="AP10" s="51">
-        <f>+U10/T10-1</f>
+        <f t="shared" si="5"/>
         <v>-8.0851063829787684E-3</v>
       </c>
       <c r="AQ10" s="51">
-        <f>+V10/U10-1</f>
+        <f t="shared" si="6"/>
         <v>2.2897897897898201E-2</v>
       </c>
       <c r="AR10" s="51">
-        <f>+W10/V10-1</f>
+        <f t="shared" si="7"/>
         <v>2.9781227946365174E-2</v>
       </c>
       <c r="AS10" s="51">
-        <f>+X10/W10-1</f>
+        <f t="shared" si="8"/>
         <v>1.3900679117147874E-2</v>
       </c>
       <c r="AT10" s="51">
-        <f>+Y10/X10-1</f>
+        <f t="shared" si="9"/>
         <v>6.0407428828483933E-3</v>
       </c>
       <c r="AU10" s="51">
-        <f>+Z10/Y10-1</f>
+        <f t="shared" si="10"/>
         <v>8.7178105565655084E-3</v>
       </c>
       <c r="AV10" s="51">
-        <f>+AA10/Z10-1</f>
+        <f t="shared" si="11"/>
         <v>1.8746564046179248E-2</v>
       </c>
       <c r="AW10" s="41">
-        <f>+AA10/O10-1</f>
+        <f t="shared" si="12"/>
         <v>0.22559523809523818</v>
       </c>
       <c r="AX10" s="46">
-        <f>+Z10/N10-1</f>
+        <f t="shared" si="13"/>
         <v>0.24616265953237315</v>
       </c>
       <c r="AY10" s="106">
-        <f>+AB10/AA10-1</f>
+        <f t="shared" si="18"/>
         <v>-9.2277804759594018E-3</v>
       </c>
       <c r="AZ10" s="111">
-        <f>+AC10/AB10-1</f>
+        <f t="shared" si="19"/>
         <v>1.5212981744421983E-2</v>
       </c>
       <c r="BA10" s="111">
@@ -7400,36 +7412,36 @@
         <v>-3.2813340505648325E-2</v>
       </c>
       <c r="BB10" s="111">
-        <f>+AE10/AD10-1</f>
+        <f t="shared" si="21"/>
         <v>3.1499564080209597E-2</v>
       </c>
       <c r="BC10" s="111">
-        <f>+AF10/AE10-1</f>
+        <f t="shared" si="22"/>
         <v>1.4339083617184833E-2</v>
       </c>
       <c r="BD10" s="111">
-        <f>+AG10/AF10-1</f>
+        <f t="shared" si="23"/>
         <v>-2.3046092184368705E-2</v>
       </c>
       <c r="BE10" s="111">
-        <f>+AH10/AG10-1</f>
+        <f t="shared" si="24"/>
         <v>-1.7094017094016811E-2</v>
       </c>
       <c r="BF10" s="111">
-        <f>+AI10/AH10-1</f>
+        <f t="shared" si="25"/>
         <v>-6.2111801242242803E-3</v>
       </c>
       <c r="BG10" s="111">
-        <f t="shared" si="0"/>
-        <v>-0.99998799999999999</v>
+        <f t="shared" si="15"/>
+        <v>-5.2631578947368585E-3</v>
       </c>
       <c r="BH10" s="111">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>-3.3767030495130967E-2</v>
       </c>
       <c r="BI10" s="107">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>-1.0741138560692587E-3</v>
       </c>
     </row>
     <row r="11" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7538,108 +7550,108 @@
       <c r="AI11" s="143">
         <v>1199.2533333333331</v>
       </c>
-      <c r="AJ11" s="260">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="262">
-        <f>+P11/O11-1</f>
+      <c r="AJ11" s="211">
+        <v>1168.9655172413791</v>
+      </c>
+      <c r="AK11" s="213">
+        <f t="shared" si="0"/>
         <v>2.4156239326853512E-3</v>
       </c>
       <c r="AL11" s="45">
-        <f>+Q11/P11-1</f>
+        <f t="shared" si="1"/>
         <v>3.7221431958274653E-2</v>
       </c>
       <c r="AM11" s="51">
-        <f>+R11/Q11-1</f>
+        <f t="shared" si="2"/>
         <v>3.5999999999999588E-2</v>
       </c>
       <c r="AN11" s="51">
-        <f>+S11/R11-1</f>
+        <f t="shared" si="3"/>
         <v>1.3209013209013243E-2</v>
       </c>
       <c r="AO11" s="51">
-        <f>+T11/S11-1</f>
+        <f t="shared" si="4"/>
         <v>1.829535495179635E-2</v>
       </c>
       <c r="AP11" s="51">
-        <f>+U11/T11-1</f>
+        <f t="shared" si="5"/>
         <v>2.5641025641025994E-2</v>
       </c>
       <c r="AQ11" s="51">
-        <f>+V11/U11-1</f>
+        <f t="shared" si="6"/>
         <v>1.5116279069767424E-2</v>
       </c>
       <c r="AR11" s="51">
-        <f>+W11/V11-1</f>
+        <f t="shared" si="7"/>
         <v>1.6979987871437396E-2</v>
       </c>
       <c r="AS11" s="51">
-        <f>+X11/W11-1</f>
+        <f t="shared" si="8"/>
         <v>-6.5593321407277916E-3</v>
       </c>
       <c r="AT11" s="51">
-        <f>+Y11/X11-1</f>
+        <f t="shared" si="9"/>
         <v>2.3809523809524169E-2</v>
       </c>
       <c r="AU11" s="51">
-        <f>+Z11/Y11-1</f>
+        <f t="shared" si="10"/>
         <v>4.7880690737829301E-3</v>
       </c>
       <c r="AV11" s="51">
-        <f>+AA11/Z11-1</f>
+        <f t="shared" si="11"/>
         <v>1.0373367212265672E-2</v>
       </c>
       <c r="AW11" s="41">
-        <f>+AA11/O11-1</f>
+        <f t="shared" si="12"/>
         <v>0.2150465441855185</v>
       </c>
       <c r="AX11" s="46">
-        <f>+Z11/N11-1</f>
+        <f t="shared" si="13"/>
         <v>0.21648869997926568</v>
       </c>
       <c r="AY11" s="106">
-        <f>+AB11/AA11-1</f>
+        <f t="shared" si="18"/>
         <v>6.1243092348890471E-3</v>
       </c>
       <c r="AZ11" s="111">
-        <f>+AC11/AB11-1</f>
+        <f t="shared" si="19"/>
         <v>6.9930069930066452E-3</v>
       </c>
       <c r="BA11" s="111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>-3.6231884057974506E-3</v>
       </c>
       <c r="BB11" s="111">
-        <f>+AE11/AD11-1</f>
+        <f t="shared" si="21"/>
         <v>3.6363636363641039E-3</v>
       </c>
       <c r="BC11" s="111">
-        <f>+AF11/AE11-1</f>
+        <f t="shared" si="22"/>
         <v>2.3322772657450086E-2</v>
       </c>
       <c r="BD11" s="111">
-        <f>+AG11/AF11-1</f>
+        <f t="shared" si="23"/>
         <v>-2.5984711006290073E-2</v>
       </c>
       <c r="BE11" s="111">
-        <f>+AH11/AG11-1</f>
+        <f t="shared" si="24"/>
         <v>-1.712747736725917E-3</v>
       </c>
       <c r="BF11" s="111">
-        <f>+AI11/AH11-1</f>
+        <f t="shared" si="25"/>
         <v>4.3746666666661937E-3</v>
       </c>
       <c r="BG11" s="111">
-        <f t="shared" si="0"/>
-        <v>-0.99999798572673049</v>
+        <f t="shared" si="15"/>
+        <v>-2.5255561314779795E-2</v>
       </c>
       <c r="BH11" s="111">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>-1.3042273940794158E-2</v>
       </c>
       <c r="BI11" s="107">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>2.582688247712861E-2</v>
       </c>
     </row>
     <row r="12" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7748,108 +7760,108 @@
       <c r="AI12" s="143">
         <v>1186.356589147287</v>
       </c>
-      <c r="AJ12" s="260">
+      <c r="AJ12" s="211">
+        <v>1192.928039702233</v>
+      </c>
+      <c r="AK12" s="213">
+        <f t="shared" si="0"/>
+        <v>2.7432096597145961E-2</v>
+      </c>
+      <c r="AL12" s="45">
+        <f t="shared" si="1"/>
+        <v>1.0000100000961964E-5</v>
+      </c>
+      <c r="AM12" s="51">
+        <f t="shared" si="2"/>
+        <v>2.0408163265305923E-2</v>
+      </c>
+      <c r="AN12" s="51">
+        <f t="shared" si="3"/>
+        <v>3.0689655172413399E-2</v>
+      </c>
+      <c r="AO12" s="51">
+        <f t="shared" si="4"/>
+        <v>1.6020864381520949E-2</v>
+      </c>
+      <c r="AP12" s="51">
+        <f t="shared" si="5"/>
+        <v>1.3812492360346651E-2</v>
+      </c>
+      <c r="AQ12" s="51">
+        <f t="shared" si="6"/>
+        <v>3.2677848467322468E-2</v>
+      </c>
+      <c r="AR12" s="51">
+        <f t="shared" si="7"/>
+        <v>-6.2595746783744577E-4</v>
+      </c>
+      <c r="AS12" s="51">
+        <f t="shared" si="8"/>
+        <v>1.7796397751280724E-2</v>
+      </c>
+      <c r="AT12" s="51">
+        <f t="shared" si="9"/>
+        <v>1.9144890197521081E-2</v>
+      </c>
+      <c r="AU12" s="51">
+        <f t="shared" si="10"/>
+        <v>1.6582300576017506E-2</v>
+      </c>
+      <c r="AV12" s="51">
+        <f t="shared" si="11"/>
+        <v>-6.3775510204087116E-3</v>
+      </c>
+      <c r="AW12" s="41">
+        <f t="shared" si="12"/>
+        <v>0.2035753489101455</v>
+      </c>
+      <c r="AX12" s="46">
+        <f t="shared" si="13"/>
+        <v>0.26197183098591581</v>
+      </c>
+      <c r="AY12" s="106">
+        <f t="shared" si="18"/>
+        <v>2.2887630662025149E-3</v>
+      </c>
+      <c r="AZ12" s="111">
+        <f t="shared" si="19"/>
+        <v>1.3589861024607908E-2</v>
+      </c>
+      <c r="BA12" s="111">
+        <f t="shared" si="20"/>
+        <v>8.3477061055534652E-3</v>
+      </c>
+      <c r="BB12" s="111">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="262">
-        <f>+P12/O12-1</f>
-        <v>2.7432096597145961E-2</v>
-      </c>
-      <c r="AL12" s="45">
-        <f>+Q12/P12-1</f>
-        <v>1.0000100000961964E-5</v>
-      </c>
-      <c r="AM12" s="51">
-        <f>+R12/Q12-1</f>
-        <v>2.0408163265305923E-2</v>
-      </c>
-      <c r="AN12" s="51">
-        <f>+S12/R12-1</f>
-        <v>3.0689655172413399E-2</v>
-      </c>
-      <c r="AO12" s="51">
-        <f>+T12/S12-1</f>
-        <v>1.6020864381520949E-2</v>
-      </c>
-      <c r="AP12" s="51">
-        <f>+U12/T12-1</f>
-        <v>1.3812492360346651E-2</v>
-      </c>
-      <c r="AQ12" s="51">
-        <f>+V12/U12-1</f>
-        <v>3.2677848467322468E-2</v>
-      </c>
-      <c r="AR12" s="51">
-        <f>+W12/V12-1</f>
-        <v>-6.2595746783744577E-4</v>
-      </c>
-      <c r="AS12" s="51">
-        <f>+X12/W12-1</f>
-        <v>1.7796397751280724E-2</v>
-      </c>
-      <c r="AT12" s="51">
-        <f>+Y12/X12-1</f>
-        <v>1.9144890197521081E-2</v>
-      </c>
-      <c r="AU12" s="51">
-        <f>+Z12/Y12-1</f>
-        <v>1.6582300576017506E-2</v>
-      </c>
-      <c r="AV12" s="51">
-        <f>+AA12/Z12-1</f>
-        <v>-6.3775510204087116E-3</v>
-      </c>
-      <c r="AW12" s="41">
-        <f>+AA12/O12-1</f>
-        <v>0.2035753489101455</v>
-      </c>
-      <c r="AX12" s="46">
-        <f>+Z12/N12-1</f>
-        <v>0.26197183098591581</v>
-      </c>
-      <c r="AY12" s="106">
-        <f>+AB12/AA12-1</f>
-        <v>2.2887630662025149E-3</v>
-      </c>
-      <c r="AZ12" s="111">
-        <f>+AC12/AB12-1</f>
-        <v>1.3589861024607908E-2</v>
-      </c>
-      <c r="BA12" s="111">
-        <f t="shared" si="3"/>
-        <v>8.3477061055534652E-3</v>
-      </c>
-      <c r="BB12" s="111">
-        <f>+AE12/AD12-1</f>
+      <c r="BC12" s="111">
+        <f t="shared" si="22"/>
+        <v>-7.9365079365083524E-3</v>
+      </c>
+      <c r="BD12" s="111">
+        <f t="shared" si="23"/>
+        <v>8.0000000000004512E-3</v>
+      </c>
+      <c r="BE12" s="111">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BC12" s="111">
-        <f>+AF12/AE12-1</f>
-        <v>-7.9365079365083524E-3</v>
-      </c>
-      <c r="BD12" s="111">
-        <f>+AG12/AF12-1</f>
-        <v>8.0000000000004512E-3</v>
-      </c>
-      <c r="BE12" s="111">
-        <f>+AH12/AG12-1</f>
-        <v>0</v>
-      </c>
       <c r="BF12" s="111">
-        <f>+AI12/AH12-1</f>
+        <f t="shared" si="25"/>
         <v>-1.1369509043927528E-2</v>
       </c>
       <c r="BG12" s="111">
-        <f t="shared" si="0"/>
-        <v>-0.99997687702260174</v>
+        <f t="shared" si="15"/>
+        <v>5.5391866282543667E-3</v>
       </c>
       <c r="BH12" s="111">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>1.83532046238577E-2</v>
       </c>
       <c r="BI12" s="107">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>4.8330701556507316E-2</v>
       </c>
     </row>
     <row r="13" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7958,108 +7970,108 @@
       <c r="AI13" s="143">
         <v>1287.2413793103451</v>
       </c>
-      <c r="AJ13" s="260">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="262">
-        <f>+P13/O13-1</f>
+      <c r="AJ13" s="211">
+        <v>1306.666666666667</v>
+      </c>
+      <c r="AK13" s="213">
+        <f t="shared" si="0"/>
         <v>2.6432158293152597E-2</v>
       </c>
       <c r="AL13" s="45">
-        <f>+Q13/P13-1</f>
+        <f t="shared" si="1"/>
         <v>1.8072289156626287E-2</v>
       </c>
       <c r="AM13" s="51">
-        <f>+R13/Q13-1</f>
+        <f t="shared" si="2"/>
         <v>3.8461538461538769E-2</v>
       </c>
       <c r="AN13" s="51">
-        <f>+S13/R13-1</f>
+        <f t="shared" si="3"/>
         <v>4.1269841269840901E-2</v>
       </c>
       <c r="AO13" s="51">
-        <f>+T13/S13-1</f>
+        <f t="shared" si="4"/>
         <v>4.5656982305113392E-3</v>
       </c>
       <c r="AP13" s="51">
-        <f>+U13/T13-1</f>
+        <f t="shared" si="5"/>
         <v>-8.9849286933371131E-3</v>
       </c>
       <c r="AQ13" s="51">
-        <f>+V13/U13-1</f>
+        <f t="shared" si="6"/>
         <v>2.897975387058338E-2</v>
       </c>
       <c r="AR13" s="51">
-        <f>+W13/V13-1</f>
+        <f t="shared" si="7"/>
         <v>2.8882045539379897E-2</v>
       </c>
       <c r="AS13" s="51">
-        <f>+X13/W13-1</f>
+        <f t="shared" si="8"/>
         <v>2.9781610163452488E-2</v>
       </c>
       <c r="AT13" s="51">
-        <f>+Y13/X13-1</f>
+        <f t="shared" si="9"/>
         <v>1.4606741573033988E-2</v>
       </c>
       <c r="AU13" s="51">
-        <f>+Z13/Y13-1</f>
+        <f t="shared" si="10"/>
         <v>-1.9168855056894585E-2</v>
       </c>
       <c r="AV13" s="51">
-        <f>+AA13/Z13-1</f>
+        <f t="shared" si="11"/>
         <v>4.9757696130312556E-3</v>
       </c>
       <c r="AW13" s="41">
-        <f>+AA13/O13-1</f>
+        <f t="shared" si="12"/>
         <v>0.22655297274642816</v>
       </c>
       <c r="AX13" s="46">
-        <f>+Z13/N13-1</f>
+        <f t="shared" si="13"/>
         <v>0.22750285826088623</v>
       </c>
       <c r="AY13" s="106">
-        <f>+AB13/AA13-1</f>
+        <f t="shared" si="18"/>
         <v>4.4188607556352455E-3</v>
       </c>
       <c r="AZ13" s="111">
-        <f>+AC13/AB13-1</f>
+        <f t="shared" si="19"/>
         <v>1.7862100879222798E-2</v>
       </c>
       <c r="BA13" s="111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>-1.3806706114398493E-2</v>
       </c>
       <c r="BB13" s="111">
-        <f>+AE13/AD13-1</f>
+        <f t="shared" si="21"/>
         <v>3.6285714285714699E-2</v>
       </c>
       <c r="BC13" s="111">
-        <f>+AF13/AE13-1</f>
+        <f t="shared" si="22"/>
         <v>-2.1505376344086224E-2</v>
       </c>
       <c r="BD13" s="111">
-        <f>+AG13/AF13-1</f>
+        <f t="shared" si="23"/>
         <v>5.9171597633138617E-3</v>
       </c>
       <c r="BE13" s="111">
-        <f>+AH13/AG13-1</f>
+        <f t="shared" si="24"/>
         <v>-1.7292250233426953E-2</v>
       </c>
       <c r="BF13" s="111">
-        <f>+AI13/AH13-1</f>
+        <f t="shared" si="25"/>
         <v>1.682397437644978E-3</v>
       </c>
       <c r="BG13" s="111">
-        <f t="shared" si="0"/>
-        <v>-0.99997946604365118</v>
+        <f t="shared" si="15"/>
+        <v>1.5090633092240457E-2</v>
       </c>
       <c r="BH13" s="111">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>2.7602763011300269E-2</v>
       </c>
       <c r="BI13" s="107">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>2.7715355805243869E-2</v>
       </c>
     </row>
     <row r="14" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8168,115 +8180,115 @@
       <c r="AI14" s="143">
         <v>1273.333333333333</v>
       </c>
-      <c r="AJ14" s="260">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="262">
-        <f>+P14/O14-1</f>
+      <c r="AJ14" s="211">
+        <v>1253.700564971751</v>
+      </c>
+      <c r="AK14" s="213">
+        <f t="shared" si="0"/>
         <v>1.1297908745934837E-2</v>
       </c>
       <c r="AL14" s="66">
-        <f>+Q14/P14-1</f>
+        <f t="shared" si="1"/>
         <v>4.1647858926905812E-2</v>
       </c>
       <c r="AM14" s="66">
-        <f>+R14/Q14-1</f>
+        <f t="shared" si="2"/>
         <v>2.1802325581395277E-2</v>
       </c>
       <c r="AN14" s="63">
-        <f>+S14/R14-1</f>
+        <f t="shared" si="3"/>
         <v>5.7297297297297378E-2</v>
       </c>
       <c r="AO14" s="63">
-        <f>+T14/S14-1</f>
+        <f t="shared" si="4"/>
         <v>-6.7192521180253761E-3</v>
       </c>
       <c r="AP14" s="63">
-        <f>+U14/T14-1</f>
+        <f t="shared" si="5"/>
         <v>2.4273880675264703E-2</v>
       </c>
       <c r="AQ14" s="63">
-        <f>+V14/U14-1</f>
+        <f t="shared" si="6"/>
         <v>3.4699446021555502E-3</v>
       </c>
       <c r="AR14" s="63">
-        <f>+W14/V14-1</f>
+        <f t="shared" si="7"/>
         <v>1.5408320493066618E-3</v>
       </c>
       <c r="AS14" s="63">
-        <f>+X14/W14-1</f>
+        <f t="shared" si="8"/>
         <v>2.3111111111111082E-2</v>
       </c>
       <c r="AT14" s="63">
-        <f>+Y14/X14-1</f>
+        <f t="shared" si="9"/>
         <v>1.278391460841477E-2</v>
       </c>
       <c r="AU14" s="63">
-        <f>+Z14/Y14-1</f>
+        <f t="shared" si="10"/>
         <v>2.5641553263098249E-3</v>
       </c>
       <c r="AV14" s="63">
-        <f>+AA14/Z14-1</f>
+        <f t="shared" si="11"/>
         <v>3.2867918289158915E-3</v>
       </c>
       <c r="AW14" s="96">
-        <f>+AA14/O14-1</f>
+        <f t="shared" si="12"/>
         <v>0.2128359264497881</v>
       </c>
       <c r="AX14" s="88">
-        <f>+Z14/N14-1</f>
+        <f t="shared" si="13"/>
         <v>0.20236971009151761</v>
       </c>
       <c r="AY14" s="106">
-        <f>+AB14/AA14-1</f>
+        <f t="shared" si="18"/>
         <v>-3.759609893247795E-2</v>
       </c>
       <c r="AZ14" s="111">
-        <f>+AC14/AB14-1</f>
+        <f t="shared" si="19"/>
         <v>6.3394683026584353E-2</v>
       </c>
       <c r="BA14" s="111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>7.3529411764707842E-3</v>
       </c>
       <c r="BB14" s="111">
-        <f>+AE14/AD14-1</f>
+        <f t="shared" si="21"/>
         <v>-1.542558841828956E-2</v>
       </c>
       <c r="BC14" s="111">
-        <f>+AF14/AE14-1</f>
+        <f t="shared" si="22"/>
         <v>-1.1523647320843433E-2</v>
       </c>
       <c r="BD14" s="111">
-        <f>+AG14/AF14-1</f>
+        <f t="shared" si="23"/>
         <v>-1.6421005436305203E-2</v>
       </c>
       <c r="BE14" s="111">
-        <f>+AH14/AG14-1</f>
+        <f t="shared" si="24"/>
         <v>-2.6481481481481439E-2</v>
       </c>
       <c r="BF14" s="111">
-        <f>+AI14/AH14-1</f>
+        <f t="shared" si="25"/>
         <v>1.7310252996004749E-2</v>
       </c>
       <c r="BG14" s="111">
-        <f t="shared" si="0"/>
-        <v>-0.9999911272967964</v>
+        <f t="shared" si="15"/>
+        <v>-1.541840447244669E-2</v>
       </c>
       <c r="BH14" s="111">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>-3.7707847331791333E-2</v>
       </c>
       <c r="BI14" s="107">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="17"/>
+        <v>-1.9695474826606607E-2</v>
       </c>
     </row>
     <row r="15" spans="1:61" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="234" t="s">
+      <c r="B15" s="238" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="235"/>
+      <c r="C15" s="239"/>
       <c r="D15" s="38">
         <v>730.02347994203103</v>
       </c>
@@ -8374,58 +8386,59 @@
         <v>1128</v>
       </c>
       <c r="AJ15" s="176">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="263">
-        <f>+P15/O15-1</f>
+        <f>AVERAGE(AJ4:AJ14)</f>
+        <v>1117.1128357594084</v>
+      </c>
+      <c r="AK15" s="214">
+        <f t="shared" si="0"/>
         <v>1.8675110953239704E-2</v>
       </c>
       <c r="AL15" s="67">
-        <f>+Q15/P15-1</f>
+        <f t="shared" si="1"/>
         <v>3.7800902640231504E-2</v>
       </c>
       <c r="AM15" s="67">
-        <f>+R15/Q15-1</f>
+        <f t="shared" si="2"/>
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="AN15" s="67">
-        <f>+S15/R15-1</f>
+        <f t="shared" si="3"/>
         <v>2.4024024024023927E-2</v>
       </c>
       <c r="AO15" s="67">
-        <f>+T15/S15-1</f>
+        <f t="shared" si="4"/>
         <v>1.6617790811339184E-2</v>
       </c>
       <c r="AP15" s="67">
-        <f>+U15/T15-1</f>
+        <f t="shared" si="5"/>
         <v>6.7307692307692069E-3</v>
       </c>
       <c r="AQ15" s="67">
-        <f>+V15/U15-1</f>
+        <f t="shared" si="6"/>
         <v>1.5281757402101137E-2</v>
       </c>
       <c r="AR15" s="67">
-        <f>+W15/V15-1</f>
+        <f t="shared" si="7"/>
         <v>1.8814675446848561E-2</v>
       </c>
       <c r="AS15" s="67">
-        <f>+X15/W15-1</f>
+        <f t="shared" si="8"/>
         <v>1.3204062788550353E-2</v>
       </c>
       <c r="AT15" s="67">
-        <f>+Y15/X15-1</f>
+        <f t="shared" si="9"/>
         <v>1.6130502141620484E-2</v>
       </c>
       <c r="AU15" s="67">
-        <f>+Z15/Y15-1</f>
+        <f t="shared" si="10"/>
         <v>3.5874439461882623E-3</v>
       </c>
       <c r="AV15" s="67">
-        <f>+AA15/Z15-1</f>
+        <f t="shared" si="11"/>
         <v>3.5746201966040392E-3</v>
       </c>
       <c r="AW15" s="67">
-        <f>+AA15/O15-1</f>
+        <f t="shared" si="12"/>
         <v>0.22141494799451888</v>
       </c>
       <c r="AX15" s="68">
@@ -8433,11 +8446,11 @@
         <v>0.22141494799451888</v>
       </c>
       <c r="AY15" s="108">
-        <f>+AB15/AA15-1</f>
+        <f t="shared" si="18"/>
         <v>-8.9047195013358671E-4</v>
       </c>
       <c r="AZ15" s="112">
-        <f>+AC15/AB15-1</f>
+        <f t="shared" si="19"/>
         <v>1.6042780748663166E-2</v>
       </c>
       <c r="BA15" s="112">
@@ -8445,36 +8458,36 @@
         <v>1.7543859649122862E-3</v>
       </c>
       <c r="BB15" s="112">
-        <f>+AE15/AD15-1</f>
+        <f t="shared" si="21"/>
         <v>1.138353765323985E-2</v>
       </c>
       <c r="BC15" s="112">
-        <f>+AF15/AE15-1</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BD15" s="112">
-        <f>+AG15/AF15-1</f>
+        <f t="shared" si="23"/>
         <v>-1.1255411255411296E-2</v>
       </c>
       <c r="BE15" s="112">
-        <f>+AH15/AG15-1</f>
+        <f t="shared" si="24"/>
         <v>-1.4010507880910628E-2</v>
       </c>
       <c r="BF15" s="112">
-        <f>+AI15/AH15-1</f>
+        <f t="shared" si="25"/>
         <v>1.7761989342806039E-3</v>
       </c>
       <c r="BG15" s="112">
-        <f>+AK15/AI15-1</f>
-        <v>-0.99998344405057338</v>
+        <f>+AJ15/AI15-1</f>
+        <v>-9.6517413480421421E-3</v>
       </c>
       <c r="BH15" s="112">
         <f>+AJ15/AA15-1</f>
-        <v>-1</v>
+        <v>-5.2423546220762285E-3</v>
       </c>
       <c r="BI15" s="109">
         <f>+AJ15/X15-1</f>
-        <v>-1</v>
+        <v>1.8055988115746269E-2</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
@@ -8583,7 +8596,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="AK4:AK15 AL4:AW16">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8597,7 +8610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX16">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8608,6 +8621,18 @@
           <x14:id>{31B886E1-3768-44DB-BF71-EBC6A866E09C}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG4:BG14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8653,8 +8678,8 @@
   <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN14" sqref="BN14"/>
+      <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8682,82 +8707,82 @@
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:60" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="257" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="249">
+      <c r="B2" s="258"/>
+      <c r="C2" s="253">
         <v>2022</v>
       </c>
-      <c r="D2" s="250"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="259">
+      <c r="D2" s="254"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="256"/>
+      <c r="O2" s="263">
         <v>2023</v>
       </c>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="257"/>
-      <c r="V2" s="257"/>
-      <c r="W2" s="257"/>
-      <c r="X2" s="257"/>
-      <c r="Y2" s="257"/>
-      <c r="Z2" s="258"/>
-      <c r="AA2" s="259">
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="261"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="263">
         <v>2024</v>
       </c>
-      <c r="AB2" s="257"/>
-      <c r="AC2" s="257"/>
-      <c r="AD2" s="257"/>
-      <c r="AE2" s="257"/>
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="261"/>
+      <c r="AD2" s="261"/>
+      <c r="AE2" s="261"/>
       <c r="AF2" s="95"/>
       <c r="AG2" s="95"/>
       <c r="AH2" s="95"/>
       <c r="AI2" s="95"/>
-      <c r="AJ2" s="257" t="s">
+      <c r="AJ2" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="AK2" s="257"/>
-      <c r="AL2" s="257"/>
-      <c r="AM2" s="257"/>
-      <c r="AN2" s="257"/>
-      <c r="AO2" s="257"/>
-      <c r="AP2" s="257"/>
-      <c r="AQ2" s="257"/>
-      <c r="AR2" s="257"/>
-      <c r="AS2" s="257"/>
-      <c r="AT2" s="257"/>
-      <c r="AU2" s="257"/>
-      <c r="AV2" s="257"/>
-      <c r="AW2" s="258"/>
-      <c r="AX2" s="246" t="s">
+      <c r="AK2" s="261"/>
+      <c r="AL2" s="261"/>
+      <c r="AM2" s="261"/>
+      <c r="AN2" s="261"/>
+      <c r="AO2" s="261"/>
+      <c r="AP2" s="261"/>
+      <c r="AQ2" s="261"/>
+      <c r="AR2" s="261"/>
+      <c r="AS2" s="261"/>
+      <c r="AT2" s="261"/>
+      <c r="AU2" s="261"/>
+      <c r="AV2" s="261"/>
+      <c r="AW2" s="262"/>
+      <c r="AX2" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="AY2" s="247"/>
-      <c r="AZ2" s="247"/>
-      <c r="BA2" s="247"/>
-      <c r="BB2" s="247"/>
-      <c r="BC2" s="247"/>
-      <c r="BD2" s="247"/>
-      <c r="BE2" s="247"/>
-      <c r="BF2" s="247"/>
-      <c r="BG2" s="247"/>
-      <c r="BH2" s="248"/>
+      <c r="AY2" s="251"/>
+      <c r="AZ2" s="251"/>
+      <c r="BA2" s="251"/>
+      <c r="BB2" s="251"/>
+      <c r="BC2" s="251"/>
+      <c r="BD2" s="251"/>
+      <c r="BE2" s="251"/>
+      <c r="BF2" s="251"/>
+      <c r="BG2" s="251"/>
+      <c r="BH2" s="252"/>
     </row>
     <row r="3" spans="1:60" s="7" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="255"/>
-      <c r="B3" s="256"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="260"/>
       <c r="C3" s="131" t="s">
         <v>0</v>
       </c>
@@ -9037,107 +9062,107 @@
         <v>7.333333333333333</v>
       </c>
       <c r="AI4" s="207">
+        <v>7.3170731707317076</v>
+      </c>
+      <c r="AJ4" s="155">
+        <f t="shared" ref="AJ4:AU7" si="0">+O4/N4-1</f>
         <v>0</v>
       </c>
-      <c r="AJ4" s="155">
-        <f>+O4/N4-1</f>
+      <c r="AK4" s="74">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="74">
-        <f>+P4/O4-1</f>
+      <c r="AL4" s="74">
+        <f t="shared" si="0"/>
+        <v>-0.18181818181818188</v>
+      </c>
+      <c r="AM4" s="74">
+        <f t="shared" si="0"/>
+        <v>-4.9382716049382713E-2</v>
+      </c>
+      <c r="AN4" s="74">
+        <f t="shared" si="0"/>
+        <v>-3.5714285714285698E-2</v>
+      </c>
+      <c r="AO4" s="74">
+        <f t="shared" si="0"/>
+        <v>-1.5151515151515138E-2</v>
+      </c>
+      <c r="AP4" s="74">
+        <f t="shared" si="0"/>
+        <v>1.538461538461533E-2</v>
+      </c>
+      <c r="AQ4" s="74">
+        <f t="shared" si="0"/>
+        <v>4.4642857142857206E-2</v>
+      </c>
+      <c r="AR4" s="74">
+        <f t="shared" si="0"/>
+        <v>6.3627730294397056E-2</v>
+      </c>
+      <c r="AS4" s="74">
+        <f t="shared" si="0"/>
+        <v>2.857142857142847E-2</v>
+      </c>
+      <c r="AT4" s="74">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="74">
-        <f>+Q4/P4-1</f>
-        <v>-0.18181818181818188</v>
-      </c>
-      <c r="AM4" s="74">
-        <f>+R4/Q4-1</f>
-        <v>-4.9382716049382713E-2</v>
-      </c>
-      <c r="AN4" s="74">
-        <f>+S4/R4-1</f>
-        <v>-3.5714285714285698E-2</v>
-      </c>
-      <c r="AO4" s="74">
-        <f>+T4/S4-1</f>
-        <v>-1.5151515151515138E-2</v>
-      </c>
-      <c r="AP4" s="74">
-        <f>+U4/T4-1</f>
-        <v>1.538461538461533E-2</v>
-      </c>
-      <c r="AQ4" s="74">
-        <f>+V4/U4-1</f>
-        <v>4.4642857142857206E-2</v>
-      </c>
-      <c r="AR4" s="74">
-        <f>+W4/V4-1</f>
-        <v>6.3627730294397056E-2</v>
-      </c>
-      <c r="AS4" s="74">
-        <f>+X4/W4-1</f>
-        <v>2.857142857142847E-2</v>
-      </c>
-      <c r="AT4" s="74">
-        <f>+Y4/X4-1</f>
+      <c r="AU4" s="74">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AU4" s="74">
-        <f>+Z4/Y4-1</f>
+      <c r="AV4" s="74">
+        <f t="shared" ref="AV4:AV15" si="1">+Z4/N4-1</f>
+        <v>-0.1428571428571429</v>
+      </c>
+      <c r="AW4" s="97">
+        <f t="shared" ref="AW4:AW15" si="2">+Z4/N4-1</f>
+        <v>-0.1428571428571429</v>
+      </c>
+      <c r="AX4" s="105">
+        <f t="shared" ref="AX4:AX15" si="3">+AA4/Z4-1</f>
+        <v>-2.7777777777777679E-2</v>
+      </c>
+      <c r="AY4" s="110">
+        <f t="shared" ref="AY4:AY15" si="4">+AB4/AA4-1</f>
+        <v>-2.3255813953488413E-2</v>
+      </c>
+      <c r="AZ4" s="110">
+        <f t="shared" ref="AZ4:AZ15" si="5">+AC4/AB4-1</f>
+        <v>-4.1714285714285815E-2</v>
+      </c>
+      <c r="BA4" s="111">
+        <f t="shared" ref="BA4:BA15" si="6">+AD4/AC4-1</f>
+        <v>-8.4249084249084172E-2</v>
+      </c>
+      <c r="BB4" s="111">
+        <f t="shared" ref="BB4:BB15" si="7">+AE4/AD4-1</f>
         <v>0</v>
       </c>
-      <c r="AV4" s="74">
-        <f>+Z4/N4-1</f>
-        <v>-0.1428571428571429</v>
-      </c>
-      <c r="AW4" s="97">
-        <f>+Z4/N4-1</f>
-        <v>-0.1428571428571429</v>
-      </c>
-      <c r="AX4" s="105">
-        <f>+AA4/Z4-1</f>
-        <v>-2.7777777777777679E-2</v>
-      </c>
-      <c r="AY4" s="110">
-        <f>+AB4/AA4-1</f>
-        <v>-2.3255813953488413E-2</v>
-      </c>
-      <c r="AZ4" s="110">
-        <f>+AC4/AB4-1</f>
-        <v>-4.1714285714285815E-2</v>
-      </c>
-      <c r="BA4" s="111">
-        <f>+AD4/AC4-1</f>
-        <v>-8.4249084249084172E-2</v>
-      </c>
-      <c r="BB4" s="111">
-        <f>+AE4/AD4-1</f>
-        <v>0</v>
-      </c>
       <c r="BC4" s="193">
-        <f>+AF4/AE4-1</f>
+        <f t="shared" ref="BC4:BC15" si="8">+AF4/AE4-1</f>
         <v>-1.1764705882353121E-2</v>
       </c>
       <c r="BD4" s="193">
-        <f>+AG4/AF4-1</f>
+        <f t="shared" ref="BD4:BD15" si="9">+AG4/AF4-1</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="BE4" s="193">
-        <f>+AH4/AG4-1</f>
+        <f t="shared" ref="BE4:BE15" si="10">+AH4/AG4-1</f>
         <v>-2.666666666666706E-3</v>
       </c>
       <c r="BF4" s="193">
-        <f>+AI4/AH4-1</f>
-        <v>-1</v>
+        <f t="shared" ref="BF4:BF15" si="11">+AI4/AH4-1</f>
+        <v>-2.2172949002216003E-3</v>
       </c>
       <c r="BG4" s="193">
         <f>+AI4/Z4-1</f>
-        <v>-1</v>
+        <v>-0.14634146341463405</v>
       </c>
       <c r="BH4" s="194">
         <f>+AI4/W4-1</f>
-        <v>-1</v>
+        <v>-0.12195121951219512</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
@@ -9244,107 +9269,107 @@
         <v>5.833333333333333</v>
       </c>
       <c r="AI5" s="208">
+        <v>5.4616477272727266</v>
+      </c>
+      <c r="AJ5" s="154">
+        <f t="shared" si="0"/>
+        <v>-0.13793103442857135</v>
+      </c>
+      <c r="AK5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.1047619046924626</v>
+      </c>
+      <c r="AL5" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.12500000000000011</v>
+      </c>
+      <c r="AM5" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428692E-2</v>
+      </c>
+      <c r="AN5" s="16">
+        <f t="shared" si="0"/>
+        <v>-2.777777777777779E-2</v>
+      </c>
+      <c r="AO5" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.3717532467532534E-2</v>
+      </c>
+      <c r="AP5" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7194047103019861E-2</v>
+      </c>
+      <c r="AQ5" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ5" s="154">
-        <f>+O5/N5-1</f>
-        <v>-0.13793103442857135</v>
-      </c>
-      <c r="AK5" s="16">
-        <f>+P5/O5-1</f>
-        <v>0.1047619046924626</v>
-      </c>
-      <c r="AL5" s="16">
-        <f>+Q5/P5-1</f>
-        <v>-0.12500000000000011</v>
-      </c>
-      <c r="AM5" s="16">
-        <f>+R5/Q5-1</f>
-        <v>2.8571428571428692E-2</v>
-      </c>
-      <c r="AN5" s="16">
-        <f>+S5/R5-1</f>
-        <v>-2.777777777777779E-2</v>
-      </c>
-      <c r="AO5" s="16">
-        <f>+T5/S5-1</f>
+      <c r="AR5" s="16">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AS5" s="16">
+        <f t="shared" si="0"/>
+        <v>8.4033613445380073E-3</v>
+      </c>
+      <c r="AT5" s="16">
+        <f t="shared" si="0"/>
+        <v>5.7777777777777706E-2</v>
+      </c>
+      <c r="AU5" s="16">
+        <f t="shared" si="0"/>
+        <v>-8.7187294272547677E-2</v>
+      </c>
+      <c r="AV5" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.18861092824226466</v>
+      </c>
+      <c r="AW5" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.18861092824226466</v>
+      </c>
+      <c r="AX5" s="106">
+        <f t="shared" si="3"/>
+        <v>2.0666137519475436E-2</v>
+      </c>
+      <c r="AY5" s="111">
+        <f t="shared" si="4"/>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="AZ5" s="111">
+        <f t="shared" si="5"/>
+        <v>-3.3333333333333326E-2</v>
+      </c>
+      <c r="BA5" s="111">
+        <f t="shared" si="6"/>
+        <v>-1.4778325123152691E-2</v>
+      </c>
+      <c r="BB5" s="111">
+        <f t="shared" si="7"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="BC5" s="193">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD5" s="193">
+        <f t="shared" si="9"/>
+        <v>-3.2258064516128893E-2</v>
+      </c>
+      <c r="BE5" s="193">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333215E-2</v>
+      </c>
+      <c r="BF5" s="193">
+        <f t="shared" si="11"/>
         <v>-6.3717532467532534E-2</v>
       </c>
-      <c r="AP5" s="16">
-        <f>+U5/T5-1</f>
-        <v>1.7194047103019861E-2</v>
-      </c>
-      <c r="AQ5" s="16">
-        <f>+V5/U5-1</f>
-        <v>0</v>
-      </c>
-      <c r="AR5" s="16">
-        <f>+W5/V5-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AS5" s="16">
-        <f>+X5/W5-1</f>
-        <v>8.4033613445380073E-3</v>
-      </c>
-      <c r="AT5" s="16">
-        <f>+Y5/X5-1</f>
-        <v>5.7777777777777706E-2</v>
-      </c>
-      <c r="AU5" s="16">
-        <f>+Z5/Y5-1</f>
-        <v>-8.7187294272547677E-2</v>
-      </c>
-      <c r="AV5" s="16">
-        <f>+Z5/N5-1</f>
-        <v>-0.18861092824226466</v>
-      </c>
-      <c r="AW5" s="17">
-        <f>+Z5/N5-1</f>
-        <v>-0.18861092824226466</v>
-      </c>
-      <c r="AX5" s="106">
-        <f>+AA5/Z5-1</f>
-        <v>2.0666137519475436E-2</v>
-      </c>
-      <c r="AY5" s="111">
-        <f>+AB5/AA5-1</f>
-        <v>3.499999999999992E-2</v>
-      </c>
-      <c r="AZ5" s="111">
-        <f>+AC5/AB5-1</f>
-        <v>-3.3333333333333326E-2</v>
-      </c>
-      <c r="BA5" s="111">
-        <f>+AD5/AC5-1</f>
-        <v>-1.4778325123152691E-2</v>
-      </c>
-      <c r="BB5" s="111">
-        <f>+AE5/AD5-1</f>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="BC5" s="193">
-        <f>+AF5/AE5-1</f>
-        <v>0</v>
-      </c>
-      <c r="BD5" s="193">
-        <f>+AG5/AF5-1</f>
-        <v>-3.2258064516128893E-2</v>
-      </c>
-      <c r="BE5" s="193">
-        <f>+AH5/AG5-1</f>
-        <v>3.3333333333333215E-2</v>
-      </c>
-      <c r="BF5" s="193">
-        <f>+AI5/AH5-1</f>
-        <v>-1</v>
-      </c>
       <c r="BG5" s="193">
-        <f t="shared" ref="BG5:BG14" si="0">+AI5/Z5-1</f>
-        <v>-1</v>
+        <f t="shared" ref="BG5:BG14" si="12">+AI5/Z5-1</f>
+        <v>-3.8395491425410433E-2</v>
       </c>
       <c r="BH5" s="194">
-        <f t="shared" ref="BH5:BH14" si="1">+AI5/W5-1</f>
-        <v>-1</v>
+        <f t="shared" ref="BH5:BH14" si="13">+AI5/W5-1</f>
+        <v>-6.3717532467532534E-2</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
@@ -9451,107 +9476,107 @@
         <v>10.8</v>
       </c>
       <c r="AI6" s="209">
+        <v>10.82792207792208</v>
+      </c>
+      <c r="AJ6" s="154">
+        <f t="shared" si="0"/>
+        <v>2.923976589473698E-2</v>
+      </c>
+      <c r="AK6" s="16">
+        <f t="shared" si="0"/>
+        <v>-2.1112842888323047E-2</v>
+      </c>
+      <c r="AL6" s="16">
+        <f t="shared" si="0"/>
+        <v>4.5420724627376341E-3</v>
+      </c>
+      <c r="AM6" s="16">
+        <f t="shared" si="0"/>
+        <v>-3.9943107739717987E-2</v>
+      </c>
+      <c r="AN6" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3148148148148362E-2</v>
+      </c>
+      <c r="AO6" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.1764705882353121E-2</v>
+      </c>
+      <c r="AP6" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.4285714285716677E-3</v>
+      </c>
+      <c r="AQ6" s="16">
+        <f t="shared" si="0"/>
+        <v>-9.5741168702541124E-3</v>
+      </c>
+      <c r="AR6" s="16">
+        <f t="shared" si="0"/>
+        <v>-3.7037037037037202E-2</v>
+      </c>
+      <c r="AS6" s="16">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000266E-2</v>
+      </c>
+      <c r="AT6" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.0989010989011061E-2</v>
+      </c>
+      <c r="AU6" s="16">
+        <f t="shared" si="0"/>
+        <v>-9.52380952380949E-3</v>
+      </c>
+      <c r="AV6" s="16">
+        <f t="shared" si="1"/>
+        <v>-3.7593984962405846E-2</v>
+      </c>
+      <c r="AW6" s="17">
+        <f t="shared" si="2"/>
+        <v>-3.7593984962405846E-2</v>
+      </c>
+      <c r="AX6" s="106">
+        <f t="shared" si="3"/>
+        <v>-2.7777777777778012E-2</v>
+      </c>
+      <c r="AY6" s="111">
+        <f t="shared" si="4"/>
+        <v>-1.8181818181818077E-2</v>
+      </c>
+      <c r="AZ6" s="111">
+        <f t="shared" si="5"/>
+        <v>-1.7857142857143349E-2</v>
+      </c>
+      <c r="BA6" s="111">
+        <f t="shared" si="6"/>
+        <v>1.8181818181818743E-2</v>
+      </c>
+      <c r="BB6" s="111">
+        <f t="shared" si="7"/>
+        <v>1.8518518518518379E-2</v>
+      </c>
+      <c r="BC6" s="193">
+        <f t="shared" si="8"/>
+        <v>-2.5000000000000244E-2</v>
+      </c>
+      <c r="BD6" s="193">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="154">
-        <f>+O6/N6-1</f>
-        <v>2.923976589473698E-2</v>
-      </c>
-      <c r="AK6" s="16">
-        <f>+P6/O6-1</f>
-        <v>-2.1112842888323047E-2</v>
-      </c>
-      <c r="AL6" s="16">
-        <f>+Q6/P6-1</f>
-        <v>4.5420724627376341E-3</v>
-      </c>
-      <c r="AM6" s="16">
-        <f>+R6/Q6-1</f>
-        <v>-3.9943107739717987E-2</v>
-      </c>
-      <c r="AN6" s="16">
-        <f>+S6/R6-1</f>
-        <v>2.3148148148148362E-2</v>
-      </c>
-      <c r="AO6" s="16">
-        <f>+T6/S6-1</f>
-        <v>-1.1764705882353121E-2</v>
-      </c>
-      <c r="AP6" s="16">
-        <f>+U6/T6-1</f>
-        <v>-1.4285714285716677E-3</v>
-      </c>
-      <c r="AQ6" s="16">
-        <f>+V6/U6-1</f>
-        <v>-9.5741168702541124E-3</v>
-      </c>
-      <c r="AR6" s="16">
-        <f>+W6/V6-1</f>
-        <v>-3.7037037037037202E-2</v>
-      </c>
-      <c r="AS6" s="16">
-        <f>+X6/W6-1</f>
-        <v>5.0000000000000266E-2</v>
-      </c>
-      <c r="AT6" s="16">
-        <f>+Y6/X6-1</f>
-        <v>-1.0989010989011061E-2</v>
-      </c>
-      <c r="AU6" s="16">
-        <f>+Z6/Y6-1</f>
-        <v>-9.52380952380949E-3</v>
-      </c>
-      <c r="AV6" s="16">
-        <f>+Z6/N6-1</f>
-        <v>-3.7593984962405846E-2</v>
-      </c>
-      <c r="AW6" s="17">
-        <f>+Z6/N6-1</f>
-        <v>-3.7593984962405846E-2</v>
-      </c>
-      <c r="AX6" s="106">
-        <f>+AA6/Z6-1</f>
-        <v>-2.7777777777778012E-2</v>
-      </c>
-      <c r="AY6" s="111">
-        <f>+AB6/AA6-1</f>
-        <v>-1.8181818181818077E-2</v>
-      </c>
-      <c r="AZ6" s="111">
-        <f>+AC6/AB6-1</f>
-        <v>-1.7857142857143349E-2</v>
-      </c>
-      <c r="BA6" s="111">
-        <f>+AD6/AC6-1</f>
-        <v>1.8181818181818743E-2</v>
-      </c>
-      <c r="BB6" s="111">
-        <f>+AE6/AD6-1</f>
-        <v>1.8518518518518379E-2</v>
-      </c>
-      <c r="BC6" s="193">
-        <f>+AF6/AE6-1</f>
-        <v>-2.5000000000000244E-2</v>
-      </c>
-      <c r="BD6" s="193">
-        <f>+AG6/AF6-1</f>
-        <v>0</v>
-      </c>
       <c r="BE6" s="193">
-        <f>+AH6/AG6-1</f>
+        <f t="shared" si="10"/>
         <v>-3.0769230769227551E-3</v>
       </c>
       <c r="BF6" s="193">
-        <f>+AI6/AH6-1</f>
-        <v>-1</v>
+        <f t="shared" si="11"/>
+        <v>2.5853775853776906E-3</v>
       </c>
       <c r="BG6" s="193">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-5.2556818181818121E-2</v>
       </c>
       <c r="BH6" s="194">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>-2.5487012987012725E-2</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
@@ -9658,107 +9683,107 @@
         <v>9.2307692307692299</v>
       </c>
       <c r="AI7" s="209">
+        <v>9.2307692307692299</v>
+      </c>
+      <c r="AJ7" s="154">
+        <f t="shared" si="0"/>
+        <v>-3.0769230699999928E-2</v>
+      </c>
+      <c r="AK7" s="16">
+        <f t="shared" si="0"/>
+        <v>-2.8239202727218582E-2</v>
+      </c>
+      <c r="AL7" s="16">
+        <f t="shared" si="0"/>
+        <v>-4.8315456515017896E-3</v>
+      </c>
+      <c r="AM7" s="16">
+        <f t="shared" si="0"/>
+        <v>-3.9805219528261659E-2</v>
+      </c>
+      <c r="AN7" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="154">
-        <f>+O7/N7-1</f>
-        <v>-3.0769230699999928E-2</v>
-      </c>
-      <c r="AK7" s="16">
-        <f>+P7/O7-1</f>
-        <v>-2.8239202727218582E-2</v>
-      </c>
-      <c r="AL7" s="16">
-        <f>+Q7/P7-1</f>
-        <v>-4.8315456515017896E-3</v>
-      </c>
-      <c r="AM7" s="16">
-        <f>+R7/Q7-1</f>
-        <v>-3.9805219528261659E-2</v>
-      </c>
-      <c r="AN7" s="16">
-        <f>+S7/R7-1</f>
+      <c r="AO7" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.6666666666667052E-3</v>
+      </c>
+      <c r="AP7" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6694490818029983E-3</v>
+      </c>
+      <c r="AQ7" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5867066466765944E-2</v>
+      </c>
+      <c r="AR7" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.5619235026441469E-2</v>
+      </c>
+      <c r="AS7" s="16">
+        <f t="shared" si="0"/>
+        <v>7.1428571428570953E-2</v>
+      </c>
+      <c r="AT7" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.6666666666666319E-2</v>
+      </c>
+      <c r="AU7" s="16">
+        <f t="shared" si="0"/>
+        <v>5.2631578947367919E-2</v>
+      </c>
+      <c r="AV7" s="16">
+        <f t="shared" si="1"/>
+        <v>-5.2631578947368807E-2</v>
+      </c>
+      <c r="AW7" s="17">
+        <f t="shared" si="2"/>
+        <v>-5.2631578947368807E-2</v>
+      </c>
+      <c r="AX7" s="106">
+        <f t="shared" si="3"/>
+        <v>-4.99999999999996E-2</v>
+      </c>
+      <c r="AY7" s="111">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="16">
-        <f>+T7/S7-1</f>
-        <v>-1.6666666666667052E-3</v>
-      </c>
-      <c r="AP7" s="16">
-        <f>+U7/T7-1</f>
-        <v>1.6694490818029983E-3</v>
-      </c>
-      <c r="AQ7" s="16">
-        <f>+V7/U7-1</f>
-        <v>1.5867066466765944E-2</v>
-      </c>
-      <c r="AR7" s="16">
-        <f>+W7/V7-1</f>
-        <v>-1.5619235026441469E-2</v>
-      </c>
-      <c r="AS7" s="16">
-        <f>+X7/W7-1</f>
-        <v>7.1428571428570953E-2</v>
-      </c>
-      <c r="AT7" s="16">
-        <f>+Y7/X7-1</f>
-        <v>-6.6666666666666319E-2</v>
-      </c>
-      <c r="AU7" s="16">
-        <f>+Z7/Y7-1</f>
-        <v>5.2631578947367919E-2</v>
-      </c>
-      <c r="AV7" s="16">
-        <f>+Z7/N7-1</f>
-        <v>-5.2631578947368807E-2</v>
-      </c>
-      <c r="AW7" s="17">
-        <f>+Z7/N7-1</f>
-        <v>-5.2631578947368807E-2</v>
-      </c>
-      <c r="AX7" s="106">
-        <f>+AA7/Z7-1</f>
-        <v>-4.99999999999996E-2</v>
-      </c>
-      <c r="AY7" s="111">
-        <f>+AB7/AA7-1</f>
+      <c r="AZ7" s="111">
+        <f t="shared" si="5"/>
+        <v>-2.6548672566371723E-2</v>
+      </c>
+      <c r="BA7" s="111">
+        <f t="shared" si="6"/>
+        <v>-5.1748251748251817E-2</v>
+      </c>
+      <c r="BB7" s="111">
+        <f t="shared" si="7"/>
+        <v>7.7519379844963598E-3</v>
+      </c>
+      <c r="BC7" s="193">
+        <f t="shared" si="8"/>
+        <v>-5.9375000000000067E-2</v>
+      </c>
+      <c r="BD7" s="193">
+        <f t="shared" si="9"/>
+        <v>3.8961038961039085E-2</v>
+      </c>
+      <c r="BE7" s="193">
+        <f t="shared" si="10"/>
+        <v>1.5384615384615108E-2</v>
+      </c>
+      <c r="BF7" s="193">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AZ7" s="111">
-        <f>+AC7/AB7-1</f>
-        <v>-2.6548672566371723E-2</v>
-      </c>
-      <c r="BA7" s="111">
-        <f>+AD7/AC7-1</f>
-        <v>-5.1748251748251817E-2</v>
-      </c>
-      <c r="BB7" s="111">
-        <f>+AE7/AD7-1</f>
-        <v>7.7519379844963598E-3</v>
-      </c>
-      <c r="BC7" s="193">
-        <f>+AF7/AE7-1</f>
-        <v>-5.9375000000000067E-2</v>
-      </c>
-      <c r="BD7" s="193">
-        <f>+AG7/AF7-1</f>
-        <v>3.8961038961039085E-2</v>
-      </c>
-      <c r="BE7" s="193">
-        <f>+AH7/AG7-1</f>
-        <v>1.5384615384615108E-2</v>
-      </c>
-      <c r="BF7" s="193">
-        <f>+AI7/AH7-1</f>
-        <v>-1</v>
-      </c>
       <c r="BG7" s="193">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-0.12307692307692275</v>
       </c>
       <c r="BH7" s="194">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>-7.6923076923076983E-2</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
@@ -9865,107 +9890,107 @@
         <v>6.4028026237328568</v>
       </c>
       <c r="AI8" s="209">
+        <v>6.4516129032258061</v>
+      </c>
+      <c r="AJ8" s="154">
+        <f t="shared" ref="AJ8:AK14" si="14">+O8/N8-1</f>
+        <v>-1.2751953991608445E-2</v>
+      </c>
+      <c r="AK8" s="16">
+        <f t="shared" si="14"/>
+        <v>-2.2857142794605712E-2</v>
+      </c>
+      <c r="AL8" s="16">
+        <f t="shared" ref="AL8:AL14" si="15">+Q8/P8-1</f>
+        <v>-6.2200956937799035E-2</v>
+      </c>
+      <c r="AM8" s="16">
+        <f t="shared" ref="AM8:AU14" si="16">+R8/Q8-1</f>
+        <v>-4.3930248155599205E-3</v>
+      </c>
+      <c r="AN8" s="16">
+        <f t="shared" si="16"/>
+        <v>1.8298294469875298E-2</v>
+      </c>
+      <c r="AO8" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.5873015873015817E-2</v>
+      </c>
+      <c r="AP8" s="16">
+        <f t="shared" si="16"/>
+        <v>2.2727272727272041E-3</v>
+      </c>
+      <c r="AQ8" s="16">
+        <f t="shared" si="16"/>
+        <v>4.7619047619047672E-2</v>
+      </c>
+      <c r="AR8" s="16">
+        <f t="shared" si="16"/>
+        <v>6.4999999999999947E-2</v>
+      </c>
+      <c r="AS8" s="16">
+        <f t="shared" si="16"/>
+        <v>4.3296817944705301E-2</v>
+      </c>
+      <c r="AT8" s="16">
+        <f t="shared" si="16"/>
+        <v>-3.5714285714285698E-2</v>
+      </c>
+      <c r="AU8" s="16">
+        <f t="shared" si="16"/>
+        <v>-3.0769230769230771E-2</v>
+      </c>
+      <c r="AV8" s="16">
+        <f t="shared" si="1"/>
+        <v>-1.57896402240294E-2</v>
+      </c>
+      <c r="AW8" s="17">
+        <f t="shared" si="2"/>
+        <v>-1.57896402240294E-2</v>
+      </c>
+      <c r="AX8" s="106">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="AY8" s="111">
+        <f t="shared" si="4"/>
+        <v>-2.5974025974025983E-2</v>
+      </c>
+      <c r="AZ8" s="111">
+        <f t="shared" si="5"/>
+        <v>-2.7210884353741527E-2</v>
+      </c>
+      <c r="BA8" s="111">
+        <f t="shared" si="6"/>
+        <v>-5.7692307692307709E-2</v>
+      </c>
+      <c r="BB8" s="111">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="154">
-        <f t="shared" ref="AJ8:AK14" si="2">+O8/N8-1</f>
-        <v>-1.2751953991608445E-2</v>
-      </c>
-      <c r="AK8" s="16">
-        <f t="shared" si="2"/>
-        <v>-2.2857142794605712E-2</v>
-      </c>
-      <c r="AL8" s="16">
-        <f t="shared" ref="AL8:AL14" si="3">+Q8/P8-1</f>
-        <v>-6.2200956937799035E-2</v>
-      </c>
-      <c r="AM8" s="16">
-        <f t="shared" ref="AM8:AU14" si="4">+R8/Q8-1</f>
-        <v>-4.3930248155599205E-3</v>
-      </c>
-      <c r="AN8" s="16">
-        <f t="shared" si="4"/>
-        <v>1.8298294469875298E-2</v>
-      </c>
-      <c r="AO8" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.5873015873015817E-2</v>
-      </c>
-      <c r="AP8" s="16">
-        <f t="shared" si="4"/>
-        <v>2.2727272727272041E-3</v>
-      </c>
-      <c r="AQ8" s="16">
-        <f t="shared" si="4"/>
-        <v>4.7619047619047672E-2</v>
-      </c>
-      <c r="AR8" s="16">
-        <f t="shared" si="4"/>
-        <v>6.4999999999999947E-2</v>
-      </c>
-      <c r="AS8" s="16">
-        <f t="shared" si="4"/>
-        <v>4.3296817944705301E-2</v>
-      </c>
-      <c r="AT8" s="16">
-        <f t="shared" si="4"/>
-        <v>-3.5714285714285698E-2</v>
-      </c>
-      <c r="AU8" s="16">
-        <f t="shared" si="4"/>
-        <v>-3.0769230769230771E-2</v>
-      </c>
-      <c r="AV8" s="16">
-        <f>+Z8/N8-1</f>
-        <v>-1.57896402240294E-2</v>
-      </c>
-      <c r="AW8" s="17">
-        <f>+Z8/N8-1</f>
-        <v>-1.57896402240294E-2</v>
-      </c>
-      <c r="AX8" s="106">
-        <f>+AA8/Z8-1</f>
-        <v>1.1111111111111072E-2</v>
-      </c>
-      <c r="AY8" s="111">
-        <f>+AB8/AA8-1</f>
-        <v>-2.5974025974025983E-2</v>
-      </c>
-      <c r="AZ8" s="111">
-        <f>+AC8/AB8-1</f>
-        <v>-2.7210884353741527E-2</v>
-      </c>
-      <c r="BA8" s="111">
-        <f>+AD8/AC8-1</f>
-        <v>-5.7692307692307709E-2</v>
-      </c>
-      <c r="BB8" s="111">
-        <f>+AE8/AD8-1</f>
-        <v>0</v>
-      </c>
       <c r="BC8" s="193">
-        <f>+AF8/AE8-1</f>
+        <f t="shared" si="8"/>
         <v>2.5641025641025772E-2</v>
       </c>
       <c r="BD8" s="193">
-        <f>+AG8/AF8-1</f>
+        <f t="shared" si="9"/>
         <v>-2.5000000000000022E-2</v>
       </c>
       <c r="BE8" s="193">
-        <f>+AH8/AG8-1</f>
+        <f t="shared" si="10"/>
         <v>2.4448419797256982E-2</v>
       </c>
       <c r="BF8" s="193">
-        <f>+AI8/AH8-1</f>
-        <v>-1</v>
+        <f t="shared" si="11"/>
+        <v>7.623267865860317E-3</v>
       </c>
       <c r="BG8" s="193">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-6.8100358422939156E-2</v>
       </c>
       <c r="BH8" s="194">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>-9.1322126306224494E-2</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
@@ -10072,107 +10097,107 @@
         <v>7.372837297383775</v>
       </c>
       <c r="AI9" s="209">
+        <v>7.2727272727272716</v>
+      </c>
+      <c r="AJ9" s="154">
+        <f t="shared" si="14"/>
+        <v>-6.6666666666666652E-2</v>
+      </c>
+      <c r="AK9" s="16">
+        <f t="shared" si="14"/>
+        <v>-3.3119658119658002E-2</v>
+      </c>
+      <c r="AL9" s="16">
+        <f t="shared" si="15"/>
+        <v>-5.976896032144674E-2</v>
+      </c>
+      <c r="AM9" s="16">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="154">
+      <c r="AN9" s="16">
+        <f t="shared" si="16"/>
+        <v>2.3936170212766061E-2</v>
+      </c>
+      <c r="AO9" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.6719187675069969E-2</v>
+      </c>
+      <c r="AP9" s="16">
+        <f t="shared" si="16"/>
+        <v>-3.0245068738792624E-2</v>
+      </c>
+      <c r="AQ9" s="16">
+        <f t="shared" si="16"/>
+        <v>5.9171597633136397E-3</v>
+      </c>
+      <c r="AR9" s="16">
+        <f t="shared" si="16"/>
+        <v>3.6000000000000032E-2</v>
+      </c>
+      <c r="AS9" s="16">
+        <f t="shared" si="16"/>
+        <v>8.34942084942083E-2</v>
+      </c>
+      <c r="AT9" s="16">
+        <f t="shared" si="16"/>
+        <v>9.5912062648177976E-3</v>
+      </c>
+      <c r="AU9" s="16">
+        <f t="shared" si="16"/>
+        <v>-2.935420743639916E-2</v>
+      </c>
+      <c r="AV9" s="16">
+        <f t="shared" si="1"/>
+        <v>-8.333333333333337E-2</v>
+      </c>
+      <c r="AW9" s="17">
         <f t="shared" si="2"/>
-        <v>-6.6666666666666652E-2</v>
-      </c>
-      <c r="AK9" s="16">
-        <f t="shared" si="2"/>
-        <v>-3.3119658119658002E-2</v>
-      </c>
-      <c r="AL9" s="16">
+        <v>-8.333333333333337E-2</v>
+      </c>
+      <c r="AX9" s="106">
         <f t="shared" si="3"/>
-        <v>-5.976896032144674E-2</v>
-      </c>
-      <c r="AM9" s="16">
+        <v>3.4090909090909172E-2</v>
+      </c>
+      <c r="AY9" s="111">
         <f t="shared" si="4"/>
+        <v>-2.1862348178137592E-2</v>
+      </c>
+      <c r="AZ9" s="111">
+        <f t="shared" si="5"/>
+        <v>-3.2093734080488989E-2</v>
+      </c>
+      <c r="BA9" s="111">
+        <f t="shared" si="6"/>
+        <v>-5.2083333333333481E-2</v>
+      </c>
+      <c r="BB9" s="111">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="16">
-        <f t="shared" si="4"/>
-        <v>2.3936170212766061E-2</v>
-      </c>
-      <c r="AO9" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.6719187675069969E-2</v>
-      </c>
-      <c r="AP9" s="16">
-        <f t="shared" si="4"/>
-        <v>-3.0245068738792624E-2</v>
-      </c>
-      <c r="AQ9" s="16">
-        <f t="shared" si="4"/>
-        <v>5.9171597633136397E-3</v>
-      </c>
-      <c r="AR9" s="16">
-        <f t="shared" si="4"/>
-        <v>3.6000000000000032E-2</v>
-      </c>
-      <c r="AS9" s="16">
-        <f t="shared" si="4"/>
-        <v>8.34942084942083E-2</v>
-      </c>
-      <c r="AT9" s="16">
-        <f t="shared" si="4"/>
-        <v>9.5912062648177976E-3</v>
-      </c>
-      <c r="AU9" s="16">
-        <f t="shared" si="4"/>
-        <v>-2.935420743639916E-2</v>
-      </c>
-      <c r="AV9" s="16">
-        <f>+Z9/N9-1</f>
-        <v>-8.333333333333337E-2</v>
-      </c>
-      <c r="AW9" s="17">
-        <f>+Z9/N9-1</f>
-        <v>-8.333333333333337E-2</v>
-      </c>
-      <c r="AX9" s="106">
-        <f>+AA9/Z9-1</f>
-        <v>3.4090909090909172E-2</v>
-      </c>
-      <c r="AY9" s="111">
-        <f>+AB9/AA9-1</f>
-        <v>-2.1862348178137592E-2</v>
-      </c>
-      <c r="AZ9" s="111">
-        <f>+AC9/AB9-1</f>
-        <v>-3.2093734080488989E-2</v>
-      </c>
-      <c r="BA9" s="111">
-        <f>+AD9/AC9-1</f>
-        <v>-5.2083333333333481E-2</v>
-      </c>
-      <c r="BB9" s="111">
-        <f>+AE9/AD9-1</f>
-        <v>0</v>
-      </c>
       <c r="BC9" s="193">
-        <f>+AF9/AE9-1</f>
+        <f t="shared" si="8"/>
         <v>5.4945054945054972E-2</v>
       </c>
       <c r="BD9" s="193">
-        <f>+AG9/AF9-1</f>
+        <f t="shared" si="9"/>
         <v>-8.5185185185185253E-2</v>
       </c>
       <c r="BE9" s="193">
-        <f>+AH9/AG9-1</f>
+        <f t="shared" si="10"/>
         <v>4.7718984365062722E-2</v>
       </c>
       <c r="BF9" s="193">
-        <f>+AI9/AH9-1</f>
-        <v>-1</v>
+        <f t="shared" si="11"/>
+        <v>-1.3578222415409513E-2</v>
       </c>
       <c r="BG9" s="193">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-7.4380165289256284E-2</v>
       </c>
       <c r="BH9" s="194">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>-1.7199017199017397E-2</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
@@ -10279,107 +10304,107 @@
         <v>8</v>
       </c>
       <c r="AI10" s="209">
+        <v>8</v>
+      </c>
+      <c r="AJ10" s="154">
+        <f t="shared" si="14"/>
+        <v>-3.2258064500000017E-2</v>
+      </c>
+      <c r="AK10" s="16">
+        <f t="shared" si="14"/>
+        <v>-1.2254901977246768E-2</v>
+      </c>
+      <c r="AL10" s="16">
+        <f t="shared" si="15"/>
+        <v>-0.10329670329670326</v>
+      </c>
+      <c r="AM10" s="16">
+        <f t="shared" si="16"/>
+        <v>-2.7777777777777679E-2</v>
+      </c>
+      <c r="AN10" s="16">
+        <f t="shared" si="16"/>
+        <v>3.1999999999999806E-2</v>
+      </c>
+      <c r="AO10" s="16">
+        <f t="shared" si="16"/>
+        <v>-3.100775193798444E-2</v>
+      </c>
+      <c r="AP10" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.4925373134328401E-2</v>
+      </c>
+      <c r="AQ10" s="16">
+        <f t="shared" si="16"/>
+        <v>4.415584415584406E-2</v>
+      </c>
+      <c r="AR10" s="16">
+        <f t="shared" si="16"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="AS10" s="16">
+        <f t="shared" si="16"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="AT10" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.5384615384615441E-2</v>
+      </c>
+      <c r="AU10" s="16">
+        <f t="shared" si="16"/>
+        <v>-6.9444444444444198E-3</v>
+      </c>
+      <c r="AV10" s="16">
+        <f t="shared" si="1"/>
+        <v>-8.333333333333337E-2</v>
+      </c>
+      <c r="AW10" s="17">
+        <f t="shared" si="2"/>
+        <v>-8.333333333333337E-2</v>
+      </c>
+      <c r="AX10" s="106">
+        <f t="shared" si="3"/>
+        <v>-8.2644628099172168E-3</v>
+      </c>
+      <c r="AY10" s="111">
+        <f t="shared" si="4"/>
+        <v>-5.7142857142857273E-2</v>
+      </c>
+      <c r="AZ10" s="111">
+        <f t="shared" si="5"/>
+        <v>-7.0921985815602939E-3</v>
+      </c>
+      <c r="BA10" s="111">
+        <f t="shared" si="6"/>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="BB10" s="111">
+        <f t="shared" si="7"/>
+        <v>1.0322398190045323E-2</v>
+      </c>
+      <c r="BC10" s="193">
+        <f t="shared" si="8"/>
+        <v>-1.0216934919524245E-2</v>
+      </c>
+      <c r="BD10" s="193">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="154">
-        <f t="shared" si="2"/>
-        <v>-3.2258064500000017E-2</v>
-      </c>
-      <c r="AK10" s="16">
-        <f t="shared" si="2"/>
-        <v>-1.2254901977246768E-2</v>
-      </c>
-      <c r="AL10" s="16">
-        <f t="shared" si="3"/>
-        <v>-0.10329670329670326</v>
-      </c>
-      <c r="AM10" s="16">
-        <f t="shared" si="4"/>
-        <v>-2.7777777777777679E-2</v>
-      </c>
-      <c r="AN10" s="16">
-        <f t="shared" si="4"/>
-        <v>3.1999999999999806E-2</v>
-      </c>
-      <c r="AO10" s="16">
-        <f t="shared" si="4"/>
-        <v>-3.100775193798444E-2</v>
-      </c>
-      <c r="AP10" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.4925373134328401E-2</v>
-      </c>
-      <c r="AQ10" s="16">
-        <f t="shared" si="4"/>
-        <v>4.415584415584406E-2</v>
-      </c>
-      <c r="AR10" s="16">
-        <f t="shared" si="4"/>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="AS10" s="16">
-        <f t="shared" si="4"/>
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="AT10" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.5384615384615441E-2</v>
-      </c>
-      <c r="AU10" s="16">
-        <f t="shared" si="4"/>
-        <v>-6.9444444444444198E-3</v>
-      </c>
-      <c r="AV10" s="16">
-        <f>+Z10/N10-1</f>
-        <v>-8.333333333333337E-2</v>
-      </c>
-      <c r="AW10" s="17">
-        <f>+Z10/N10-1</f>
-        <v>-8.333333333333337E-2</v>
-      </c>
-      <c r="AX10" s="106">
-        <f>+AA10/Z10-1</f>
-        <v>-8.2644628099172168E-3</v>
-      </c>
-      <c r="AY10" s="111">
-        <f>+AB10/AA10-1</f>
-        <v>-5.7142857142857273E-2</v>
-      </c>
-      <c r="AZ10" s="111">
-        <f>+AC10/AB10-1</f>
-        <v>-7.0921985815602939E-3</v>
-      </c>
-      <c r="BA10" s="111">
-        <f>+AD10/AC10-1</f>
-        <v>-5.9999999999999942E-2</v>
-      </c>
-      <c r="BB10" s="111">
-        <f>+AE10/AD10-1</f>
-        <v>1.0322398190045323E-2</v>
-      </c>
-      <c r="BC10" s="193">
-        <f>+AF10/AE10-1</f>
-        <v>-1.0216934919524245E-2</v>
-      </c>
-      <c r="BD10" s="193">
-        <f>+AG10/AF10-1</f>
+      <c r="BE10" s="193">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BE10" s="193">
-        <f>+AH10/AG10-1</f>
+      <c r="BF10" s="193">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BF10" s="193">
-        <f>+AI10/AH10-1</f>
-        <v>-1</v>
-      </c>
       <c r="BG10" s="193">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-0.1272727272727272</v>
       </c>
       <c r="BH10" s="194">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>-8.5714285714285743E-2</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
@@ -10486,107 +10511,107 @@
         <v>10</v>
       </c>
       <c r="AI11" s="209">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="AJ11" s="154">
+        <f t="shared" si="14"/>
+        <v>9.5652173699999787E-2</v>
+      </c>
+      <c r="AK11" s="16">
+        <f t="shared" si="14"/>
+        <v>-0.14814814798251053</v>
+      </c>
+      <c r="AL11" s="16">
+        <f t="shared" si="15"/>
+        <v>-0.10714285714285654</v>
+      </c>
+      <c r="AM11" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.1764705882353454E-2</v>
+      </c>
+      <c r="AN11" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.9230769230769051E-2</v>
+      </c>
+      <c r="AO11" s="16">
+        <f t="shared" si="16"/>
+        <v>-6.1111111111111449E-2</v>
+      </c>
+      <c r="AP11" s="16">
+        <f t="shared" si="16"/>
+        <v>-2.8340080971660075E-2</v>
+      </c>
+      <c r="AQ11" s="16">
+        <f t="shared" si="16"/>
+        <v>7.3913043478261775E-2</v>
+      </c>
+      <c r="AR11" s="16">
+        <f t="shared" si="16"/>
+        <v>-3.846153846156497E-4</v>
+      </c>
+      <c r="AS11" s="16">
+        <f t="shared" si="16"/>
+        <v>4.1124414367516682E-2</v>
+      </c>
+      <c r="AT11" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.5141113653700078E-2</v>
+      </c>
+      <c r="AU11" s="16">
+        <f t="shared" si="16"/>
+        <v>1.9989227362500195E-2</v>
+      </c>
+      <c r="AV11" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.17272727272727284</v>
+      </c>
+      <c r="AW11" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.17272727272727284</v>
+      </c>
+      <c r="AX11" s="106">
+        <f t="shared" si="3"/>
+        <v>-7.6923076923076983E-2</v>
+      </c>
+      <c r="AY11" s="111">
+        <f t="shared" si="4"/>
+        <v>2.4961240310077404E-2</v>
+      </c>
+      <c r="AZ11" s="111">
+        <f t="shared" si="5"/>
+        <v>-1.6222961730449348E-2</v>
+      </c>
+      <c r="BA11" s="111">
+        <f t="shared" si="6"/>
+        <v>-4.3062200956938246E-2</v>
+      </c>
+      <c r="BB11" s="111">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="154">
-        <f t="shared" si="2"/>
-        <v>9.5652173699999787E-2</v>
-      </c>
-      <c r="AK11" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.14814814798251053</v>
-      </c>
-      <c r="AL11" s="16">
-        <f t="shared" si="3"/>
-        <v>-0.10714285714285654</v>
-      </c>
-      <c r="AM11" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.1764705882353454E-2</v>
-      </c>
-      <c r="AN11" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.9230769230769051E-2</v>
-      </c>
-      <c r="AO11" s="16">
-        <f t="shared" si="4"/>
-        <v>-6.1111111111111449E-2</v>
-      </c>
-      <c r="AP11" s="16">
-        <f t="shared" si="4"/>
-        <v>-2.8340080971660075E-2</v>
-      </c>
-      <c r="AQ11" s="16">
-        <f t="shared" si="4"/>
-        <v>7.3913043478261775E-2</v>
-      </c>
-      <c r="AR11" s="16">
-        <f t="shared" si="4"/>
-        <v>-3.846153846156497E-4</v>
-      </c>
-      <c r="AS11" s="16">
-        <f t="shared" si="4"/>
-        <v>4.1124414367516682E-2</v>
-      </c>
-      <c r="AT11" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.5141113653700078E-2</v>
-      </c>
-      <c r="AU11" s="16">
-        <f t="shared" si="4"/>
-        <v>1.9989227362500195E-2</v>
-      </c>
-      <c r="AV11" s="16">
-        <f>+Z11/N11-1</f>
-        <v>-0.17272727272727284</v>
-      </c>
-      <c r="AW11" s="17">
-        <f>+Z11/N11-1</f>
-        <v>-0.17272727272727284</v>
-      </c>
-      <c r="AX11" s="106">
-        <f>+AA11/Z11-1</f>
-        <v>-7.6923076923076983E-2</v>
-      </c>
-      <c r="AY11" s="111">
-        <f>+AB11/AA11-1</f>
-        <v>2.4961240310077404E-2</v>
-      </c>
-      <c r="AZ11" s="111">
-        <f>+AC11/AB11-1</f>
-        <v>-1.6222961730449348E-2</v>
-      </c>
-      <c r="BA11" s="111">
-        <f>+AD11/AC11-1</f>
-        <v>-4.3062200956938246E-2</v>
-      </c>
-      <c r="BB11" s="111">
-        <f>+AE11/AD11-1</f>
-        <v>0</v>
-      </c>
       <c r="BC11" s="193">
-        <f>+AF11/AE11-1</f>
+        <f t="shared" si="8"/>
         <v>-4.99999999999996E-2</v>
       </c>
       <c r="BD11" s="193">
-        <f>+AG11/AF11-1</f>
+        <f t="shared" si="9"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="BE11" s="193">
-        <f>+AH11/AG11-1</f>
+        <f t="shared" si="10"/>
         <v>-3.8461538461538547E-2</v>
       </c>
       <c r="BF11" s="193">
-        <f>+AI11/AH11-1</f>
-        <v>-1</v>
+        <f t="shared" si="11"/>
+        <v>7.1428571428570953E-2</v>
       </c>
       <c r="BG11" s="193">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-9.3406593406593963E-2</v>
       </c>
       <c r="BH11" s="194">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>-5.1833122629583284E-2</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
@@ -10693,107 +10718,107 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="AI12" s="209">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AJ12" s="154">
+        <f t="shared" si="14"/>
+        <v>-7.1428571428571508E-2</v>
+      </c>
+      <c r="AK12" s="16">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="154">
+      <c r="AL12" s="16">
+        <f t="shared" si="15"/>
+        <v>-7.6923076923076983E-2</v>
+      </c>
+      <c r="AM12" s="16">
+        <f t="shared" si="16"/>
+        <v>-3.2738095238095122E-2</v>
+      </c>
+      <c r="AN12" s="16">
+        <f t="shared" si="16"/>
+        <v>4.5333333333333448E-2</v>
+      </c>
+      <c r="AO12" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.6034985422740511E-2</v>
+      </c>
+      <c r="AP12" s="16">
+        <f t="shared" si="16"/>
+        <v>6.3856960408670282E-4</v>
+      </c>
+      <c r="AQ12" s="16">
+        <f t="shared" si="16"/>
+        <v>7.5870382188187868E-3</v>
+      </c>
+      <c r="AR12" s="16">
+        <f t="shared" si="16"/>
+        <v>-2.1590909090908883E-2</v>
+      </c>
+      <c r="AS12" s="16">
+        <f t="shared" si="16"/>
+        <v>9.6985398438616421E-2</v>
+      </c>
+      <c r="AT12" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.260744687528903E-2</v>
+      </c>
+      <c r="AU12" s="16">
+        <f t="shared" si="16"/>
+        <v>-3.5995853123417687E-2</v>
+      </c>
+      <c r="AV12" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.12162162162162171</v>
+      </c>
+      <c r="AW12" s="17">
         <f t="shared" si="2"/>
-        <v>-7.1428571428571508E-2</v>
-      </c>
-      <c r="AK12" s="16">
-        <f t="shared" si="2"/>
+        <v>-0.12162162162162171</v>
+      </c>
+      <c r="AX12" s="106">
+        <f t="shared" si="3"/>
+        <v>-3.0952380952381064E-2</v>
+      </c>
+      <c r="AY12" s="111">
+        <f t="shared" si="4"/>
+        <v>-2.3066485753052923E-2</v>
+      </c>
+      <c r="AZ12" s="111">
+        <f t="shared" si="5"/>
+        <v>-1.7333333333333201E-2</v>
+      </c>
+      <c r="BA12" s="111">
+        <f t="shared" si="6"/>
+        <v>-2.5974025974026094E-2</v>
+      </c>
+      <c r="BB12" s="111">
+        <f t="shared" si="7"/>
+        <v>1.4492753623188026E-2</v>
+      </c>
+      <c r="BC12" s="193">
+        <f t="shared" si="8"/>
+        <v>-3.1578947368420707E-2</v>
+      </c>
+      <c r="BD12" s="193">
+        <f t="shared" si="9"/>
+        <v>-2.8409090909090828E-2</v>
+      </c>
+      <c r="BE12" s="193">
+        <f t="shared" si="10"/>
+        <v>1.8518518518518601E-2</v>
+      </c>
+      <c r="BF12" s="193">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="16">
-        <f t="shared" si="3"/>
-        <v>-7.6923076923076983E-2</v>
-      </c>
-      <c r="AM12" s="16">
-        <f t="shared" si="4"/>
-        <v>-3.2738095238095122E-2</v>
-      </c>
-      <c r="AN12" s="16">
-        <f t="shared" si="4"/>
-        <v>4.5333333333333448E-2</v>
-      </c>
-      <c r="AO12" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.6034985422740511E-2</v>
-      </c>
-      <c r="AP12" s="16">
-        <f t="shared" si="4"/>
-        <v>6.3856960408670282E-4</v>
-      </c>
-      <c r="AQ12" s="16">
-        <f t="shared" si="4"/>
-        <v>7.5870382188187868E-3</v>
-      </c>
-      <c r="AR12" s="16">
-        <f t="shared" si="4"/>
-        <v>-2.1590909090908883E-2</v>
-      </c>
-      <c r="AS12" s="16">
-        <f t="shared" si="4"/>
-        <v>9.6985398438616421E-2</v>
-      </c>
-      <c r="AT12" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.260744687528903E-2</v>
-      </c>
-      <c r="AU12" s="16">
-        <f t="shared" si="4"/>
-        <v>-3.5995853123417687E-2</v>
-      </c>
-      <c r="AV12" s="16">
-        <f>+Z12/N12-1</f>
-        <v>-0.12162162162162171</v>
-      </c>
-      <c r="AW12" s="17">
-        <f>+Z12/N12-1</f>
-        <v>-0.12162162162162171</v>
-      </c>
-      <c r="AX12" s="106">
-        <f>+AA12/Z12-1</f>
-        <v>-3.0952380952381064E-2</v>
-      </c>
-      <c r="AY12" s="111">
-        <f>+AB12/AA12-1</f>
-        <v>-2.3066485753052923E-2</v>
-      </c>
-      <c r="AZ12" s="111">
-        <f>+AC12/AB12-1</f>
-        <v>-1.7333333333333201E-2</v>
-      </c>
-      <c r="BA12" s="111">
-        <f>+AD12/AC12-1</f>
-        <v>-2.5974025974026094E-2</v>
-      </c>
-      <c r="BB12" s="111">
-        <f>+AE12/AD12-1</f>
-        <v>1.4492753623188026E-2</v>
-      </c>
-      <c r="BC12" s="193">
-        <f>+AF12/AE12-1</f>
-        <v>-3.1578947368420707E-2</v>
-      </c>
-      <c r="BD12" s="193">
-        <f>+AG12/AF12-1</f>
-        <v>-2.8409090909090828E-2</v>
-      </c>
-      <c r="BE12" s="193">
-        <f>+AH12/AG12-1</f>
-        <v>1.8518518518518601E-2</v>
-      </c>
-      <c r="BF12" s="193">
-        <f>+AI12/AH12-1</f>
-        <v>-1</v>
-      </c>
       <c r="BG12" s="193">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-0.11904761904761896</v>
       </c>
       <c r="BH12" s="194">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>-8.013937282229977E-2</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
@@ -10900,107 +10925,107 @@
         <v>9.375</v>
       </c>
       <c r="AI13" s="209">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="154">
+        <f t="shared" si="14"/>
+        <v>-2.2624434584615716E-2</v>
+      </c>
+      <c r="AK13" s="16">
+        <f t="shared" si="14"/>
+        <v>2.0000000204000168E-2</v>
+      </c>
+      <c r="AL13" s="16">
+        <f t="shared" si="15"/>
+        <v>-1.9607843137254943E-2</v>
+      </c>
+      <c r="AM13" s="16">
+        <f t="shared" si="16"/>
+        <v>-4.3749999999999956E-2</v>
+      </c>
+      <c r="AN13" s="16">
+        <f t="shared" si="16"/>
+        <v>7.407407407407085E-3</v>
+      </c>
+      <c r="AO13" s="16">
+        <f t="shared" si="16"/>
+        <v>-3.7433155080213609E-2</v>
+      </c>
+      <c r="AP13" s="16">
+        <f t="shared" si="16"/>
+        <v>-2.2222222222222032E-2</v>
+      </c>
+      <c r="AQ13" s="16">
+        <f t="shared" si="16"/>
+        <v>3.1249999999999778E-2</v>
+      </c>
+      <c r="AR13" s="16">
+        <f t="shared" si="16"/>
+        <v>2.2727272727272707E-2</v>
+      </c>
+      <c r="AS13" s="16">
+        <f t="shared" si="16"/>
+        <v>-5.4115387972417661E-3</v>
+      </c>
+      <c r="AT13" s="16">
+        <f t="shared" si="16"/>
+        <v>-2.5026925685109114E-2</v>
+      </c>
+      <c r="AU13" s="16">
+        <f t="shared" si="16"/>
+        <v>-1.2820512820512886E-2</v>
+      </c>
+      <c r="AV13" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.10532544378698239</v>
+      </c>
+      <c r="AW13" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.10532544378698239</v>
+      </c>
+      <c r="AX13" s="106">
+        <f t="shared" si="3"/>
+        <v>-1.680672268907546E-2</v>
+      </c>
+      <c r="AY13" s="111">
+        <f t="shared" si="4"/>
+        <v>-1.8268398268398989E-2</v>
+      </c>
+      <c r="AZ13" s="111">
+        <f t="shared" si="5"/>
+        <v>-1.8740629685157106E-2</v>
+      </c>
+      <c r="BA13" s="111">
+        <f t="shared" si="6"/>
+        <v>-1.9607843137254832E-2</v>
+      </c>
+      <c r="BB13" s="111">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="154">
-        <f t="shared" si="2"/>
-        <v>-2.2624434584615716E-2</v>
-      </c>
-      <c r="AK13" s="16">
-        <f t="shared" si="2"/>
-        <v>2.0000000204000168E-2</v>
-      </c>
-      <c r="AL13" s="16">
-        <f t="shared" si="3"/>
-        <v>-1.9607843137254943E-2</v>
-      </c>
-      <c r="AM13" s="16">
-        <f t="shared" si="4"/>
-        <v>-4.3749999999999956E-2</v>
-      </c>
-      <c r="AN13" s="16">
-        <f t="shared" si="4"/>
-        <v>7.407407407407085E-3</v>
-      </c>
-      <c r="AO13" s="16">
-        <f t="shared" si="4"/>
-        <v>-3.7433155080213609E-2</v>
-      </c>
-      <c r="AP13" s="16">
-        <f t="shared" si="4"/>
-        <v>-2.2222222222222032E-2</v>
-      </c>
-      <c r="AQ13" s="16">
-        <f t="shared" si="4"/>
-        <v>3.1249999999999778E-2</v>
-      </c>
-      <c r="AR13" s="16">
-        <f t="shared" si="4"/>
-        <v>2.2727272727272707E-2</v>
-      </c>
-      <c r="AS13" s="16">
-        <f t="shared" si="4"/>
-        <v>-5.4115387972417661E-3</v>
-      </c>
-      <c r="AT13" s="16">
-        <f t="shared" si="4"/>
-        <v>-2.5026925685109114E-2</v>
-      </c>
-      <c r="AU13" s="16">
-        <f t="shared" si="4"/>
-        <v>-1.2820512820512886E-2</v>
-      </c>
-      <c r="AV13" s="16">
-        <f>+Z13/N13-1</f>
-        <v>-0.10532544378698239</v>
-      </c>
-      <c r="AW13" s="17">
-        <f>+Z13/N13-1</f>
-        <v>-0.10532544378698239</v>
-      </c>
-      <c r="AX13" s="106">
-        <f>+AA13/Z13-1</f>
-        <v>-1.680672268907546E-2</v>
-      </c>
-      <c r="AY13" s="111">
-        <f>+AB13/AA13-1</f>
-        <v>-1.8268398268398989E-2</v>
-      </c>
-      <c r="AZ13" s="111">
-        <f>+AC13/AB13-1</f>
-        <v>-1.8740629685157106E-2</v>
-      </c>
-      <c r="BA13" s="111">
-        <f>+AD13/AC13-1</f>
-        <v>-1.9607843137254832E-2</v>
-      </c>
-      <c r="BB13" s="111">
-        <f>+AE13/AD13-1</f>
+      <c r="BC13" s="193">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BC13" s="193">
-        <f>+AF13/AE13-1</f>
+      <c r="BD13" s="193">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BD13" s="193">
-        <f>+AG13/AF13-1</f>
-        <v>0</v>
-      </c>
       <c r="BE13" s="193">
-        <f>+AH13/AG13-1</f>
+        <f t="shared" si="10"/>
         <v>-6.25E-2</v>
       </c>
       <c r="BF13" s="193">
-        <f>+AI13/AH13-1</f>
-        <v>-1</v>
+        <f t="shared" si="11"/>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="BG13" s="193">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-7.1428571428571508E-2</v>
       </c>
       <c r="BH13" s="194">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>-0.11111111111111116</v>
       </c>
     </row>
     <row r="14" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11107,114 +11132,114 @@
         <v>8.0882352941176467</v>
       </c>
       <c r="AI14" s="210">
+        <v>8.0882352941176467</v>
+      </c>
+      <c r="AJ14" s="156">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="156">
+      <c r="AK14" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="18">
+        <f t="shared" si="15"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="AM14" s="18">
+        <f t="shared" si="16"/>
+        <v>-5.1851851851851816E-2</v>
+      </c>
+      <c r="AN14" s="18">
+        <f t="shared" si="16"/>
+        <v>3.3717105263157743E-2</v>
+      </c>
+      <c r="AO14" s="18">
+        <f t="shared" si="16"/>
+        <v>-2.3866348448687846E-3</v>
+      </c>
+      <c r="AP14" s="18">
+        <f t="shared" si="16"/>
+        <v>2.3923444976077235E-3</v>
+      </c>
+      <c r="AQ14" s="18">
+        <f t="shared" si="16"/>
+        <v>1.575178997613369E-2</v>
+      </c>
+      <c r="AR14" s="18">
+        <f t="shared" si="16"/>
+        <v>3.3834586466165328E-2</v>
+      </c>
+      <c r="AS14" s="18">
+        <f t="shared" si="16"/>
+        <v>2.1050670640834657E-2</v>
+      </c>
+      <c r="AT14" s="18">
+        <f t="shared" si="16"/>
+        <v>-1.4505718908767062E-2</v>
+      </c>
+      <c r="AU14" s="18">
+        <f t="shared" si="16"/>
+        <v>-2.7281492325702983E-2</v>
+      </c>
+      <c r="AV14" s="18">
+        <f t="shared" si="1"/>
+        <v>-5.555555555555558E-2</v>
+      </c>
+      <c r="AW14" s="19">
         <f t="shared" si="2"/>
+        <v>-5.555555555555558E-2</v>
+      </c>
+      <c r="AX14" s="106">
+        <f t="shared" si="3"/>
+        <v>-1.1764705882352899E-2</v>
+      </c>
+      <c r="AY14" s="111">
+        <f t="shared" si="4"/>
+        <v>-6.2500000000000111E-2</v>
+      </c>
+      <c r="AZ14" s="111">
+        <f t="shared" si="5"/>
+        <v>-3.8796992481203052E-2</v>
+      </c>
+      <c r="BA14" s="111">
+        <f t="shared" si="6"/>
+        <v>-6.5796531378508938E-2</v>
+      </c>
+      <c r="BB14" s="111">
+        <f t="shared" si="7"/>
+        <v>2.9013539651837617E-2</v>
+      </c>
+      <c r="BC14" s="193">
+        <f t="shared" si="8"/>
+        <v>-1.0526315789473717E-2</v>
+      </c>
+      <c r="BD14" s="193">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="18">
-        <f t="shared" si="2"/>
+      <c r="BE14" s="193">
+        <f t="shared" si="10"/>
+        <v>1.1029411764705843E-2</v>
+      </c>
+      <c r="BF14" s="193">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="18">
-        <f t="shared" si="3"/>
-        <v>-6.25E-2</v>
-      </c>
-      <c r="AM14" s="18">
-        <f t="shared" si="4"/>
-        <v>-5.1851851851851816E-2</v>
-      </c>
-      <c r="AN14" s="18">
-        <f t="shared" si="4"/>
-        <v>3.3717105263157743E-2</v>
-      </c>
-      <c r="AO14" s="18">
-        <f t="shared" si="4"/>
-        <v>-2.3866348448687846E-3</v>
-      </c>
-      <c r="AP14" s="18">
-        <f t="shared" si="4"/>
-        <v>2.3923444976077235E-3</v>
-      </c>
-      <c r="AQ14" s="18">
-        <f t="shared" si="4"/>
-        <v>1.575178997613369E-2</v>
-      </c>
-      <c r="AR14" s="18">
-        <f t="shared" si="4"/>
-        <v>3.3834586466165328E-2</v>
-      </c>
-      <c r="AS14" s="18">
-        <f t="shared" si="4"/>
-        <v>2.1050670640834657E-2</v>
-      </c>
-      <c r="AT14" s="18">
-        <f t="shared" si="4"/>
-        <v>-1.4505718908767062E-2</v>
-      </c>
-      <c r="AU14" s="18">
-        <f t="shared" si="4"/>
-        <v>-2.7281492325702983E-2</v>
-      </c>
-      <c r="AV14" s="18">
-        <f>+Z14/N14-1</f>
-        <v>-5.555555555555558E-2</v>
-      </c>
-      <c r="AW14" s="19">
-        <f>+Z14/N14-1</f>
-        <v>-5.555555555555558E-2</v>
-      </c>
-      <c r="AX14" s="106">
-        <f>+AA14/Z14-1</f>
-        <v>-1.1764705882352899E-2</v>
-      </c>
-      <c r="AY14" s="111">
-        <f>+AB14/AA14-1</f>
-        <v>-6.2500000000000111E-2</v>
-      </c>
-      <c r="AZ14" s="111">
-        <f>+AC14/AB14-1</f>
-        <v>-3.8796992481203052E-2</v>
-      </c>
-      <c r="BA14" s="111">
-        <f>+AD14/AC14-1</f>
-        <v>-6.5796531378508938E-2</v>
-      </c>
-      <c r="BB14" s="111">
-        <f>+AE14/AD14-1</f>
-        <v>2.9013539651837617E-2</v>
-      </c>
-      <c r="BC14" s="193">
-        <f>+AF14/AE14-1</f>
-        <v>-1.0526315789473717E-2</v>
-      </c>
-      <c r="BD14" s="193">
-        <f>+AG14/AF14-1</f>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="193">
-        <f>+AH14/AG14-1</f>
-        <v>1.1029411764705843E-2</v>
-      </c>
-      <c r="BF14" s="193">
-        <f>+AI14/AH14-1</f>
-        <v>-1</v>
-      </c>
       <c r="BG14" s="193">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="12"/>
+        <v>-0.14359861591695511</v>
       </c>
       <c r="BH14" s="194">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="13"/>
+        <v>-0.16176470588235303</v>
       </c>
     </row>
     <row r="15" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="229"/>
+      <c r="B15" s="233"/>
       <c r="C15" s="47">
         <f>AVERAGE(C4:C14)</f>
         <v>8.0843345048625608</v>
@@ -11324,108 +11349,109 @@
         <f>+AVERAGE(AH4:AH14)</f>
         <v>8.2517858587275921</v>
       </c>
-      <c r="AI15" s="211">
-        <v>0</v>
+      <c r="AI15" s="183">
+        <f>+AVERAGE(AI4:AI14)</f>
+        <v>8.3361460658532298</v>
       </c>
       <c r="AJ15" s="65">
         <f>+O15/N15-1</f>
         <v>-1.4367530119206107E-2</v>
       </c>
       <c r="AK15" s="36">
-        <f t="shared" ref="AK15:AO15" si="5">+P15/O15-1</f>
+        <f t="shared" ref="AK15:AO15" si="17">+P15/O15-1</f>
         <v>-2.301187165417784E-2</v>
       </c>
       <c r="AL15" s="36">
+        <f t="shared" si="17"/>
+        <v>-6.9834107732411277E-2</v>
+      </c>
+      <c r="AM15" s="36">
+        <f t="shared" si="17"/>
+        <v>-2.8148922140721733E-2</v>
+      </c>
+      <c r="AN15" s="36">
+        <f t="shared" si="17"/>
+        <v>9.2756831926090744E-3</v>
+      </c>
+      <c r="AO15" s="36">
+        <f t="shared" si="17"/>
+        <v>-2.4286673270471293E-2</v>
+      </c>
+      <c r="AP15" s="36">
+        <f t="shared" ref="AP15:AU15" si="18">+U15/T15-1</f>
+        <v>-6.6826533117935183E-3</v>
+      </c>
+      <c r="AQ15" s="36">
+        <f t="shared" si="18"/>
+        <v>2.0321975711371065E-2</v>
+      </c>
+      <c r="AR15" s="36">
+        <f t="shared" si="18"/>
+        <v>2.2471910112359383E-2</v>
+      </c>
+      <c r="AS15" s="36">
+        <f t="shared" si="18"/>
+        <v>4.3956043956044022E-2</v>
+      </c>
+      <c r="AT15" s="36">
+        <f t="shared" si="18"/>
+        <v>-2.1052631578947323E-2</v>
+      </c>
+      <c r="AU15" s="36">
+        <f t="shared" si="18"/>
+        <v>-1.0752688172043112E-2</v>
+      </c>
+      <c r="AV15" s="36">
+        <f t="shared" si="1"/>
+        <v>-0.10191064750313528</v>
+      </c>
+      <c r="AW15" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.10191064750313528</v>
+      </c>
+      <c r="AX15" s="108">
+        <f t="shared" si="3"/>
+        <v>-2.1739130434782483E-2</v>
+      </c>
+      <c r="AY15" s="112">
+        <f t="shared" si="4"/>
+        <v>-1.1111111111111072E-2</v>
+      </c>
+      <c r="AZ15" s="112">
         <f t="shared" si="5"/>
-        <v>-6.9834107732411277E-2</v>
-      </c>
-      <c r="AM15" s="36">
-        <f t="shared" si="5"/>
-        <v>-2.8148922140721733E-2</v>
-      </c>
-      <c r="AN15" s="36">
-        <f t="shared" si="5"/>
-        <v>9.2756831926090744E-3</v>
-      </c>
-      <c r="AO15" s="36">
-        <f t="shared" si="5"/>
-        <v>-2.4286673270471293E-2</v>
-      </c>
-      <c r="AP15" s="36">
-        <f t="shared" ref="AP15:AU15" si="6">+U15/T15-1</f>
-        <v>-6.6826533117935183E-3</v>
-      </c>
-      <c r="AQ15" s="36">
+        <v>-2.2471910112359716E-2</v>
+      </c>
+      <c r="BA15" s="112">
         <f t="shared" si="6"/>
-        <v>2.0321975711371065E-2</v>
-      </c>
-      <c r="AR15" s="36">
-        <f t="shared" si="6"/>
-        <v>2.2471910112359383E-2</v>
-      </c>
-      <c r="AS15" s="36">
-        <f t="shared" si="6"/>
-        <v>4.3956043956044022E-2</v>
-      </c>
-      <c r="AT15" s="36">
-        <f t="shared" si="6"/>
-        <v>-2.1052631578947323E-2</v>
-      </c>
-      <c r="AU15" s="36">
-        <f t="shared" si="6"/>
-        <v>-1.0752688172043112E-2</v>
-      </c>
-      <c r="AV15" s="36">
-        <f>+Z15/N15-1</f>
-        <v>-0.10191064750313528</v>
-      </c>
-      <c r="AW15" s="37">
-        <f>+Z15/N15-1</f>
-        <v>-0.10191064750313528</v>
-      </c>
-      <c r="AX15" s="108">
-        <f>+AA15/Z15-1</f>
-        <v>-2.1739130434782483E-2</v>
-      </c>
-      <c r="AY15" s="112">
-        <f>+AB15/AA15-1</f>
-        <v>-1.1111111111111072E-2</v>
-      </c>
-      <c r="AZ15" s="112">
-        <f>+AC15/AB15-1</f>
-        <v>-2.2471910112359716E-2</v>
-      </c>
-      <c r="BA15" s="112">
-        <f>+AD15/AC15-1</f>
         <v>-4.5977011494252706E-2</v>
       </c>
       <c r="BB15" s="112">
-        <f>+AE15/AD15-1</f>
+        <f t="shared" si="7"/>
         <v>1.2048192771084265E-2</v>
       </c>
       <c r="BC15" s="195">
-        <f>+AF15/AE15-1</f>
+        <f t="shared" si="8"/>
         <v>-1.1904761904761862E-2</v>
       </c>
       <c r="BD15" s="195">
-        <f>+AG15/AF15-1</f>
+        <f t="shared" si="9"/>
         <v>-5.5728355981291555E-3</v>
       </c>
       <c r="BE15" s="195">
-        <f>+AH15/AG15-1</f>
+        <f t="shared" si="10"/>
         <v>-2.374201889744354E-4</v>
       </c>
       <c r="BF15" s="195">
-        <f>+AI15/AH15-1</f>
-        <v>-1</v>
+        <f t="shared" si="11"/>
+        <v>1.0223266644324491E-2</v>
       </c>
       <c r="BG15" s="195">
         <f>+AI15/Z15-1</f>
-        <v>-1</v>
+        <v>-9.3897166755083639E-2</v>
       </c>
       <c r="BH15" s="196">
         <f>+AI15/W15-1</f>
-        <v>-1</v>
+        <v>-8.3939992763381266E-2</v>
       </c>
     </row>
   </sheetData>

--- a/2024_09_housing_prices.xlsx
+++ b/2024_09_housing_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.khamidov\Documents\09_september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64825C-88C2-493F-8246-F49D4803634B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D062C02B-9988-4463-983D-6CA2C1890A79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0A68128-6003-4809-9CD7-322F14E0A5F8}"/>
+    <workbookView xWindow="11595" yWindow="2895" windowWidth="14385" windowHeight="11445" xr2:uid="{F0A68128-6003-4809-9CD7-322F14E0A5F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Регион_динамика_цен" sheetId="31" r:id="rId1"/>
@@ -1549,9 +1549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="2" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1611,9 +1608,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="2" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1621,9 +1615,6 @@
     <xf numFmtId="167" fontId="6" fillId="3" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1656,9 +1647,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,6 +1815,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2165,11 +2165,11 @@
   <dimension ref="A1:BJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BF4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="BM18" sqref="BM18"/>
+      <selection pane="bottomRight" activeCell="BH4" sqref="BH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2192,82 +2192,82 @@
   <sheetData>
     <row r="1" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:62" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="226">
+      <c r="C2" s="216"/>
+      <c r="D2" s="222">
         <v>2022</v>
       </c>
-      <c r="E2" s="227"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="230">
+      <c r="E2" s="223"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="226">
         <v>2023</v>
       </c>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231"/>
-      <c r="X2" s="231"/>
-      <c r="Y2" s="231"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="233"/>
-      <c r="AB2" s="230">
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="227"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="227"/>
+      <c r="V2" s="227"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="227"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="229"/>
+      <c r="AB2" s="226">
         <v>2024</v>
       </c>
-      <c r="AC2" s="231"/>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="233"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="164"/>
-      <c r="AJ2" s="164"/>
-      <c r="AK2" s="230" t="s">
+      <c r="AC2" s="227"/>
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="229"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="163"/>
+      <c r="AJ2" s="163"/>
+      <c r="AK2" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="231"/>
-      <c r="AM2" s="231"/>
-      <c r="AN2" s="231"/>
-      <c r="AO2" s="231"/>
-      <c r="AP2" s="231"/>
-      <c r="AQ2" s="231"/>
-      <c r="AR2" s="231"/>
-      <c r="AS2" s="231"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="232"/>
-      <c r="AV2" s="232"/>
-      <c r="AW2" s="231"/>
-      <c r="AX2" s="233"/>
-      <c r="AY2" s="216" t="s">
+      <c r="AL2" s="227"/>
+      <c r="AM2" s="227"/>
+      <c r="AN2" s="227"/>
+      <c r="AO2" s="227"/>
+      <c r="AP2" s="227"/>
+      <c r="AQ2" s="227"/>
+      <c r="AR2" s="227"/>
+      <c r="AS2" s="227"/>
+      <c r="AT2" s="228"/>
+      <c r="AU2" s="228"/>
+      <c r="AV2" s="228"/>
+      <c r="AW2" s="227"/>
+      <c r="AX2" s="229"/>
+      <c r="AY2" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="AZ2" s="217"/>
-      <c r="BA2" s="217"/>
-      <c r="BB2" s="217"/>
-      <c r="BC2" s="217"/>
-      <c r="BD2" s="217"/>
-      <c r="BE2" s="217"/>
-      <c r="BF2" s="217"/>
-      <c r="BG2" s="217"/>
-      <c r="BH2" s="217"/>
-      <c r="BI2" s="218"/>
+      <c r="AZ2" s="213"/>
+      <c r="BA2" s="213"/>
+      <c r="BB2" s="213"/>
+      <c r="BC2" s="213"/>
+      <c r="BD2" s="213"/>
+      <c r="BE2" s="213"/>
+      <c r="BF2" s="213"/>
+      <c r="BG2" s="213"/>
+      <c r="BH2" s="213"/>
+      <c r="BI2" s="214"/>
     </row>
     <row r="3" spans="1:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="221"/>
-      <c r="C3" s="222"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="218"/>
       <c r="D3" s="69" t="s">
         <v>0</v>
       </c>
@@ -2352,19 +2352,19 @@
       <c r="AE3" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="AF3" s="169" t="s">
+      <c r="AF3" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="172" t="s">
+      <c r="AG3" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="201" t="s">
+      <c r="AH3" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="205" t="s">
+      <c r="AI3" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="AJ3" s="205" t="s">
+      <c r="AJ3" s="201" t="s">
         <v>94</v>
       </c>
       <c r="AK3" s="83" t="s">
@@ -2412,16 +2412,16 @@
       <c r="AY3" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="AZ3" s="163" t="s">
+      <c r="AZ3" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="BA3" s="163" t="s">
+      <c r="BA3" s="162" t="s">
         <v>86</v>
       </c>
       <c r="BB3" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="BC3" s="168" t="s">
+      <c r="BC3" s="167" t="s">
         <v>89</v>
       </c>
       <c r="BD3" s="133" t="s">
@@ -2430,13 +2430,13 @@
       <c r="BE3" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="BF3" s="163" t="s">
+      <c r="BF3" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="BG3" s="163" t="s">
+      <c r="BG3" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="BH3" s="202" t="s">
+      <c r="BH3" s="199" t="s">
         <v>103</v>
       </c>
       <c r="BI3" s="100" t="s">
@@ -2537,20 +2537,20 @@
       <c r="AE4" s="151">
         <v>545.45454545454504</v>
       </c>
-      <c r="AF4" s="170">
+      <c r="AF4" s="169">
         <v>571.42857142857144</v>
       </c>
-      <c r="AG4" s="200">
+      <c r="AG4" s="197">
         <v>541.47727272727252</v>
       </c>
       <c r="AH4" s="143">
         <v>543.51851851851802</v>
       </c>
-      <c r="AI4" s="197">
+      <c r="AI4" s="194">
         <v>562.5</v>
       </c>
-      <c r="AJ4" s="197">
-        <v>523.63636363636294</v>
+      <c r="AJ4" s="211">
+        <v>536</v>
       </c>
       <c r="AK4" s="87">
         <f t="shared" ref="AK4:AK17" si="0">+P4/O4-1</f>
@@ -2642,15 +2642,15 @@
       </c>
       <c r="BG4" s="119">
         <f t="shared" si="14"/>
-        <v>-6.9090909090910313E-2</v>
+        <v>-4.7111111111111104E-2</v>
       </c>
       <c r="BH4" s="119">
         <f>+AJ4/AA4-1</f>
-        <v>-3.6655052264809584E-2</v>
+        <v>-1.390940766550508E-2</v>
       </c>
       <c r="BI4" s="120">
         <f>+AJ4/X4-1</f>
-        <v>-1.2006861063466157E-2</v>
+        <v>1.132075471698113E-2</v>
       </c>
       <c r="BJ4" s="15"/>
     </row>
@@ -2748,19 +2748,19 @@
       <c r="AE5" s="151">
         <v>522.38805970149258</v>
       </c>
-      <c r="AF5" s="171">
+      <c r="AF5" s="170">
         <v>531.25</v>
       </c>
-      <c r="AG5" s="197">
+      <c r="AG5" s="194">
         <v>527.02922077922085</v>
       </c>
       <c r="AH5" s="143">
         <v>535.71428571428567</v>
       </c>
-      <c r="AI5" s="197">
+      <c r="AI5" s="194">
         <v>537.77777777777783</v>
       </c>
-      <c r="AJ5" s="197">
+      <c r="AJ5" s="194">
         <v>546.51162790697674</v>
       </c>
       <c r="AK5" s="44">
@@ -2959,19 +2959,19 @@
       <c r="AE6" s="151">
         <v>375</v>
       </c>
-      <c r="AF6" s="171">
+      <c r="AF6" s="170">
         <v>387.62755102040802</v>
       </c>
-      <c r="AG6" s="197">
+      <c r="AG6" s="194">
         <v>398.63013698630141</v>
       </c>
       <c r="AH6" s="143">
         <v>386.3095238095238</v>
       </c>
-      <c r="AI6" s="197">
+      <c r="AI6" s="194">
         <v>395.6521739130435</v>
       </c>
-      <c r="AJ6" s="197">
+      <c r="AJ6" s="194">
         <v>416.65277777777783</v>
       </c>
       <c r="AK6" s="44">
@@ -3170,19 +3170,19 @@
       <c r="AE7" s="151">
         <v>385.71428571428572</v>
       </c>
-      <c r="AF7" s="171">
+      <c r="AF7" s="170">
         <v>385.71428571428572</v>
       </c>
-      <c r="AG7" s="197">
+      <c r="AG7" s="194">
         <v>400</v>
       </c>
       <c r="AH7" s="143">
         <v>384.52380952380952</v>
       </c>
-      <c r="AI7" s="197">
+      <c r="AI7" s="194">
         <v>388.88888888888891</v>
       </c>
-      <c r="AJ7" s="197">
+      <c r="AJ7" s="194">
         <v>436.36363636363637</v>
       </c>
       <c r="AK7" s="44">
@@ -3381,19 +3381,19 @@
       <c r="AE8" s="151">
         <v>414.35923829130212</v>
       </c>
-      <c r="AF8" s="171">
+      <c r="AF8" s="170">
         <v>420.08530969376011</v>
       </c>
-      <c r="AG8" s="197">
+      <c r="AG8" s="194">
         <v>427.10615384615392</v>
       </c>
       <c r="AH8" s="143">
         <v>414.45277777777778</v>
       </c>
-      <c r="AI8" s="197">
+      <c r="AI8" s="194">
         <v>428.57142857142861</v>
       </c>
-      <c r="AJ8" s="197">
+      <c r="AJ8" s="194">
         <v>422.41379310344831</v>
       </c>
       <c r="AK8" s="44">
@@ -3592,19 +3592,19 @@
       <c r="AE9" s="151">
         <v>623.49920774647887</v>
       </c>
-      <c r="AF9" s="171">
+      <c r="AF9" s="170">
         <v>625.54411764705878</v>
       </c>
-      <c r="AG9" s="197">
+      <c r="AG9" s="194">
         <v>625.31578947368416</v>
       </c>
       <c r="AH9" s="143">
         <v>620</v>
       </c>
-      <c r="AI9" s="197">
+      <c r="AI9" s="194">
         <v>632.66</v>
       </c>
-      <c r="AJ9" s="197">
+      <c r="AJ9" s="194">
         <v>616.89814814814815</v>
       </c>
       <c r="AK9" s="44">
@@ -3803,19 +3803,19 @@
       <c r="AE10" s="151">
         <v>491.66666666666669</v>
       </c>
-      <c r="AF10" s="171">
+      <c r="AF10" s="170">
         <v>490.90909090909088</v>
       </c>
-      <c r="AG10" s="197">
+      <c r="AG10" s="194">
         <v>466.66666666666669</v>
       </c>
       <c r="AH10" s="143">
         <v>493.33333333333331</v>
       </c>
-      <c r="AI10" s="197">
+      <c r="AI10" s="194">
         <v>500</v>
       </c>
-      <c r="AJ10" s="197">
+      <c r="AJ10" s="194">
         <v>500</v>
       </c>
       <c r="AK10" s="44">
@@ -4014,19 +4014,19 @@
       <c r="AE11" s="151">
         <v>315.05309734513281</v>
       </c>
-      <c r="AF11" s="171">
+      <c r="AF11" s="170">
         <v>315.09333333333331</v>
       </c>
-      <c r="AG11" s="197">
+      <c r="AG11" s="194">
         <v>316.82020202020198</v>
       </c>
       <c r="AH11" s="143">
         <v>329.8</v>
       </c>
-      <c r="AI11" s="197">
+      <c r="AI11" s="194">
         <v>326.15194805194812</v>
       </c>
-      <c r="AJ11" s="197">
+      <c r="AJ11" s="194">
         <v>329.94</v>
       </c>
       <c r="AK11" s="44">
@@ -4225,19 +4225,19 @@
       <c r="AE12" s="151">
         <v>741.31631631631626</v>
       </c>
-      <c r="AF12" s="171">
+      <c r="AF12" s="170">
         <v>733.33333333333337</v>
       </c>
-      <c r="AG12" s="197">
+      <c r="AG12" s="194">
         <v>755.13626834381557</v>
       </c>
       <c r="AH12" s="143">
         <v>754.71698113207549</v>
       </c>
-      <c r="AI12" s="197">
+      <c r="AI12" s="194">
         <v>750</v>
       </c>
-      <c r="AJ12" s="197">
+      <c r="AJ12" s="194">
         <v>763.88888888888891</v>
       </c>
       <c r="AK12" s="44">
@@ -4436,19 +4436,19 @@
       <c r="AE13" s="151">
         <v>654.5454545454545</v>
       </c>
-      <c r="AF13" s="171">
+      <c r="AF13" s="170">
         <v>648.14814814814815</v>
       </c>
-      <c r="AG13" s="197">
+      <c r="AG13" s="194">
         <v>652.35814296241711</v>
       </c>
       <c r="AH13" s="143">
         <v>645.09569377990431</v>
       </c>
-      <c r="AI13" s="197">
+      <c r="AI13" s="194">
         <v>641.56545209176784</v>
       </c>
-      <c r="AJ13" s="197">
+      <c r="AJ13" s="194">
         <v>644.73684210526312</v>
       </c>
       <c r="AK13" s="44">
@@ -4647,19 +4647,19 @@
       <c r="AE14" s="151">
         <v>387.93103448275798</v>
       </c>
-      <c r="AF14" s="171">
+      <c r="AF14" s="170">
         <v>405.97413793103402</v>
       </c>
-      <c r="AG14" s="197">
+      <c r="AG14" s="194">
         <v>410.95890410958901</v>
       </c>
       <c r="AH14" s="143">
         <v>419</v>
       </c>
-      <c r="AI14" s="197">
+      <c r="AI14" s="194">
         <v>422.222222222222</v>
       </c>
-      <c r="AJ14" s="197">
+      <c r="AJ14" s="194">
         <v>431.506849315068</v>
       </c>
       <c r="AK14" s="44">
@@ -4858,19 +4858,19 @@
       <c r="AE15" s="151">
         <v>395.5625</v>
       </c>
-      <c r="AF15" s="171">
+      <c r="AF15" s="170">
         <v>423.07692307692309</v>
       </c>
-      <c r="AG15" s="197">
+      <c r="AG15" s="194">
         <v>423.38071428571419</v>
       </c>
       <c r="AH15" s="143">
         <v>437.5</v>
       </c>
-      <c r="AI15" s="197">
+      <c r="AI15" s="194">
         <v>422.67373063683311</v>
       </c>
-      <c r="AJ15" s="197">
+      <c r="AJ15" s="194">
         <v>437.1</v>
       </c>
       <c r="AK15" s="44">
@@ -5069,19 +5069,19 @@
       <c r="AE16" s="151">
         <v>428.57142857142861</v>
       </c>
-      <c r="AF16" s="171">
+      <c r="AF16" s="170">
         <v>419.67741935483872</v>
       </c>
-      <c r="AG16" s="197">
+      <c r="AG16" s="194">
         <v>431.0795454545455</v>
       </c>
       <c r="AH16" s="143">
         <v>436.80555555555549</v>
       </c>
-      <c r="AI16" s="197">
+      <c r="AI16" s="194">
         <v>439.09552845528458</v>
       </c>
-      <c r="AJ16" s="197">
+      <c r="AJ16" s="194">
         <v>425.531914893617</v>
       </c>
       <c r="AK16" s="44">
@@ -5277,22 +5277,22 @@
       <c r="AD17" s="114">
         <v>1142</v>
       </c>
-      <c r="AE17" s="171">
+      <c r="AE17" s="170">
         <v>1155</v>
       </c>
-      <c r="AF17" s="171">
+      <c r="AF17" s="170">
         <v>1155</v>
       </c>
-      <c r="AG17" s="197">
+      <c r="AG17" s="194">
         <v>1142</v>
       </c>
       <c r="AH17" s="141">
         <v>1126</v>
       </c>
-      <c r="AI17" s="197">
+      <c r="AI17" s="194">
         <v>1128</v>
       </c>
-      <c r="AJ17" s="215">
+      <c r="AJ17" s="211">
         <v>1117</v>
       </c>
       <c r="AK17" s="54">
@@ -5398,23 +5398,23 @@
       <c r="BJ17" s="15"/>
     </row>
     <row r="18" spans="1:62" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="225"/>
-      <c r="H18" s="225"/>
-      <c r="I18" s="225"/>
-      <c r="J18" s="225"/>
-      <c r="K18" s="225"/>
-      <c r="L18" s="225"/>
-      <c r="M18" s="225"/>
-      <c r="N18" s="225"/>
-      <c r="O18" s="225"/>
-      <c r="P18" s="225"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="221"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="221"/>
+      <c r="O18" s="221"/>
+      <c r="P18" s="221"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
@@ -5426,15 +5426,15 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="198"/>
+      <c r="AB18" s="195"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
-      <c r="AE18" s="199"/>
-      <c r="AF18" s="199"/>
-      <c r="AG18" s="199"/>
-      <c r="AH18" s="199"/>
-      <c r="AI18" s="199"/>
-      <c r="AJ18" s="199"/>
+      <c r="AE18" s="196"/>
+      <c r="AF18" s="196"/>
+      <c r="AG18" s="196"/>
+      <c r="AH18" s="196"/>
+      <c r="AI18" s="196"/>
+      <c r="AJ18" s="196"/>
       <c r="AK18" s="76">
         <f>+AVERAGE(AK4:AK17)</f>
         <v>9.3962846348428462E-3</v>
@@ -5491,49 +5491,49 @@
         <f t="shared" ref="AX18:BC18" si="28">+AVERAGE(AX4:AX17)</f>
         <v>0.17260374482862359</v>
       </c>
-      <c r="AY18" s="165">
+      <c r="AY18" s="164">
         <f t="shared" si="28"/>
         <v>1.6167388710443899E-2</v>
       </c>
-      <c r="AZ18" s="166">
+      <c r="AZ18" s="165">
         <f t="shared" si="28"/>
         <v>8.1757886072734241E-3</v>
       </c>
-      <c r="BA18" s="166">
+      <c r="BA18" s="165">
         <f t="shared" si="28"/>
         <v>4.5160593251503834E-3</v>
       </c>
-      <c r="BB18" s="166">
+      <c r="BB18" s="165">
         <f t="shared" si="28"/>
         <v>-6.5735212880211656E-3</v>
       </c>
-      <c r="BC18" s="166">
+      <c r="BC18" s="165">
         <f t="shared" si="28"/>
         <v>1.3479737673764194E-2</v>
       </c>
-      <c r="BD18" s="166">
+      <c r="BD18" s="165">
         <f>+AVERAGE(BD4:BD17)</f>
         <v>3.0460018300039115E-3</v>
       </c>
-      <c r="BE18" s="166">
+      <c r="BE18" s="165">
         <f>+AVERAGE(BE4:BE17)</f>
         <v>3.6525996244977654E-3</v>
       </c>
-      <c r="BF18" s="166">
+      <c r="BF18" s="165">
         <f>+AVERAGE(BF4:BF17)</f>
         <v>7.1676182531904874E-3</v>
       </c>
-      <c r="BG18" s="166">
+      <c r="BG18" s="165">
         <f>+AVERAGE(BG4:BG17)</f>
-        <v>9.5414271235246817E-3</v>
-      </c>
-      <c r="BH18" s="166">
+        <v>1.1111412693510339E-2</v>
+      </c>
+      <c r="BH18" s="165">
         <f>+(1+AY18)*(1+AZ18)*(1+BB18)*(1+BA18)*(1+BC18)*(1+BD18)*(1+BE18)*(1+BF18)*(1+BG18)-1</f>
-        <v>6.0570070953833266E-2</v>
-      </c>
-      <c r="BI18" s="167">
+        <v>6.2219413578732397E-2</v>
+      </c>
+      <c r="BI18" s="166">
         <f>+AVERAGE(BI4:BI17)</f>
-        <v>7.5648385867919749E-2</v>
+        <v>7.731464413795168E-2</v>
       </c>
     </row>
     <row r="19" spans="1:62" ht="15" x14ac:dyDescent="0.2">
@@ -5603,7 +5603,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="AK4:AW17 AW20">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5617,7 +5617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX17">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5631,6 +5631,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI4:BI18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5684,11 +5696,11 @@
   <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="BG11" sqref="BG11"/>
+      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5709,96 +5721,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
     </row>
     <row r="2" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="240" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="245"/>
-      <c r="D2" s="241">
+      <c r="C2" s="241"/>
+      <c r="D2" s="237">
         <v>2022</v>
       </c>
-      <c r="E2" s="242"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="243"/>
-      <c r="P2" s="248">
+      <c r="E2" s="238"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="244">
         <v>2023</v>
       </c>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="249"/>
-      <c r="AB2" s="249">
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="245"/>
+      <c r="AA2" s="245"/>
+      <c r="AB2" s="245">
         <v>2024</v>
       </c>
-      <c r="AC2" s="249"/>
-      <c r="AD2" s="249"/>
-      <c r="AE2" s="249"/>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="232" t="s">
+      <c r="AC2" s="245"/>
+      <c r="AD2" s="245"/>
+      <c r="AE2" s="245"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="228" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="232"/>
-      <c r="AN2" s="232"/>
-      <c r="AO2" s="232"/>
-      <c r="AP2" s="232"/>
-      <c r="AQ2" s="232"/>
-      <c r="AR2" s="232"/>
-      <c r="AS2" s="232"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="232"/>
-      <c r="AV2" s="232"/>
-      <c r="AW2" s="232"/>
-      <c r="AX2" s="237"/>
-      <c r="AY2" s="234" t="s">
+      <c r="AL2" s="228"/>
+      <c r="AM2" s="228"/>
+      <c r="AN2" s="228"/>
+      <c r="AO2" s="228"/>
+      <c r="AP2" s="228"/>
+      <c r="AQ2" s="228"/>
+      <c r="AR2" s="228"/>
+      <c r="AS2" s="228"/>
+      <c r="AT2" s="228"/>
+      <c r="AU2" s="228"/>
+      <c r="AV2" s="228"/>
+      <c r="AW2" s="228"/>
+      <c r="AX2" s="233"/>
+      <c r="AY2" s="230" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="235"/>
-      <c r="BA2" s="235"/>
-      <c r="BB2" s="235"/>
-      <c r="BC2" s="235"/>
-      <c r="BD2" s="235"/>
-      <c r="BE2" s="235"/>
-      <c r="BF2" s="235"/>
-      <c r="BG2" s="235"/>
-      <c r="BH2" s="235"/>
-      <c r="BI2" s="236"/>
+      <c r="AZ2" s="231"/>
+      <c r="BA2" s="231"/>
+      <c r="BB2" s="231"/>
+      <c r="BC2" s="231"/>
+      <c r="BD2" s="231"/>
+      <c r="BE2" s="231"/>
+      <c r="BF2" s="231"/>
+      <c r="BG2" s="231"/>
+      <c r="BH2" s="231"/>
+      <c r="BI2" s="232"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="243"/>
       <c r="D3" s="56" t="s">
         <v>0</v>
       </c>
@@ -5883,22 +5895,22 @@
       <c r="AE3" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="AF3" s="177" t="s">
+      <c r="AF3" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="179" t="s">
+      <c r="AG3" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="179" t="s">
+      <c r="AH3" s="178" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="179" t="s">
+      <c r="AI3" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="AJ3" s="177" t="s">
+      <c r="AJ3" s="176" t="s">
         <v>94</v>
       </c>
-      <c r="AK3" s="177" t="s">
+      <c r="AK3" s="176" t="s">
         <v>0</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -6068,7 +6080,7 @@
       <c r="AE4" s="146">
         <v>964.91228070175441</v>
       </c>
-      <c r="AF4" s="174">
+      <c r="AF4" s="173">
         <v>969.44962686567169</v>
       </c>
       <c r="AG4" s="142">
@@ -6080,10 +6092,10 @@
       <c r="AI4" s="142">
         <v>941.66666666666674</v>
       </c>
-      <c r="AJ4" s="174">
+      <c r="AJ4" s="173">
         <v>933.33333333333337</v>
       </c>
-      <c r="AK4" s="212">
+      <c r="AK4" s="208">
         <f t="shared" ref="AK4:AK15" si="0">+P4/O4-1</f>
         <v>2.94460795752014E-2</v>
       </c>
@@ -6278,7 +6290,7 @@
       <c r="AE5" s="147">
         <v>979.69072164948454</v>
       </c>
-      <c r="AF5" s="175">
+      <c r="AF5" s="174">
         <v>972.19880576044966</v>
       </c>
       <c r="AG5" s="143">
@@ -6290,10 +6302,10 @@
       <c r="AI5" s="143">
         <v>941.66666666666663</v>
       </c>
-      <c r="AJ5" s="211">
+      <c r="AJ5" s="207">
         <v>923.61111111111109</v>
       </c>
-      <c r="AK5" s="213">
+      <c r="AK5" s="209">
         <f t="shared" si="0"/>
         <v>4.9930787150795908E-3</v>
       </c>
@@ -6488,7 +6500,7 @@
       <c r="AE6" s="147">
         <v>1105.2631578947371</v>
       </c>
-      <c r="AF6" s="175">
+      <c r="AF6" s="174">
         <v>1106.666666666667</v>
       </c>
       <c r="AG6" s="143">
@@ -6500,10 +6512,10 @@
       <c r="AI6" s="143">
         <v>1074.0740740740739</v>
       </c>
-      <c r="AJ6" s="211">
+      <c r="AJ6" s="207">
         <v>1060.30303030303</v>
       </c>
-      <c r="AK6" s="213">
+      <c r="AK6" s="209">
         <f t="shared" si="0"/>
         <v>1.9454545454545391E-2</v>
       </c>
@@ -6698,7 +6710,7 @@
       <c r="AE7" s="147">
         <v>1071.4285714285711</v>
       </c>
-      <c r="AF7" s="175">
+      <c r="AF7" s="174">
         <v>1071.4285714285711</v>
       </c>
       <c r="AG7" s="143">
@@ -6710,10 +6722,10 @@
       <c r="AI7" s="143">
         <v>1067.441860465116</v>
       </c>
-      <c r="AJ7" s="211">
+      <c r="AJ7" s="207">
         <v>1056.864375461937</v>
       </c>
-      <c r="AK7" s="213">
+      <c r="AK7" s="209">
         <f t="shared" si="0"/>
         <v>2.796052631578938E-2</v>
       </c>
@@ -6908,7 +6920,7 @@
       <c r="AE8" s="147">
         <v>1133.333333333333</v>
       </c>
-      <c r="AF8" s="175">
+      <c r="AF8" s="174">
         <v>1142.8571428571429</v>
       </c>
       <c r="AG8" s="143">
@@ -6920,10 +6932,10 @@
       <c r="AI8" s="143">
         <v>1102.7342500799491</v>
       </c>
-      <c r="AJ8" s="211">
+      <c r="AJ8" s="207">
         <v>1089.7435897435901</v>
       </c>
-      <c r="AK8" s="213">
+      <c r="AK8" s="209">
         <f t="shared" si="0"/>
         <v>1.4201701701701763E-2</v>
       </c>
@@ -7118,7 +7130,7 @@
       <c r="AE9" s="147">
         <v>1166.666666666667</v>
       </c>
-      <c r="AF9" s="175">
+      <c r="AF9" s="174">
         <v>1168.375</v>
       </c>
       <c r="AG9" s="143">
@@ -7130,10 +7142,10 @@
       <c r="AI9" s="143">
         <v>1145.833333333333</v>
       </c>
-      <c r="AJ9" s="211">
+      <c r="AJ9" s="207">
         <v>1117.9144385026741</v>
       </c>
-      <c r="AK9" s="213">
+      <c r="AK9" s="209">
         <f t="shared" si="0"/>
         <v>2.8945852534562277E-2</v>
       </c>
@@ -7328,7 +7340,7 @@
       <c r="AE10" s="147">
         <v>1229.864864864865</v>
       </c>
-      <c r="AF10" s="175">
+      <c r="AF10" s="174">
         <v>1247.5</v>
       </c>
       <c r="AG10" s="143">
@@ -7340,10 +7352,10 @@
       <c r="AI10" s="143">
         <v>1190.4761904761899</v>
       </c>
-      <c r="AJ10" s="211">
+      <c r="AJ10" s="207">
         <v>1184.2105263157889</v>
       </c>
-      <c r="AK10" s="213">
+      <c r="AK10" s="209">
         <f t="shared" si="0"/>
         <v>1.4285714285714013E-2</v>
       </c>
@@ -7538,7 +7550,7 @@
       <c r="AE11" s="147">
         <v>1200</v>
       </c>
-      <c r="AF11" s="175">
+      <c r="AF11" s="174">
         <v>1227.9873271889401</v>
       </c>
       <c r="AG11" s="143">
@@ -7550,10 +7562,10 @@
       <c r="AI11" s="143">
         <v>1199.2533333333331</v>
       </c>
-      <c r="AJ11" s="211">
+      <c r="AJ11" s="207">
         <v>1168.9655172413791</v>
       </c>
-      <c r="AK11" s="213">
+      <c r="AK11" s="209">
         <f t="shared" si="0"/>
         <v>2.4156239326853512E-3</v>
       </c>
@@ -7748,7 +7760,7 @@
       <c r="AE12" s="147">
         <v>1200</v>
       </c>
-      <c r="AF12" s="175">
+      <c r="AF12" s="174">
         <v>1190.4761904761899</v>
       </c>
       <c r="AG12" s="143">
@@ -7760,10 +7772,10 @@
       <c r="AI12" s="143">
         <v>1186.356589147287</v>
       </c>
-      <c r="AJ12" s="211">
+      <c r="AJ12" s="207">
         <v>1192.928039702233</v>
       </c>
-      <c r="AK12" s="213">
+      <c r="AK12" s="209">
         <f t="shared" si="0"/>
         <v>2.7432096597145961E-2</v>
       </c>
@@ -7958,7 +7970,7 @@
       <c r="AE13" s="147">
         <v>1328.5714285714289</v>
       </c>
-      <c r="AF13" s="175">
+      <c r="AF13" s="174">
         <v>1300</v>
       </c>
       <c r="AG13" s="143">
@@ -7970,10 +7982,10 @@
       <c r="AI13" s="143">
         <v>1287.2413793103451</v>
       </c>
-      <c r="AJ13" s="211">
+      <c r="AJ13" s="207">
         <v>1306.666666666667</v>
       </c>
-      <c r="AK13" s="213">
+      <c r="AK13" s="209">
         <f t="shared" si="0"/>
         <v>2.6432158293152597E-2</v>
       </c>
@@ -8168,7 +8180,7 @@
       <c r="AE14" s="148">
         <v>1322.418572418572</v>
       </c>
-      <c r="AF14" s="178">
+      <c r="AF14" s="177">
         <v>1307.1794871794871</v>
       </c>
       <c r="AG14" s="143">
@@ -8180,10 +8192,10 @@
       <c r="AI14" s="143">
         <v>1273.333333333333</v>
       </c>
-      <c r="AJ14" s="211">
+      <c r="AJ14" s="207">
         <v>1253.700564971751</v>
       </c>
-      <c r="AK14" s="213">
+      <c r="AK14" s="209">
         <f t="shared" si="0"/>
         <v>1.1297908745934837E-2</v>
       </c>
@@ -8285,10 +8297,10 @@
       </c>
     </row>
     <row r="15" spans="1:61" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="238" t="s">
+      <c r="B15" s="234" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="239"/>
+      <c r="C15" s="235"/>
       <c r="D15" s="38">
         <v>730.02347994203103</v>
       </c>
@@ -8373,23 +8385,23 @@
       <c r="AE15" s="149">
         <v>1155</v>
       </c>
-      <c r="AF15" s="176">
+      <c r="AF15" s="175">
         <v>1155</v>
       </c>
-      <c r="AG15" s="180">
+      <c r="AG15" s="179">
         <v>1142</v>
       </c>
-      <c r="AH15" s="180">
+      <c r="AH15" s="179">
         <v>1126</v>
       </c>
-      <c r="AI15" s="180">
+      <c r="AI15" s="179">
         <v>1128</v>
       </c>
-      <c r="AJ15" s="176">
+      <c r="AJ15" s="175">
         <f>AVERAGE(AJ4:AJ14)</f>
         <v>1117.1128357594084</v>
       </c>
-      <c r="AK15" s="214">
+      <c r="AK15" s="210">
         <f t="shared" si="0"/>
         <v>1.8675110953239704E-2</v>
       </c>
@@ -8678,21 +8690,20 @@
   <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX14" sqref="AX14"/>
+      <pane xSplit="2" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH13" sqref="BH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="13" width="15.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="13.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="15.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="26" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="35" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="15.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13.5703125" style="1" customWidth="1"/>
+    <col min="17" max="22" width="15.140625" style="1" customWidth="1"/>
+    <col min="23" max="35" width="14" style="1" customWidth="1"/>
     <col min="36" max="36" width="10" style="1" hidden="1" customWidth="1"/>
     <col min="37" max="39" width="11.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="12.7109375" style="1" hidden="1" customWidth="1"/>
@@ -8707,82 +8718,82 @@
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:60" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="253" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="253">
+      <c r="B2" s="254"/>
+      <c r="C2" s="249">
         <v>2022</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="263">
+      <c r="D2" s="250"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="259">
         <v>2023</v>
       </c>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="262"/>
-      <c r="AA2" s="263">
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="257"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="259">
         <v>2024</v>
       </c>
-      <c r="AB2" s="261"/>
-      <c r="AC2" s="261"/>
-      <c r="AD2" s="261"/>
-      <c r="AE2" s="261"/>
+      <c r="AB2" s="257"/>
+      <c r="AC2" s="257"/>
+      <c r="AD2" s="257"/>
+      <c r="AE2" s="257"/>
       <c r="AF2" s="95"/>
       <c r="AG2" s="95"/>
       <c r="AH2" s="95"/>
       <c r="AI2" s="95"/>
-      <c r="AJ2" s="261" t="s">
+      <c r="AJ2" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="AK2" s="261"/>
-      <c r="AL2" s="261"/>
-      <c r="AM2" s="261"/>
-      <c r="AN2" s="261"/>
-      <c r="AO2" s="261"/>
-      <c r="AP2" s="261"/>
-      <c r="AQ2" s="261"/>
-      <c r="AR2" s="261"/>
-      <c r="AS2" s="261"/>
-      <c r="AT2" s="261"/>
-      <c r="AU2" s="261"/>
-      <c r="AV2" s="261"/>
-      <c r="AW2" s="262"/>
-      <c r="AX2" s="250" t="s">
+      <c r="AK2" s="257"/>
+      <c r="AL2" s="257"/>
+      <c r="AM2" s="257"/>
+      <c r="AN2" s="257"/>
+      <c r="AO2" s="257"/>
+      <c r="AP2" s="257"/>
+      <c r="AQ2" s="257"/>
+      <c r="AR2" s="257"/>
+      <c r="AS2" s="257"/>
+      <c r="AT2" s="257"/>
+      <c r="AU2" s="257"/>
+      <c r="AV2" s="257"/>
+      <c r="AW2" s="258"/>
+      <c r="AX2" s="246" t="s">
         <v>102</v>
       </c>
-      <c r="AY2" s="251"/>
-      <c r="AZ2" s="251"/>
-      <c r="BA2" s="251"/>
-      <c r="BB2" s="251"/>
-      <c r="BC2" s="251"/>
-      <c r="BD2" s="251"/>
-      <c r="BE2" s="251"/>
-      <c r="BF2" s="251"/>
-      <c r="BG2" s="251"/>
-      <c r="BH2" s="252"/>
+      <c r="AY2" s="247"/>
+      <c r="AZ2" s="247"/>
+      <c r="BA2" s="247"/>
+      <c r="BB2" s="247"/>
+      <c r="BC2" s="247"/>
+      <c r="BD2" s="247"/>
+      <c r="BE2" s="247"/>
+      <c r="BF2" s="247"/>
+      <c r="BG2" s="247"/>
+      <c r="BH2" s="248"/>
     </row>
     <row r="3" spans="1:60" s="7" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="259"/>
-      <c r="B3" s="260"/>
+      <c r="A3" s="255"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="131" t="s">
         <v>0</v>
       </c>
@@ -8867,22 +8878,22 @@
       <c r="AD3" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="184" t="s">
+      <c r="AE3" s="182" t="s">
         <v>89</v>
       </c>
       <c r="AF3" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="201" t="s">
+      <c r="AG3" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="AH3" s="201" t="s">
+      <c r="AH3" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="AI3" s="206" t="s">
+      <c r="AI3" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="AJ3" s="181" t="s">
+      <c r="AJ3" s="180" t="s">
         <v>0</v>
       </c>
       <c r="AK3" s="132" t="s">
@@ -8939,22 +8950,22 @@
       <c r="BB3" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="BC3" s="190" t="s">
+      <c r="BC3" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="BD3" s="190" t="s">
+      <c r="BD3" s="187" t="s">
         <v>91</v>
       </c>
-      <c r="BE3" s="190" t="s">
+      <c r="BE3" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="BF3" s="190" t="s">
+      <c r="BF3" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="BG3" s="191" t="s">
+      <c r="BG3" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="BH3" s="192" t="s">
+      <c r="BH3" s="189" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9049,19 +9060,19 @@
       <c r="AD4" s="157">
         <v>7.1428571428571432</v>
       </c>
-      <c r="AE4" s="185">
+      <c r="AE4" s="183">
         <v>7.1428571428571432</v>
       </c>
-      <c r="AF4" s="203">
+      <c r="AF4" s="200">
         <v>7.0588235294117636</v>
       </c>
-      <c r="AG4" s="182">
+      <c r="AG4" s="181">
         <v>7.3529411764705879</v>
       </c>
-      <c r="AH4" s="182">
+      <c r="AH4" s="181">
         <v>7.333333333333333</v>
       </c>
-      <c r="AI4" s="207">
+      <c r="AI4" s="203">
         <v>7.3170731707317076</v>
       </c>
       <c r="AJ4" s="155">
@@ -9140,27 +9151,27 @@
         <f t="shared" ref="BB4:BB15" si="7">+AE4/AD4-1</f>
         <v>0</v>
       </c>
-      <c r="BC4" s="193">
+      <c r="BC4" s="190">
         <f t="shared" ref="BC4:BC15" si="8">+AF4/AE4-1</f>
         <v>-1.1764705882353121E-2</v>
       </c>
-      <c r="BD4" s="193">
+      <c r="BD4" s="190">
         <f t="shared" ref="BD4:BD15" si="9">+AG4/AF4-1</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="BE4" s="193">
+      <c r="BE4" s="190">
         <f t="shared" ref="BE4:BE15" si="10">+AH4/AG4-1</f>
         <v>-2.666666666666706E-3</v>
       </c>
-      <c r="BF4" s="193">
+      <c r="BF4" s="190">
         <f t="shared" ref="BF4:BF15" si="11">+AI4/AH4-1</f>
         <v>-2.2172949002216003E-3</v>
       </c>
-      <c r="BG4" s="193">
+      <c r="BG4" s="190">
         <f>+AI4/Z4-1</f>
         <v>-0.14634146341463405</v>
       </c>
-      <c r="BH4" s="194">
+      <c r="BH4" s="191">
         <f>+AI4/W4-1</f>
         <v>-0.12195121951219512</v>
       </c>
@@ -9256,7 +9267,7 @@
       <c r="AD5" s="152">
         <v>5.7142857142857144</v>
       </c>
-      <c r="AE5" s="186">
+      <c r="AE5" s="184">
         <v>5.833333333333333</v>
       </c>
       <c r="AF5" s="152">
@@ -9268,7 +9279,7 @@
       <c r="AH5" s="153">
         <v>5.833333333333333</v>
       </c>
-      <c r="AI5" s="208">
+      <c r="AI5" s="204">
         <v>5.4616477272727266</v>
       </c>
       <c r="AJ5" s="154">
@@ -9347,27 +9358,27 @@
         <f t="shared" si="7"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="BC5" s="193">
+      <c r="BC5" s="190">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BD5" s="193">
+      <c r="BD5" s="190">
         <f t="shared" si="9"/>
         <v>-3.2258064516128893E-2</v>
       </c>
-      <c r="BE5" s="193">
+      <c r="BE5" s="190">
         <f t="shared" si="10"/>
         <v>3.3333333333333215E-2</v>
       </c>
-      <c r="BF5" s="193">
+      <c r="BF5" s="190">
         <f t="shared" si="11"/>
         <v>-6.3717532467532534E-2</v>
       </c>
-      <c r="BG5" s="193">
+      <c r="BG5" s="190">
         <f t="shared" ref="BG5:BG14" si="12">+AI5/Z5-1</f>
         <v>-3.8395491425410433E-2</v>
       </c>
-      <c r="BH5" s="194">
+      <c r="BH5" s="191">
         <f t="shared" ref="BH5:BH14" si="13">+AI5/W5-1</f>
         <v>-6.3717532467532534E-2</v>
       </c>
@@ -9463,19 +9474,19 @@
       <c r="AD6" s="160">
         <v>10.90909090909091</v>
       </c>
-      <c r="AE6" s="187">
+      <c r="AE6" s="185">
         <v>11.111111111111111</v>
       </c>
       <c r="AF6" s="160">
         <v>10.83333333333333</v>
       </c>
-      <c r="AG6" s="162">
+      <c r="AG6" s="161">
         <v>10.83333333333333</v>
       </c>
-      <c r="AH6" s="162">
+      <c r="AH6" s="161">
         <v>10.8</v>
       </c>
-      <c r="AI6" s="209">
+      <c r="AI6" s="205">
         <v>10.82792207792208</v>
       </c>
       <c r="AJ6" s="154">
@@ -9554,27 +9565,27 @@
         <f t="shared" si="7"/>
         <v>1.8518518518518379E-2</v>
       </c>
-      <c r="BC6" s="193">
+      <c r="BC6" s="190">
         <f t="shared" si="8"/>
         <v>-2.5000000000000244E-2</v>
       </c>
-      <c r="BD6" s="193">
+      <c r="BD6" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BE6" s="193">
+      <c r="BE6" s="190">
         <f t="shared" si="10"/>
         <v>-3.0769230769227551E-3</v>
       </c>
-      <c r="BF6" s="193">
+      <c r="BF6" s="190">
         <f t="shared" si="11"/>
         <v>2.5853775853776906E-3</v>
       </c>
-      <c r="BG6" s="193">
+      <c r="BG6" s="190">
         <f t="shared" si="12"/>
         <v>-5.2556818181818121E-2</v>
       </c>
-      <c r="BH6" s="194">
+      <c r="BH6" s="191">
         <f t="shared" si="13"/>
         <v>-2.5487012987012725E-2</v>
       </c>
@@ -9670,19 +9681,19 @@
       <c r="AD7" s="160">
         <v>9.2307692307692299</v>
       </c>
-      <c r="AE7" s="187">
+      <c r="AE7" s="185">
         <v>9.3023255813953494</v>
       </c>
       <c r="AF7" s="160">
         <v>8.75</v>
       </c>
-      <c r="AG7" s="162">
+      <c r="AG7" s="161">
         <v>9.0909090909090917</v>
       </c>
-      <c r="AH7" s="162">
+      <c r="AH7" s="161">
         <v>9.2307692307692299</v>
       </c>
-      <c r="AI7" s="209">
+      <c r="AI7" s="205">
         <v>9.2307692307692299</v>
       </c>
       <c r="AJ7" s="154">
@@ -9761,27 +9772,27 @@
         <f t="shared" si="7"/>
         <v>7.7519379844963598E-3</v>
       </c>
-      <c r="BC7" s="193">
+      <c r="BC7" s="190">
         <f t="shared" si="8"/>
         <v>-5.9375000000000067E-2</v>
       </c>
-      <c r="BD7" s="193">
+      <c r="BD7" s="190">
         <f t="shared" si="9"/>
         <v>3.8961038961039085E-2</v>
       </c>
-      <c r="BE7" s="193">
+      <c r="BE7" s="190">
         <f t="shared" si="10"/>
         <v>1.5384615384615108E-2</v>
       </c>
-      <c r="BF7" s="193">
+      <c r="BF7" s="190">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BG7" s="193">
+      <c r="BG7" s="190">
         <f t="shared" si="12"/>
         <v>-0.12307692307692275</v>
       </c>
-      <c r="BH7" s="194">
+      <c r="BH7" s="191">
         <f t="shared" si="13"/>
         <v>-7.6923076923076983E-2</v>
       </c>
@@ -9877,19 +9888,19 @@
       <c r="AD8" s="160">
         <v>6.25</v>
       </c>
-      <c r="AE8" s="187">
+      <c r="AE8" s="185">
         <v>6.25</v>
       </c>
       <c r="AF8" s="160">
         <v>6.4102564102564106</v>
       </c>
-      <c r="AG8" s="162">
+      <c r="AG8" s="161">
         <v>6.25</v>
       </c>
-      <c r="AH8" s="162">
+      <c r="AH8" s="161">
         <v>6.4028026237328568</v>
       </c>
-      <c r="AI8" s="209">
+      <c r="AI8" s="205">
         <v>6.4516129032258061</v>
       </c>
       <c r="AJ8" s="154">
@@ -9968,27 +9979,27 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BC8" s="193">
+      <c r="BC8" s="190">
         <f t="shared" si="8"/>
         <v>2.5641025641025772E-2</v>
       </c>
-      <c r="BD8" s="193">
+      <c r="BD8" s="190">
         <f t="shared" si="9"/>
         <v>-2.5000000000000022E-2</v>
       </c>
-      <c r="BE8" s="193">
+      <c r="BE8" s="190">
         <f t="shared" si="10"/>
         <v>2.4448419797256982E-2</v>
       </c>
-      <c r="BF8" s="193">
+      <c r="BF8" s="190">
         <f t="shared" si="11"/>
         <v>7.623267865860317E-3</v>
       </c>
-      <c r="BG8" s="193">
+      <c r="BG8" s="190">
         <f t="shared" si="12"/>
         <v>-6.8100358422939156E-2</v>
       </c>
-      <c r="BH8" s="194">
+      <c r="BH8" s="191">
         <f t="shared" si="13"/>
         <v>-9.1322126306224494E-2</v>
       </c>
@@ -10084,19 +10095,19 @@
       <c r="AD9" s="160">
         <v>7.291666666666667</v>
       </c>
-      <c r="AE9" s="187">
+      <c r="AE9" s="185">
         <v>7.291666666666667</v>
       </c>
       <c r="AF9" s="160">
         <v>7.6923076923076934</v>
       </c>
-      <c r="AG9" s="162">
+      <c r="AG9" s="161">
         <v>7.0370370370370372</v>
       </c>
-      <c r="AH9" s="162">
+      <c r="AH9" s="161">
         <v>7.372837297383775</v>
       </c>
-      <c r="AI9" s="209">
+      <c r="AI9" s="205">
         <v>7.2727272727272716</v>
       </c>
       <c r="AJ9" s="154">
@@ -10175,27 +10186,27 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BC9" s="193">
+      <c r="BC9" s="190">
         <f t="shared" si="8"/>
         <v>5.4945054945054972E-2</v>
       </c>
-      <c r="BD9" s="193">
+      <c r="BD9" s="190">
         <f t="shared" si="9"/>
         <v>-8.5185185185185253E-2</v>
       </c>
-      <c r="BE9" s="193">
+      <c r="BE9" s="190">
         <f t="shared" si="10"/>
         <v>4.7718984365062722E-2</v>
       </c>
-      <c r="BF9" s="193">
+      <c r="BF9" s="190">
         <f t="shared" si="11"/>
         <v>-1.3578222415409513E-2</v>
       </c>
-      <c r="BG9" s="193">
+      <c r="BG9" s="190">
         <f t="shared" si="12"/>
         <v>-7.4380165289256284E-2</v>
       </c>
-      <c r="BH9" s="194">
+      <c r="BH9" s="191">
         <f t="shared" si="13"/>
         <v>-1.7199017199017397E-2</v>
       </c>
@@ -10291,19 +10302,19 @@
       <c r="AD10" s="160">
         <v>8</v>
       </c>
-      <c r="AE10" s="187">
+      <c r="AE10" s="185">
         <v>8.0825791855203626</v>
       </c>
       <c r="AF10" s="160">
         <v>8</v>
       </c>
-      <c r="AG10" s="162">
+      <c r="AG10" s="161">
         <v>8</v>
       </c>
-      <c r="AH10" s="162">
+      <c r="AH10" s="161">
         <v>8</v>
       </c>
-      <c r="AI10" s="209">
+      <c r="AI10" s="205">
         <v>8</v>
       </c>
       <c r="AJ10" s="154">
@@ -10382,27 +10393,27 @@
         <f t="shared" si="7"/>
         <v>1.0322398190045323E-2</v>
       </c>
-      <c r="BC10" s="193">
+      <c r="BC10" s="190">
         <f t="shared" si="8"/>
         <v>-1.0216934919524245E-2</v>
       </c>
-      <c r="BD10" s="193">
+      <c r="BD10" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BE10" s="193">
+      <c r="BE10" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="BF10" s="193">
+      <c r="BF10" s="190">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BG10" s="193">
+      <c r="BG10" s="190">
         <f t="shared" si="12"/>
         <v>-0.1272727272727272</v>
       </c>
-      <c r="BH10" s="194">
+      <c r="BH10" s="191">
         <f t="shared" si="13"/>
         <v>-8.5714285714285743E-2</v>
       </c>
@@ -10498,19 +10509,19 @@
       <c r="AD11" s="160">
         <v>10.52631578947368</v>
       </c>
-      <c r="AE11" s="187">
+      <c r="AE11" s="185">
         <v>10.52631578947368</v>
       </c>
       <c r="AF11" s="160">
         <v>10</v>
       </c>
-      <c r="AG11" s="162">
+      <c r="AG11" s="161">
         <v>10.4</v>
       </c>
-      <c r="AH11" s="162">
+      <c r="AH11" s="161">
         <v>10</v>
       </c>
-      <c r="AI11" s="209">
+      <c r="AI11" s="205">
         <v>10.71428571428571</v>
       </c>
       <c r="AJ11" s="154">
@@ -10589,27 +10600,27 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BC11" s="193">
+      <c r="BC11" s="190">
         <f t="shared" si="8"/>
         <v>-4.99999999999996E-2</v>
       </c>
-      <c r="BD11" s="193">
+      <c r="BD11" s="190">
         <f t="shared" si="9"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="BE11" s="193">
+      <c r="BE11" s="190">
         <f t="shared" si="10"/>
         <v>-3.8461538461538547E-2</v>
       </c>
-      <c r="BF11" s="193">
+      <c r="BF11" s="190">
         <f t="shared" si="11"/>
         <v>7.1428571428570953E-2</v>
       </c>
-      <c r="BG11" s="193">
+      <c r="BG11" s="190">
         <f t="shared" si="12"/>
         <v>-9.3406593406593963E-2</v>
       </c>
-      <c r="BH11" s="194">
+      <c r="BH11" s="191">
         <f t="shared" si="13"/>
         <v>-5.1833122629583284E-2</v>
       </c>
@@ -10705,19 +10716,19 @@
       <c r="AD12" s="160">
         <v>8.5714285714285712</v>
       </c>
-      <c r="AE12" s="187">
+      <c r="AE12" s="185">
         <v>8.6956521739130395</v>
       </c>
       <c r="AF12" s="160">
         <v>8.4210526315789469</v>
       </c>
-      <c r="AG12" s="162">
+      <c r="AG12" s="161">
         <v>8.1818181818181817</v>
       </c>
-      <c r="AH12" s="162">
+      <c r="AH12" s="161">
         <v>8.3333333333333339</v>
       </c>
-      <c r="AI12" s="209">
+      <c r="AI12" s="205">
         <v>8.3333333333333339</v>
       </c>
       <c r="AJ12" s="154">
@@ -10796,27 +10807,27 @@
         <f t="shared" si="7"/>
         <v>1.4492753623188026E-2</v>
       </c>
-      <c r="BC12" s="193">
+      <c r="BC12" s="190">
         <f t="shared" si="8"/>
         <v>-3.1578947368420707E-2</v>
       </c>
-      <c r="BD12" s="193">
+      <c r="BD12" s="190">
         <f t="shared" si="9"/>
         <v>-2.8409090909090828E-2</v>
       </c>
-      <c r="BE12" s="193">
+      <c r="BE12" s="190">
         <f t="shared" si="10"/>
         <v>1.8518518518518601E-2</v>
       </c>
-      <c r="BF12" s="193">
+      <c r="BF12" s="190">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BG12" s="193">
+      <c r="BG12" s="190">
         <f t="shared" si="12"/>
         <v>-0.11904761904761896</v>
       </c>
-      <c r="BH12" s="194">
+      <c r="BH12" s="191">
         <f t="shared" si="13"/>
         <v>-8.013937282229977E-2</v>
       </c>
@@ -10912,19 +10923,19 @@
       <c r="AD13" s="160">
         <v>10</v>
       </c>
-      <c r="AE13" s="187">
+      <c r="AE13" s="185">
         <v>10</v>
       </c>
       <c r="AF13" s="160">
         <v>10</v>
       </c>
-      <c r="AG13" s="162">
+      <c r="AG13" s="161">
         <v>10</v>
       </c>
-      <c r="AH13" s="162">
+      <c r="AH13" s="161">
         <v>9.375</v>
       </c>
-      <c r="AI13" s="209">
+      <c r="AI13" s="205">
         <v>10</v>
       </c>
       <c r="AJ13" s="154">
@@ -11003,27 +11014,27 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BC13" s="193">
+      <c r="BC13" s="190">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BD13" s="193">
+      <c r="BD13" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BE13" s="193">
+      <c r="BE13" s="190">
         <f t="shared" si="10"/>
         <v>-6.25E-2</v>
       </c>
-      <c r="BF13" s="193">
+      <c r="BF13" s="190">
         <f t="shared" si="11"/>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="BG13" s="193">
+      <c r="BG13" s="190">
         <f t="shared" si="12"/>
         <v>-7.1428571428571508E-2</v>
       </c>
-      <c r="BH13" s="194">
+      <c r="BH13" s="191">
         <f t="shared" si="13"/>
         <v>-0.11111111111111116</v>
       </c>
@@ -11119,7 +11130,7 @@
       <c r="AD14" s="144">
         <v>7.8571428571428568</v>
       </c>
-      <c r="AE14" s="188">
+      <c r="AE14" s="186">
         <v>8.085106382978724</v>
       </c>
       <c r="AF14" s="144">
@@ -11131,7 +11142,7 @@
       <c r="AH14" s="158">
         <v>8.0882352941176467</v>
       </c>
-      <c r="AI14" s="210">
+      <c r="AI14" s="206">
         <v>8.0882352941176467</v>
       </c>
       <c r="AJ14" s="156">
@@ -11210,36 +11221,36 @@
         <f t="shared" si="7"/>
         <v>2.9013539651837617E-2</v>
       </c>
-      <c r="BC14" s="193">
+      <c r="BC14" s="190">
         <f t="shared" si="8"/>
         <v>-1.0526315789473717E-2</v>
       </c>
-      <c r="BD14" s="193">
+      <c r="BD14" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BE14" s="193">
+      <c r="BE14" s="190">
         <f t="shared" si="10"/>
         <v>1.1029411764705843E-2</v>
       </c>
-      <c r="BF14" s="193">
+      <c r="BF14" s="190">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BG14" s="193">
+      <c r="BG14" s="190">
         <f t="shared" si="12"/>
         <v>-0.14359861591695511</v>
       </c>
-      <c r="BH14" s="194">
+      <c r="BH14" s="191">
         <f t="shared" si="13"/>
         <v>-0.16176470588235303</v>
       </c>
     </row>
     <row r="15" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="231" t="s">
+      <c r="A15" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="233"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="47">
         <f>AVERAGE(C4:C14)</f>
         <v>8.0843345048625608</v>
@@ -11332,24 +11343,24 @@
       <c r="AC15" s="129">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AD15" s="161">
+      <c r="AD15" s="260">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AE15" s="189">
+      <c r="AE15" s="261">
         <v>8.4</v>
       </c>
-      <c r="AF15" s="204">
+      <c r="AF15" s="262">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AG15" s="183">
+      <c r="AG15" s="263">
         <f>+AVERAGE(AG4:AG14)</f>
         <v>8.2537454645355286</v>
       </c>
-      <c r="AH15" s="183">
+      <c r="AH15" s="263">
         <f>+AVERAGE(AH4:AH14)</f>
         <v>8.2517858587275921</v>
       </c>
-      <c r="AI15" s="183">
+      <c r="AI15" s="263">
         <f>+AVERAGE(AI4:AI14)</f>
         <v>8.3361460658532298</v>
       </c>
@@ -11429,27 +11440,27 @@
         <f t="shared" si="7"/>
         <v>1.2048192771084265E-2</v>
       </c>
-      <c r="BC15" s="195">
+      <c r="BC15" s="192">
         <f t="shared" si="8"/>
         <v>-1.1904761904761862E-2</v>
       </c>
-      <c r="BD15" s="195">
+      <c r="BD15" s="192">
         <f t="shared" si="9"/>
         <v>-5.5728355981291555E-3</v>
       </c>
-      <c r="BE15" s="195">
+      <c r="BE15" s="192">
         <f t="shared" si="10"/>
         <v>-2.374201889744354E-4</v>
       </c>
-      <c r="BF15" s="195">
+      <c r="BF15" s="192">
         <f t="shared" si="11"/>
         <v>1.0223266644324491E-2</v>
       </c>
-      <c r="BG15" s="195">
+      <c r="BG15" s="192">
         <f>+AI15/Z15-1</f>
         <v>-9.3897166755083639E-2</v>
       </c>
-      <c r="BH15" s="196">
+      <c r="BH15" s="193">
         <f>+AI15/W15-1</f>
         <v>-8.3939992763381266E-2</v>
       </c>
@@ -11465,6 +11476,18 @@
     <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="BH4:BH15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2024_09_housing_prices.xlsx
+++ b/2024_09_housing_prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.khamidov\Documents\09_september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D062C02B-9988-4463-983D-6CA2C1890A79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4EA208-42D6-4C93-93EB-90E81A3B32ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="2895" windowWidth="14385" windowHeight="11445" xr2:uid="{F0A68128-6003-4809-9CD7-322F14E0A5F8}"/>
+    <workbookView xWindow="-7125" yWindow="14610" windowWidth="14385" windowHeight="11445" xr2:uid="{F0A68128-6003-4809-9CD7-322F14E0A5F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Регион_динамика_цен" sheetId="31" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="134">
   <si>
     <t>Январь</t>
   </si>
@@ -358,6 +358,87 @@
   <si>
     <t>2023 йилга нисбатан
  (мос даври)</t>
+  </si>
+  <si>
+    <t>В среднем за 1 кв.м. (в долл)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Изменение за месяц</t>
+  </si>
+  <si>
+    <t>Изменение за год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ҳудудлар  </t>
+  </si>
+  <si>
+    <t>Ўртача нарх (1 кв.м. учун долларда)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ўсиш (ойлик)</t>
+  </si>
+  <si>
+    <t>Ўсиш(йиллик)</t>
+  </si>
+  <si>
+    <t>Республика бўйича</t>
+  </si>
+  <si>
+    <t>Average price (in dollars per 1 sq.m.)</t>
+  </si>
+  <si>
+    <t>Growth (monthly)</t>
+  </si>
+  <si>
+    <t>Growth (annual)</t>
+  </si>
+  <si>
+    <t>Samarkand</t>
+  </si>
+  <si>
+    <t>Navoi</t>
+  </si>
+  <si>
+    <t>Andijan</t>
+  </si>
+  <si>
+    <t>Bukhara</t>
+  </si>
+  <si>
+    <t>Namangan</t>
+  </si>
+  <si>
+    <t>Fergana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jizzakh </t>
+  </si>
+  <si>
+    <t>By country</t>
+  </si>
+  <si>
+    <t>Tashkent region</t>
+  </si>
+  <si>
+    <t>Gulistan</t>
+  </si>
+  <si>
+    <t>Karshi</t>
+  </si>
+  <si>
+    <t>Nukus</t>
+  </si>
+  <si>
+    <t>Urgench</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Termez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tashkent </t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1298,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1672,6 +1753,18 @@
     <xf numFmtId="1" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,18 +1909,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2162,14 +2247,14 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:BJ31"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="BL24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="BH4" sqref="BH4"/>
+      <selection pane="bottomRight" activeCell="BM43" sqref="BM43:BP58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2190,84 +2275,84 @@
     <col min="62" max="74" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:62" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="215" t="s">
+    <row r="1" spans="1:68" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:68" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="222">
+      <c r="C2" s="220"/>
+      <c r="D2" s="226">
         <v>2022</v>
       </c>
-      <c r="E2" s="223"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="226">
+      <c r="E2" s="227"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="230">
         <v>2023</v>
       </c>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="229"/>
-      <c r="AB2" s="226">
+      <c r="Q2" s="231"/>
+      <c r="R2" s="231"/>
+      <c r="S2" s="231"/>
+      <c r="T2" s="231"/>
+      <c r="U2" s="231"/>
+      <c r="V2" s="231"/>
+      <c r="W2" s="231"/>
+      <c r="X2" s="231"/>
+      <c r="Y2" s="231"/>
+      <c r="Z2" s="231"/>
+      <c r="AA2" s="233"/>
+      <c r="AB2" s="230">
         <v>2024</v>
       </c>
-      <c r="AC2" s="227"/>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="229"/>
+      <c r="AC2" s="231"/>
+      <c r="AD2" s="231"/>
+      <c r="AE2" s="231"/>
+      <c r="AF2" s="233"/>
       <c r="AG2" s="163"/>
       <c r="AH2" s="163"/>
       <c r="AI2" s="163"/>
       <c r="AJ2" s="163"/>
-      <c r="AK2" s="226" t="s">
+      <c r="AK2" s="230" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="227"/>
-      <c r="AM2" s="227"/>
-      <c r="AN2" s="227"/>
-      <c r="AO2" s="227"/>
-      <c r="AP2" s="227"/>
-      <c r="AQ2" s="227"/>
-      <c r="AR2" s="227"/>
-      <c r="AS2" s="227"/>
-      <c r="AT2" s="228"/>
-      <c r="AU2" s="228"/>
-      <c r="AV2" s="228"/>
-      <c r="AW2" s="227"/>
-      <c r="AX2" s="229"/>
-      <c r="AY2" s="212" t="s">
+      <c r="AL2" s="231"/>
+      <c r="AM2" s="231"/>
+      <c r="AN2" s="231"/>
+      <c r="AO2" s="231"/>
+      <c r="AP2" s="231"/>
+      <c r="AQ2" s="231"/>
+      <c r="AR2" s="231"/>
+      <c r="AS2" s="231"/>
+      <c r="AT2" s="232"/>
+      <c r="AU2" s="232"/>
+      <c r="AV2" s="232"/>
+      <c r="AW2" s="231"/>
+      <c r="AX2" s="233"/>
+      <c r="AY2" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="AZ2" s="213"/>
-      <c r="BA2" s="213"/>
-      <c r="BB2" s="213"/>
-      <c r="BC2" s="213"/>
-      <c r="BD2" s="213"/>
-      <c r="BE2" s="213"/>
-      <c r="BF2" s="213"/>
-      <c r="BG2" s="213"/>
-      <c r="BH2" s="213"/>
-      <c r="BI2" s="214"/>
+      <c r="AZ2" s="217"/>
+      <c r="BA2" s="217"/>
+      <c r="BB2" s="217"/>
+      <c r="BC2" s="217"/>
+      <c r="BD2" s="217"/>
+      <c r="BE2" s="217"/>
+      <c r="BF2" s="217"/>
+      <c r="BG2" s="217"/>
+      <c r="BH2" s="217"/>
+      <c r="BI2" s="218"/>
     </row>
-    <row r="3" spans="1:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="217"/>
-      <c r="C3" s="218"/>
+    <row r="3" spans="1:68" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="221"/>
+      <c r="C3" s="222"/>
       <c r="D3" s="69" t="s">
         <v>0</v>
       </c>
@@ -2442,8 +2527,20 @@
       <c r="BI3" s="100" t="s">
         <v>106</v>
       </c>
+      <c r="BM3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2653,8 +2750,20 @@
         <v>1.132075471698113E-2</v>
       </c>
       <c r="BJ4" s="15"/>
+      <c r="BM4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN4" s="15">
+        <v>536</v>
+      </c>
+      <c r="BO4" s="264">
+        <v>-4.7111111111111104E-2</v>
+      </c>
+      <c r="BP4" s="264">
+        <v>1.132075471698113E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2864,8 +2973,20 @@
         <v>0.12849008712355081</v>
       </c>
       <c r="BJ5" s="15"/>
+      <c r="BM5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN5" s="15">
+        <v>546.51162790697674</v>
+      </c>
+      <c r="BO5" s="264">
+        <v>1.6240630405535139E-2</v>
+      </c>
+      <c r="BP5" s="264">
+        <v>0.12849008712355081</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3075,8 +3196,20 @@
         <v>9.0714077952297911E-2</v>
       </c>
       <c r="BJ6" s="15"/>
+      <c r="BM6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN6" s="15">
+        <v>416.65277777777783</v>
+      </c>
+      <c r="BO6" s="264">
+        <v>5.3078449328449295E-2</v>
+      </c>
+      <c r="BP6" s="264">
+        <v>9.0714077952297911E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -3286,8 +3419,20 @@
         <v>0.15636363636363648</v>
       </c>
       <c r="BJ7" s="15"/>
+      <c r="BM7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN7" s="15">
+        <v>436.36363636363637</v>
+      </c>
+      <c r="BO7" s="265">
+        <v>0.12207792207792201</v>
+      </c>
+      <c r="BP7" s="264">
+        <v>0.15636363636363648</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3497,8 +3642,20 @@
         <v>8.3112290008841905E-2</v>
       </c>
       <c r="BJ8" s="15"/>
+      <c r="BM8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN8" s="15">
+        <v>422.41379310344831</v>
+      </c>
+      <c r="BO8" s="264">
+        <v>-1.4367816091954033E-2</v>
+      </c>
+      <c r="BP8" s="264">
+        <v>8.3112290008841905E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3708,8 +3865,20 @@
         <v>-3.2657089049020094E-2</v>
       </c>
       <c r="BJ9" s="15"/>
+      <c r="BM9" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN9" s="15">
+        <v>616.89814814814815</v>
+      </c>
+      <c r="BO9" s="264">
+        <v>-2.4913621616431958E-2</v>
+      </c>
+      <c r="BP9" s="264">
+        <v>-3.2657089049020094E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3919,8 +4088,20 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="BJ10" s="15"/>
+      <c r="BM10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN10" s="15">
+        <v>500</v>
+      </c>
+      <c r="BO10" s="264">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="264">
+        <v>4.1666666666666741E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -4130,8 +4311,20 @@
         <v>3.3044549291597169E-2</v>
       </c>
       <c r="BJ11" s="15"/>
+      <c r="BM11" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN11" s="15">
+        <v>329.94</v>
+      </c>
+      <c r="BO11" s="264">
+        <v>1.1614377809721077E-2</v>
+      </c>
+      <c r="BP11" s="264">
+        <v>3.3044549291597169E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4341,8 +4534,20 @@
         <v>9.8090277777777679E-2</v>
       </c>
       <c r="BJ12" s="15"/>
+      <c r="BM12" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN12" s="15">
+        <v>763.88888888888891</v>
+      </c>
+      <c r="BO12" s="264">
+        <v>1.8518518518518601E-2</v>
+      </c>
+      <c r="BP12" s="264">
+        <v>9.8090277777777679E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -4552,8 +4757,20 @@
         <v>8.1773225008830774E-2</v>
       </c>
       <c r="BJ13" s="15"/>
+      <c r="BM13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN13" s="15">
+        <v>644.73684210526312</v>
+      </c>
+      <c r="BO13" s="264">
+        <v>4.9432057214977565E-3</v>
+      </c>
+      <c r="BP13" s="264">
+        <v>8.1773225008830774E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -4763,8 +4980,20 @@
         <v>9.5195049023015121E-2</v>
       </c>
       <c r="BJ14" s="15"/>
+      <c r="BM14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN14" s="15">
+        <v>431.506849315068</v>
+      </c>
+      <c r="BO14" s="264">
+        <v>2.1989906272529947E-2</v>
+      </c>
+      <c r="BP14" s="264">
+        <v>9.5195049023015121E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -4974,8 +5203,20 @@
         <v>0.19841801541922433</v>
       </c>
       <c r="BJ15" s="15"/>
+      <c r="BM15" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN15" s="15">
+        <v>437.1</v>
+      </c>
+      <c r="BO15" s="264">
+        <v>3.4130981694630469E-2</v>
+      </c>
+      <c r="BP15" s="264">
+        <v>0.19841801541922433</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -5185,8 +5426,20 @@
         <v>7.8920319877080702E-2</v>
       </c>
       <c r="BJ16" s="15"/>
+      <c r="BM16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN16" s="15">
+        <v>425.531914893617</v>
+      </c>
+      <c r="BO16" s="264">
+        <v>-3.0889892250517081E-2</v>
+      </c>
+      <c r="BP16" s="264">
+        <v>7.8920319877080702E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -5396,25 +5649,37 @@
         <v>1.7953157750842941E-2</v>
       </c>
       <c r="BJ17" s="15"/>
+      <c r="BM17" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN17" s="15">
+        <v>1117</v>
+      </c>
+      <c r="BO17" s="264">
+        <v>-9.7517730496453625E-3</v>
+      </c>
+      <c r="BP17" s="264">
+        <v>1.7953157750842941E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:62" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="219" t="s">
+    <row r="18" spans="1:68" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="220"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="221"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="221"/>
-      <c r="O18" s="221"/>
-      <c r="P18" s="221"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="225"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
@@ -5535,8 +5800,20 @@
         <f>+AVERAGE(BI4:BI17)</f>
         <v>7.731464413795168E-2</v>
       </c>
+      <c r="BM18" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN18" s="15">
+        <v>545</v>
+      </c>
+      <c r="BO18" s="266">
+        <v>1.1111412693510339E-2</v>
+      </c>
+      <c r="BP18" s="264">
+        <v>7.731464413795168E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="AK19" s="72"/>
       <c r="AL19" s="72"/>
@@ -5551,44 +5828,474 @@
       <c r="AU19" s="72"/>
       <c r="AV19" s="72"/>
     </row>
-    <row r="20" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="G20" s="71"/>
       <c r="AK20" s="72"/>
       <c r="AW20" s="53"/>
     </row>
-    <row r="21" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
+      <c r="BM23" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="24" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
+      <c r="BM24" t="s">
+        <v>20</v>
+      </c>
+      <c r="BN24" s="15">
+        <v>536</v>
+      </c>
+      <c r="BO24" s="264">
+        <v>-4.7111111111111104E-2</v>
+      </c>
+      <c r="BP24" s="264">
+        <v>1.132075471698113E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
+      <c r="BM25" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN25" s="15">
+        <v>546.51162790697674</v>
+      </c>
+      <c r="BO25" s="264">
+        <v>1.6240630405535139E-2</v>
+      </c>
+      <c r="BP25" s="264">
+        <v>0.12849008712355081</v>
+      </c>
     </row>
-    <row r="26" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
+      <c r="BM26" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN26" s="15">
+        <v>416.65277777777783</v>
+      </c>
+      <c r="BO26" s="264">
+        <v>5.3078449328449295E-2</v>
+      </c>
+      <c r="BP26" s="264">
+        <v>9.0714077952297911E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
+      <c r="BM27" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN27" s="15">
+        <v>436.36363636363637</v>
+      </c>
+      <c r="BO27" s="265">
+        <v>0.12207792207792201</v>
+      </c>
+      <c r="BP27" s="264">
+        <v>0.15636363636363648</v>
+      </c>
     </row>
-    <row r="28" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
+      <c r="BM28" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN28" s="15">
+        <v>422.41379310344831</v>
+      </c>
+      <c r="BO28" s="264">
+        <v>-1.4367816091954033E-2</v>
+      </c>
+      <c r="BP28" s="264">
+        <v>8.3112290008841905E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
+      <c r="BM29" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN29" s="15">
+        <v>616.89814814814815</v>
+      </c>
+      <c r="BO29" s="264">
+        <v>-2.4913621616431958E-2</v>
+      </c>
+      <c r="BP29" s="264">
+        <v>-3.2657089049020094E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
+      <c r="BM30" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN30" s="15">
+        <v>500</v>
+      </c>
+      <c r="BO30" s="264">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="264">
+        <v>4.1666666666666741E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
+      <c r="BM31" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN31" s="15">
+        <v>329.94</v>
+      </c>
+      <c r="BO31" s="264">
+        <v>1.1614377809721077E-2</v>
+      </c>
+      <c r="BP31" s="264">
+        <v>3.3044549291597169E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="BM32" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN32" s="15">
+        <v>763.88888888888891</v>
+      </c>
+      <c r="BO32" s="264">
+        <v>1.8518518518518601E-2</v>
+      </c>
+      <c r="BP32" s="264">
+        <v>9.8090277777777679E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM33" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN33" s="15">
+        <v>644.73684210526312</v>
+      </c>
+      <c r="BO33" s="264">
+        <v>4.9432057214977565E-3</v>
+      </c>
+      <c r="BP33" s="264">
+        <v>8.1773225008830774E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM34" t="s">
+        <v>25</v>
+      </c>
+      <c r="BN34" s="15">
+        <v>431.506849315068</v>
+      </c>
+      <c r="BO34" s="264">
+        <v>2.1989906272529947E-2</v>
+      </c>
+      <c r="BP34" s="264">
+        <v>9.5195049023015121E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM35" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN35" s="15">
+        <v>437.1</v>
+      </c>
+      <c r="BO35" s="264">
+        <v>3.4130981694630469E-2</v>
+      </c>
+      <c r="BP35" s="264">
+        <v>0.19841801541922433</v>
+      </c>
+    </row>
+    <row r="36" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM36" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN36" s="15">
+        <v>425.531914893617</v>
+      </c>
+      <c r="BO36" s="264">
+        <v>-3.0889892250517081E-2</v>
+      </c>
+      <c r="BP36" s="264">
+        <v>7.8920319877080702E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM37" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN37" s="15">
+        <v>1117</v>
+      </c>
+      <c r="BO37" s="264">
+        <v>-9.7517730496453625E-3</v>
+      </c>
+      <c r="BP37" s="264">
+        <v>1.7953157750842941E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM38" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN38" s="15">
+        <v>545</v>
+      </c>
+      <c r="BO38" s="266">
+        <v>1.1111412693510339E-2</v>
+      </c>
+      <c r="BP38" s="264">
+        <v>7.731464413795168E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM43" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN43" t="s">
+        <v>115</v>
+      </c>
+      <c r="BO43" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM44" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN44" s="15">
+        <v>536</v>
+      </c>
+      <c r="BO44" s="72">
+        <v>-4.7111111111111104E-2</v>
+      </c>
+      <c r="BP44" s="72">
+        <v>1.132075471698113E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM45" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN45" s="15">
+        <v>546.51162790697674</v>
+      </c>
+      <c r="BO45" s="72">
+        <v>1.6240630405535139E-2</v>
+      </c>
+      <c r="BP45" s="72">
+        <v>0.12849008712355081</v>
+      </c>
+    </row>
+    <row r="46" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM46" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN46" s="15">
+        <v>416.65277777777783</v>
+      </c>
+      <c r="BO46" s="72">
+        <v>5.3078449328449295E-2</v>
+      </c>
+      <c r="BP46" s="72">
+        <v>9.0714077952297911E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM47" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN47" s="15">
+        <v>436.36363636363637</v>
+      </c>
+      <c r="BO47" s="72">
+        <v>0.12207792207792201</v>
+      </c>
+      <c r="BP47" s="72">
+        <v>0.15636363636363648</v>
+      </c>
+    </row>
+    <row r="48" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM48" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN48" s="15">
+        <v>422.41379310344831</v>
+      </c>
+      <c r="BO48" s="72">
+        <v>-1.4367816091954033E-2</v>
+      </c>
+      <c r="BP48" s="72">
+        <v>8.3112290008841905E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM49" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN49" s="15">
+        <v>616.89814814814815</v>
+      </c>
+      <c r="BO49" s="72">
+        <v>-2.4913621616431958E-2</v>
+      </c>
+      <c r="BP49" s="72">
+        <v>-3.2657089049020094E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM50" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN50" s="15">
+        <v>500</v>
+      </c>
+      <c r="BO50" s="72">
+        <v>0</v>
+      </c>
+      <c r="BP50" s="72">
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM51" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN51" s="15">
+        <v>329.94</v>
+      </c>
+      <c r="BO51" s="72">
+        <v>1.1614377809721077E-2</v>
+      </c>
+      <c r="BP51" s="72">
+        <v>3.3044549291597169E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM52" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN52" s="15">
+        <v>763.88888888888891</v>
+      </c>
+      <c r="BO52" s="72">
+        <v>1.8518518518518601E-2</v>
+      </c>
+      <c r="BP52" s="72">
+        <v>9.8090277777777679E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM53" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN53" s="15">
+        <v>644.73684210526312</v>
+      </c>
+      <c r="BO53" s="72">
+        <v>4.9432057214977565E-3</v>
+      </c>
+      <c r="BP53" s="72">
+        <v>8.1773225008830774E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM54" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN54" s="15">
+        <v>431.506849315068</v>
+      </c>
+      <c r="BO54" s="72">
+        <v>2.1989906272529947E-2</v>
+      </c>
+      <c r="BP54" s="72">
+        <v>9.5195049023015121E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM55" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN55" s="15">
+        <v>437.1</v>
+      </c>
+      <c r="BO55" s="72">
+        <v>3.4130981694630469E-2</v>
+      </c>
+      <c r="BP55" s="72">
+        <v>0.19841801541922433</v>
+      </c>
+    </row>
+    <row r="56" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM56" t="s">
+        <v>123</v>
+      </c>
+      <c r="BN56" s="15">
+        <v>425.531914893617</v>
+      </c>
+      <c r="BO56" s="72">
+        <v>-3.0889892250517081E-2</v>
+      </c>
+      <c r="BP56" s="72">
+        <v>7.8920319877080702E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM57" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN57" s="15">
+        <v>1117</v>
+      </c>
+      <c r="BO57" s="72">
+        <v>-9.7517730496453625E-3</v>
+      </c>
+      <c r="BP57" s="72">
+        <v>1.7953157750842941E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="65:68" x14ac:dyDescent="0.2">
+      <c r="BM58" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN58" s="15">
+        <v>545</v>
+      </c>
+      <c r="BO58" s="267">
+        <v>1.1111412693510339E-2</v>
+      </c>
+      <c r="BP58" s="72">
+        <v>7.731464413795168E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5721,96 +6428,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
     </row>
     <row r="2" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="244" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="237">
+      <c r="C2" s="245"/>
+      <c r="D2" s="241">
         <v>2022</v>
       </c>
-      <c r="E2" s="238"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="244">
+      <c r="E2" s="242"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="243"/>
+      <c r="M2" s="243"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="243"/>
+      <c r="P2" s="248">
         <v>2023</v>
       </c>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="245"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="245">
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="249"/>
+      <c r="AA2" s="249"/>
+      <c r="AB2" s="249">
         <v>2024</v>
       </c>
-      <c r="AC2" s="245"/>
-      <c r="AD2" s="245"/>
-      <c r="AE2" s="245"/>
-      <c r="AF2" s="245"/>
+      <c r="AC2" s="249"/>
+      <c r="AD2" s="249"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="249"/>
       <c r="AG2" s="172"/>
       <c r="AH2" s="172"/>
       <c r="AI2" s="172"/>
       <c r="AJ2" s="172"/>
-      <c r="AK2" s="228" t="s">
+      <c r="AK2" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="228"/>
-      <c r="AM2" s="228"/>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="228"/>
-      <c r="AP2" s="228"/>
-      <c r="AQ2" s="228"/>
-      <c r="AR2" s="228"/>
-      <c r="AS2" s="228"/>
-      <c r="AT2" s="228"/>
-      <c r="AU2" s="228"/>
-      <c r="AV2" s="228"/>
-      <c r="AW2" s="228"/>
-      <c r="AX2" s="233"/>
-      <c r="AY2" s="230" t="s">
+      <c r="AL2" s="232"/>
+      <c r="AM2" s="232"/>
+      <c r="AN2" s="232"/>
+      <c r="AO2" s="232"/>
+      <c r="AP2" s="232"/>
+      <c r="AQ2" s="232"/>
+      <c r="AR2" s="232"/>
+      <c r="AS2" s="232"/>
+      <c r="AT2" s="232"/>
+      <c r="AU2" s="232"/>
+      <c r="AV2" s="232"/>
+      <c r="AW2" s="232"/>
+      <c r="AX2" s="237"/>
+      <c r="AY2" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="231"/>
-      <c r="BA2" s="231"/>
-      <c r="BB2" s="231"/>
-      <c r="BC2" s="231"/>
-      <c r="BD2" s="231"/>
-      <c r="BE2" s="231"/>
-      <c r="BF2" s="231"/>
-      <c r="BG2" s="231"/>
-      <c r="BH2" s="231"/>
-      <c r="BI2" s="232"/>
+      <c r="AZ2" s="235"/>
+      <c r="BA2" s="235"/>
+      <c r="BB2" s="235"/>
+      <c r="BC2" s="235"/>
+      <c r="BD2" s="235"/>
+      <c r="BE2" s="235"/>
+      <c r="BF2" s="235"/>
+      <c r="BG2" s="235"/>
+      <c r="BH2" s="235"/>
+      <c r="BI2" s="236"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="242"/>
-      <c r="C3" s="243"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
       <c r="D3" s="56" t="s">
         <v>0</v>
       </c>
@@ -8297,10 +9004,10 @@
       </c>
     </row>
     <row r="15" spans="1:61" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="234" t="s">
+      <c r="B15" s="238" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="235"/>
+      <c r="C15" s="239"/>
       <c r="D15" s="38">
         <v>730.02347994203103</v>
       </c>
@@ -8718,82 +9425,82 @@
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:60" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="257" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="249">
+      <c r="B2" s="258"/>
+      <c r="C2" s="253">
         <v>2022</v>
       </c>
-      <c r="D2" s="250"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="259">
+      <c r="D2" s="254"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="256"/>
+      <c r="O2" s="263">
         <v>2023</v>
       </c>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="257"/>
-      <c r="V2" s="257"/>
-      <c r="W2" s="257"/>
-      <c r="X2" s="257"/>
-      <c r="Y2" s="257"/>
-      <c r="Z2" s="258"/>
-      <c r="AA2" s="259">
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="261"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="263">
         <v>2024</v>
       </c>
-      <c r="AB2" s="257"/>
-      <c r="AC2" s="257"/>
-      <c r="AD2" s="257"/>
-      <c r="AE2" s="257"/>
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="261"/>
+      <c r="AD2" s="261"/>
+      <c r="AE2" s="261"/>
       <c r="AF2" s="95"/>
       <c r="AG2" s="95"/>
       <c r="AH2" s="95"/>
       <c r="AI2" s="95"/>
-      <c r="AJ2" s="257" t="s">
+      <c r="AJ2" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="AK2" s="257"/>
-      <c r="AL2" s="257"/>
-      <c r="AM2" s="257"/>
-      <c r="AN2" s="257"/>
-      <c r="AO2" s="257"/>
-      <c r="AP2" s="257"/>
-      <c r="AQ2" s="257"/>
-      <c r="AR2" s="257"/>
-      <c r="AS2" s="257"/>
-      <c r="AT2" s="257"/>
-      <c r="AU2" s="257"/>
-      <c r="AV2" s="257"/>
-      <c r="AW2" s="258"/>
-      <c r="AX2" s="246" t="s">
+      <c r="AK2" s="261"/>
+      <c r="AL2" s="261"/>
+      <c r="AM2" s="261"/>
+      <c r="AN2" s="261"/>
+      <c r="AO2" s="261"/>
+      <c r="AP2" s="261"/>
+      <c r="AQ2" s="261"/>
+      <c r="AR2" s="261"/>
+      <c r="AS2" s="261"/>
+      <c r="AT2" s="261"/>
+      <c r="AU2" s="261"/>
+      <c r="AV2" s="261"/>
+      <c r="AW2" s="262"/>
+      <c r="AX2" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="AY2" s="247"/>
-      <c r="AZ2" s="247"/>
-      <c r="BA2" s="247"/>
-      <c r="BB2" s="247"/>
-      <c r="BC2" s="247"/>
-      <c r="BD2" s="247"/>
-      <c r="BE2" s="247"/>
-      <c r="BF2" s="247"/>
-      <c r="BG2" s="247"/>
-      <c r="BH2" s="248"/>
+      <c r="AY2" s="251"/>
+      <c r="AZ2" s="251"/>
+      <c r="BA2" s="251"/>
+      <c r="BB2" s="251"/>
+      <c r="BC2" s="251"/>
+      <c r="BD2" s="251"/>
+      <c r="BE2" s="251"/>
+      <c r="BF2" s="251"/>
+      <c r="BG2" s="251"/>
+      <c r="BH2" s="252"/>
     </row>
     <row r="3" spans="1:60" s="7" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="255"/>
-      <c r="B3" s="256"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="260"/>
       <c r="C3" s="131" t="s">
         <v>0</v>
       </c>
@@ -11247,10 +11954,10 @@
       </c>
     </row>
     <row r="15" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="229"/>
+      <c r="B15" s="233"/>
       <c r="C15" s="47">
         <f>AVERAGE(C4:C14)</f>
         <v>8.0843345048625608</v>
@@ -11343,24 +12050,24 @@
       <c r="AC15" s="129">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AD15" s="260">
+      <c r="AD15" s="212">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AE15" s="261">
+      <c r="AE15" s="213">
         <v>8.4</v>
       </c>
-      <c r="AF15" s="262">
+      <c r="AF15" s="214">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AG15" s="263">
+      <c r="AG15" s="215">
         <f>+AVERAGE(AG4:AG14)</f>
         <v>8.2537454645355286</v>
       </c>
-      <c r="AH15" s="263">
+      <c r="AH15" s="215">
         <f>+AVERAGE(AH4:AH14)</f>
         <v>8.2517858587275921</v>
       </c>
-      <c r="AI15" s="263">
+      <c r="AI15" s="215">
         <f>+AVERAGE(AI4:AI14)</f>
         <v>8.3361460658532298</v>
       </c>

--- a/2024_09_housing_prices.xlsx
+++ b/2024_09_housing_prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.khamidov\Documents\09_september\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.ortiqov\Desktop\Cerr_old\Cerr\Regular\уй_жой\2024\09_september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4EA208-42D6-4C93-93EB-90E81A3B32ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB786131-DCD3-45C8-B300-ED721FC51EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7125" yWindow="14610" windowWidth="14385" windowHeight="11445" xr2:uid="{F0A68128-6003-4809-9CD7-322F14E0A5F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{F0A68128-6003-4809-9CD7-322F14E0A5F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Регион_динамика_цен" sheetId="31" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1765,154 +1766,154 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2249,12 +2250,12 @@
   </sheetPr>
   <dimension ref="A1:BP58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BL24" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="AY4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="BM43" sqref="BM43:BP58"/>
+      <selection pane="bottomRight" activeCell="BG4" sqref="BG4:BG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2277,82 +2278,82 @@
   <sheetData>
     <row r="1" spans="1:68" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="223" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="220"/>
-      <c r="D2" s="226">
+      <c r="C2" s="224"/>
+      <c r="D2" s="230">
         <v>2022</v>
       </c>
-      <c r="E2" s="227"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="230">
+      <c r="E2" s="231"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="234">
         <v>2023</v>
       </c>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231"/>
-      <c r="X2" s="231"/>
-      <c r="Y2" s="231"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="233"/>
-      <c r="AB2" s="230">
+      <c r="Q2" s="235"/>
+      <c r="R2" s="235"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="237"/>
+      <c r="AB2" s="234">
         <v>2024</v>
       </c>
-      <c r="AC2" s="231"/>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="233"/>
+      <c r="AC2" s="235"/>
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="237"/>
       <c r="AG2" s="163"/>
       <c r="AH2" s="163"/>
       <c r="AI2" s="163"/>
       <c r="AJ2" s="163"/>
-      <c r="AK2" s="230" t="s">
+      <c r="AK2" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="231"/>
-      <c r="AM2" s="231"/>
-      <c r="AN2" s="231"/>
-      <c r="AO2" s="231"/>
-      <c r="AP2" s="231"/>
-      <c r="AQ2" s="231"/>
-      <c r="AR2" s="231"/>
-      <c r="AS2" s="231"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="232"/>
-      <c r="AV2" s="232"/>
-      <c r="AW2" s="231"/>
-      <c r="AX2" s="233"/>
-      <c r="AY2" s="216" t="s">
+      <c r="AL2" s="235"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="235"/>
+      <c r="AS2" s="235"/>
+      <c r="AT2" s="236"/>
+      <c r="AU2" s="236"/>
+      <c r="AV2" s="236"/>
+      <c r="AW2" s="235"/>
+      <c r="AX2" s="237"/>
+      <c r="AY2" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="AZ2" s="217"/>
-      <c r="BA2" s="217"/>
-      <c r="BB2" s="217"/>
-      <c r="BC2" s="217"/>
-      <c r="BD2" s="217"/>
-      <c r="BE2" s="217"/>
-      <c r="BF2" s="217"/>
-      <c r="BG2" s="217"/>
-      <c r="BH2" s="217"/>
-      <c r="BI2" s="218"/>
+      <c r="AZ2" s="221"/>
+      <c r="BA2" s="221"/>
+      <c r="BB2" s="221"/>
+      <c r="BC2" s="221"/>
+      <c r="BD2" s="221"/>
+      <c r="BE2" s="221"/>
+      <c r="BF2" s="221"/>
+      <c r="BG2" s="221"/>
+      <c r="BH2" s="221"/>
+      <c r="BI2" s="222"/>
     </row>
     <row r="3" spans="1:68" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="221"/>
-      <c r="C3" s="222"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="226"/>
       <c r="D3" s="69" t="s">
         <v>0</v>
       </c>
@@ -2756,10 +2757,10 @@
       <c r="BN4" s="15">
         <v>536</v>
       </c>
-      <c r="BO4" s="264">
+      <c r="BO4" s="216">
         <v>-4.7111111111111104E-2</v>
       </c>
-      <c r="BP4" s="264">
+      <c r="BP4" s="216">
         <v>1.132075471698113E-2</v>
       </c>
     </row>
@@ -2870,7 +2871,7 @@
         <v>537.77777777777783</v>
       </c>
       <c r="AJ5" s="194">
-        <v>546.51162790697674</v>
+        <v>545</v>
       </c>
       <c r="AK5" s="44">
         <f t="shared" si="0"/>
@@ -2962,15 +2963,15 @@
       </c>
       <c r="BG5" s="119">
         <f t="shared" ref="BG5:BG17" si="23">+AJ5/AI5-1</f>
-        <v>1.6240630405535139E-2</v>
+        <v>1.3429752066115519E-2</v>
       </c>
       <c r="BH5" s="119">
         <f t="shared" ref="BH5:BH17" si="24">+AJ5/AA5-1</f>
-        <v>9.3023255813953432E-2</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="BI5" s="120">
         <f t="shared" ref="BI5:BI17" si="25">+AJ5/X5-1</f>
-        <v>0.12849008712355081</v>
+        <v>0.12536873156342176</v>
       </c>
       <c r="BJ5" s="15"/>
       <c r="BM5" t="s">
@@ -2979,10 +2980,10 @@
       <c r="BN5" s="15">
         <v>546.51162790697674</v>
       </c>
-      <c r="BO5" s="264">
+      <c r="BO5" s="216">
         <v>1.6240630405535139E-2</v>
       </c>
-      <c r="BP5" s="264">
+      <c r="BP5" s="216">
         <v>0.12849008712355081</v>
       </c>
     </row>
@@ -3093,7 +3094,7 @@
         <v>395.6521739130435</v>
       </c>
       <c r="AJ6" s="194">
-        <v>416.65277777777783</v>
+        <v>405</v>
       </c>
       <c r="AK6" s="44">
         <f t="shared" si="0"/>
@@ -3185,15 +3186,15 @@
       </c>
       <c r="BG6" s="119">
         <f t="shared" si="23"/>
-        <v>5.3078449328449295E-2</v>
+        <v>2.3626373626373542E-2</v>
       </c>
       <c r="BH6" s="119">
         <f t="shared" si="24"/>
-        <v>0.19900079936051163</v>
+        <v>0.16546762589928066</v>
       </c>
       <c r="BI6" s="120">
         <f t="shared" si="25"/>
-        <v>9.0714077952297911E-2</v>
+        <v>6.0209424083769614E-2</v>
       </c>
       <c r="BJ6" s="15"/>
       <c r="BM6" t="s">
@@ -3202,10 +3203,10 @@
       <c r="BN6" s="15">
         <v>416.65277777777783</v>
       </c>
-      <c r="BO6" s="264">
+      <c r="BO6" s="216">
         <v>5.3078449328449295E-2</v>
       </c>
-      <c r="BP6" s="264">
+      <c r="BP6" s="216">
         <v>9.0714077952297911E-2</v>
       </c>
     </row>
@@ -3316,7 +3317,7 @@
         <v>388.88888888888891</v>
       </c>
       <c r="AJ7" s="194">
-        <v>436.36363636363637</v>
+        <v>407</v>
       </c>
       <c r="AK7" s="44">
         <f t="shared" si="0"/>
@@ -3408,15 +3409,15 @@
       </c>
       <c r="BG7" s="119">
         <f t="shared" si="23"/>
-        <v>0.12207792207792201</v>
+        <v>4.6571428571428486E-2</v>
       </c>
       <c r="BH7" s="119">
         <f t="shared" si="24"/>
-        <v>0.14953200392449628</v>
+        <v>7.2178079493743663E-2</v>
       </c>
       <c r="BI7" s="120">
         <f t="shared" si="25"/>
-        <v>0.15636363636363648</v>
+        <v>7.855000000000012E-2</v>
       </c>
       <c r="BJ7" s="15"/>
       <c r="BM7" t="s">
@@ -3425,10 +3426,10 @@
       <c r="BN7" s="15">
         <v>436.36363636363637</v>
       </c>
-      <c r="BO7" s="265">
+      <c r="BO7" s="217">
         <v>0.12207792207792201</v>
       </c>
-      <c r="BP7" s="264">
+      <c r="BP7" s="216">
         <v>0.15636363636363648</v>
       </c>
     </row>
@@ -3539,7 +3540,7 @@
         <v>428.57142857142861</v>
       </c>
       <c r="AJ8" s="194">
-        <v>422.41379310344831</v>
+        <v>422</v>
       </c>
       <c r="AK8" s="44">
         <f t="shared" si="0"/>
@@ -3631,15 +3632,15 @@
       </c>
       <c r="BG8" s="119">
         <f t="shared" si="23"/>
-        <v>-1.4367816091954033E-2</v>
+        <v>-1.5333333333333421E-2</v>
       </c>
       <c r="BH8" s="119">
         <f t="shared" si="24"/>
-        <v>4.8423423423423539E-2</v>
+        <v>4.7396396396396367E-2</v>
       </c>
       <c r="BI8" s="120">
         <f t="shared" si="25"/>
-        <v>8.3112290008841905E-2</v>
+        <v>8.2051282051281982E-2</v>
       </c>
       <c r="BJ8" s="15"/>
       <c r="BM8" t="s">
@@ -3648,10 +3649,10 @@
       <c r="BN8" s="15">
         <v>422.41379310344831</v>
       </c>
-      <c r="BO8" s="264">
+      <c r="BO8" s="216">
         <v>-1.4367816091954033E-2</v>
       </c>
-      <c r="BP8" s="264">
+      <c r="BP8" s="216">
         <v>8.3112290008841905E-2</v>
       </c>
     </row>
@@ -3762,7 +3763,7 @@
         <v>632.66</v>
       </c>
       <c r="AJ9" s="194">
-        <v>616.89814814814815</v>
+        <v>619</v>
       </c>
       <c r="AK9" s="44">
         <f t="shared" si="0"/>
@@ -3854,15 +3855,15 @@
       </c>
       <c r="BG9" s="119">
         <f t="shared" si="23"/>
-        <v>-2.4913621616431958E-2</v>
+        <v>-2.1591376094584724E-2</v>
       </c>
       <c r="BH9" s="119">
         <f t="shared" si="24"/>
-        <v>-3.1359178240739638E-3</v>
+        <v>2.6052715384627945E-4</v>
       </c>
       <c r="BI9" s="120">
         <f t="shared" si="25"/>
-        <v>-3.2657089049020094E-2</v>
+        <v>-2.9361226523153316E-2</v>
       </c>
       <c r="BJ9" s="15"/>
       <c r="BM9" t="s">
@@ -3871,10 +3872,10 @@
       <c r="BN9" s="15">
         <v>616.89814814814815</v>
       </c>
-      <c r="BO9" s="264">
+      <c r="BO9" s="216">
         <v>-2.4913621616431958E-2</v>
       </c>
-      <c r="BP9" s="264">
+      <c r="BP9" s="216">
         <v>-3.2657089049020094E-2</v>
       </c>
     </row>
@@ -3985,7 +3986,7 @@
         <v>500</v>
       </c>
       <c r="AJ10" s="194">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AK10" s="44">
         <f t="shared" si="0"/>
@@ -4077,15 +4078,15 @@
       </c>
       <c r="BG10" s="119">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-1.4000000000000012E-2</v>
       </c>
       <c r="BH10" s="119">
         <f t="shared" si="24"/>
-        <v>3.8461538461538325E-2</v>
+        <v>2.3923076923076936E-2</v>
       </c>
       <c r="BI10" s="120">
         <f t="shared" si="25"/>
-        <v>4.1666666666666741E-2</v>
+        <v>2.7083333333333348E-2</v>
       </c>
       <c r="BJ10" s="15"/>
       <c r="BM10" t="s">
@@ -4094,10 +4095,10 @@
       <c r="BN10" s="15">
         <v>500</v>
       </c>
-      <c r="BO10" s="264">
+      <c r="BO10" s="216">
         <v>0</v>
       </c>
-      <c r="BP10" s="264">
+      <c r="BP10" s="216">
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
@@ -4208,7 +4209,7 @@
         <v>326.15194805194812</v>
       </c>
       <c r="AJ11" s="194">
-        <v>329.94</v>
+        <v>327</v>
       </c>
       <c r="AK11" s="44">
         <f t="shared" si="0"/>
@@ -4300,15 +4301,15 @@
       </c>
       <c r="BG11" s="119">
         <f t="shared" si="23"/>
-        <v>1.1614377809721077E-2</v>
+        <v>2.6001744067976063E-3</v>
       </c>
       <c r="BH11" s="119">
         <f t="shared" si="24"/>
-        <v>5.0163376481818123E-2</v>
+        <v>4.0805674090909072E-2</v>
       </c>
       <c r="BI11" s="120">
         <f t="shared" si="25"/>
-        <v>3.3044549291597169E-2</v>
+        <v>2.3839387823095803E-2</v>
       </c>
       <c r="BJ11" s="15"/>
       <c r="BM11" t="s">
@@ -4317,10 +4318,10 @@
       <c r="BN11" s="15">
         <v>329.94</v>
       </c>
-      <c r="BO11" s="264">
+      <c r="BO11" s="216">
         <v>1.1614377809721077E-2</v>
       </c>
-      <c r="BP11" s="264">
+      <c r="BP11" s="216">
         <v>3.3044549291597169E-2</v>
       </c>
     </row>
@@ -4540,10 +4541,10 @@
       <c r="BN12" s="15">
         <v>763.88888888888891</v>
       </c>
-      <c r="BO12" s="264">
+      <c r="BO12" s="216">
         <v>1.8518518518518601E-2</v>
       </c>
-      <c r="BP12" s="264">
+      <c r="BP12" s="216">
         <v>9.8090277777777679E-2</v>
       </c>
     </row>
@@ -4654,7 +4655,7 @@
         <v>641.56545209176784</v>
       </c>
       <c r="AJ13" s="194">
-        <v>644.73684210526312</v>
+        <v>640</v>
       </c>
       <c r="AK13" s="44">
         <f t="shared" si="0"/>
@@ -4746,15 +4747,15 @@
       </c>
       <c r="BG13" s="119">
         <f t="shared" si="23"/>
-        <v>4.9432057214977565E-3</v>
+        <v>-2.4400504838030246E-3</v>
       </c>
       <c r="BH13" s="119">
         <f t="shared" si="24"/>
-        <v>2.8835386338185831E-2</v>
+        <v>2.1276595744680993E-2</v>
       </c>
       <c r="BI13" s="120">
         <f t="shared" si="25"/>
-        <v>8.1773225008830774E-2</v>
+        <v>7.3825503355704702E-2</v>
       </c>
       <c r="BJ13" s="15"/>
       <c r="BM13" t="s">
@@ -4763,10 +4764,10 @@
       <c r="BN13" s="15">
         <v>644.73684210526312</v>
       </c>
-      <c r="BO13" s="264">
+      <c r="BO13" s="216">
         <v>4.9432057214977565E-3</v>
       </c>
-      <c r="BP13" s="264">
+      <c r="BP13" s="216">
         <v>8.1773225008830774E-2</v>
       </c>
     </row>
@@ -4877,7 +4878,7 @@
         <v>422.222222222222</v>
       </c>
       <c r="AJ14" s="194">
-        <v>431.506849315068</v>
+        <v>427</v>
       </c>
       <c r="AK14" s="44">
         <f t="shared" si="0"/>
@@ -4969,15 +4970,15 @@
       </c>
       <c r="BG14" s="119">
         <f t="shared" si="23"/>
-        <v>2.1989906272529947E-2</v>
+        <v>1.1315789473684834E-2</v>
       </c>
       <c r="BH14" s="119">
         <f t="shared" si="24"/>
-        <v>6.6435520547943883E-2</v>
+        <v>5.5297193999999994E-2</v>
       </c>
       <c r="BI14" s="120">
         <f t="shared" si="25"/>
-        <v>9.5195049023015121E-2</v>
+        <v>8.3756345177665059E-2</v>
       </c>
       <c r="BJ14" s="15"/>
       <c r="BM14" t="s">
@@ -4986,10 +4987,10 @@
       <c r="BN14" s="15">
         <v>431.506849315068</v>
       </c>
-      <c r="BO14" s="264">
+      <c r="BO14" s="216">
         <v>2.1989906272529947E-2</v>
       </c>
-      <c r="BP14" s="264">
+      <c r="BP14" s="216">
         <v>9.5195049023015121E-2</v>
       </c>
     </row>
@@ -5100,7 +5101,7 @@
         <v>422.67373063683311</v>
       </c>
       <c r="AJ15" s="194">
-        <v>437.1</v>
+        <v>436</v>
       </c>
       <c r="AK15" s="44">
         <f t="shared" si="0"/>
@@ -5192,15 +5193,15 @@
       </c>
       <c r="BG15" s="119">
         <f t="shared" si="23"/>
-        <v>3.4130981694630469E-2</v>
+        <v>3.1528501530219355E-2</v>
       </c>
       <c r="BH15" s="119">
         <f t="shared" si="24"/>
-        <v>7.9429814600000093E-2</v>
+        <v>7.6713336000000076E-2</v>
       </c>
       <c r="BI15" s="120">
         <f t="shared" si="25"/>
-        <v>0.19841801541922433</v>
+        <v>0.19540209270826292</v>
       </c>
       <c r="BJ15" s="15"/>
       <c r="BM15" t="s">
@@ -5209,10 +5210,10 @@
       <c r="BN15" s="15">
         <v>437.1</v>
       </c>
-      <c r="BO15" s="264">
+      <c r="BO15" s="216">
         <v>3.4130981694630469E-2</v>
       </c>
-      <c r="BP15" s="264">
+      <c r="BP15" s="216">
         <v>0.19841801541922433</v>
       </c>
     </row>
@@ -5323,7 +5324,7 @@
         <v>439.09552845528458</v>
       </c>
       <c r="AJ16" s="194">
-        <v>425.531914893617</v>
+        <v>429</v>
       </c>
       <c r="AK16" s="44">
         <f t="shared" si="0"/>
@@ -5415,15 +5416,15 @@
       </c>
       <c r="BG16" s="119">
         <f t="shared" si="23"/>
-        <v>-3.0889892250517081E-2</v>
+        <v>-2.2991644872358719E-2</v>
       </c>
       <c r="BH16" s="119">
         <f t="shared" si="24"/>
-        <v>4.1153155995504065E-2</v>
+        <v>4.9638554216867581E-2</v>
       </c>
       <c r="BI16" s="120">
         <f t="shared" si="25"/>
-        <v>7.8920319877080702E-2</v>
+        <v>8.7713520484079099E-2</v>
       </c>
       <c r="BJ16" s="15"/>
       <c r="BM16" t="s">
@@ -5432,10 +5433,10 @@
       <c r="BN16" s="15">
         <v>425.531914893617</v>
       </c>
-      <c r="BO16" s="264">
+      <c r="BO16" s="216">
         <v>-3.0889892250517081E-2</v>
       </c>
-      <c r="BP16" s="264">
+      <c r="BP16" s="216">
         <v>7.8920319877080702E-2</v>
       </c>
     </row>
@@ -5655,31 +5656,31 @@
       <c r="BN17" s="15">
         <v>1117</v>
       </c>
-      <c r="BO17" s="264">
+      <c r="BO17" s="216">
         <v>-9.7517730496453625E-3</v>
       </c>
-      <c r="BP17" s="264">
+      <c r="BP17" s="216">
         <v>1.7953157750842941E-2</v>
       </c>
     </row>
     <row r="18" spans="1:68" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="227" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="225"/>
-      <c r="H18" s="225"/>
-      <c r="I18" s="225"/>
-      <c r="J18" s="225"/>
-      <c r="K18" s="225"/>
-      <c r="L18" s="225"/>
-      <c r="M18" s="225"/>
-      <c r="N18" s="225"/>
-      <c r="O18" s="225"/>
-      <c r="P18" s="225"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="229"/>
+      <c r="M18" s="229"/>
+      <c r="N18" s="229"/>
+      <c r="O18" s="229"/>
+      <c r="P18" s="229"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
@@ -5790,15 +5791,15 @@
       </c>
       <c r="BG18" s="165">
         <f>+AVERAGE(BG4:BG17)</f>
-        <v>1.1111412693510339E-2</v>
+        <v>1.0265178034501127E-3</v>
       </c>
       <c r="BH18" s="165">
         <f>+(1+AY18)*(1+AZ18)*(1+BB18)*(1+BA18)*(1+BC18)*(1+BD18)*(1+BE18)*(1+BF18)*(1+BG18)-1</f>
-        <v>6.2219413578732397E-2</v>
+        <v>5.1624763966790832E-2</v>
       </c>
       <c r="BI18" s="166">
         <f>+AVERAGE(BI4:BI17)</f>
-        <v>7.731464413795168E-2</v>
+        <v>6.6843041735933056E-2</v>
       </c>
       <c r="BM18" t="s">
         <v>79</v>
@@ -5806,10 +5807,10 @@
       <c r="BN18" s="15">
         <v>545</v>
       </c>
-      <c r="BO18" s="266">
+      <c r="BO18" s="218">
         <v>1.1111412693510339E-2</v>
       </c>
-      <c r="BP18" s="264">
+      <c r="BP18" s="216">
         <v>7.731464413795168E-2</v>
       </c>
     </row>
@@ -5863,10 +5864,10 @@
       <c r="BN24" s="15">
         <v>536</v>
       </c>
-      <c r="BO24" s="264">
+      <c r="BO24" s="216">
         <v>-4.7111111111111104E-2</v>
       </c>
-      <c r="BP24" s="264">
+      <c r="BP24" s="216">
         <v>1.132075471698113E-2</v>
       </c>
     </row>
@@ -5878,10 +5879,10 @@
       <c r="BN25" s="15">
         <v>546.51162790697674</v>
       </c>
-      <c r="BO25" s="264">
+      <c r="BO25" s="216">
         <v>1.6240630405535139E-2</v>
       </c>
-      <c r="BP25" s="264">
+      <c r="BP25" s="216">
         <v>0.12849008712355081</v>
       </c>
     </row>
@@ -5893,10 +5894,10 @@
       <c r="BN26" s="15">
         <v>416.65277777777783</v>
       </c>
-      <c r="BO26" s="264">
+      <c r="BO26" s="216">
         <v>5.3078449328449295E-2</v>
       </c>
-      <c r="BP26" s="264">
+      <c r="BP26" s="216">
         <v>9.0714077952297911E-2</v>
       </c>
     </row>
@@ -5908,10 +5909,10 @@
       <c r="BN27" s="15">
         <v>436.36363636363637</v>
       </c>
-      <c r="BO27" s="265">
+      <c r="BO27" s="217">
         <v>0.12207792207792201</v>
       </c>
-      <c r="BP27" s="264">
+      <c r="BP27" s="216">
         <v>0.15636363636363648</v>
       </c>
     </row>
@@ -5923,10 +5924,10 @@
       <c r="BN28" s="15">
         <v>422.41379310344831</v>
       </c>
-      <c r="BO28" s="264">
+      <c r="BO28" s="216">
         <v>-1.4367816091954033E-2</v>
       </c>
-      <c r="BP28" s="264">
+      <c r="BP28" s="216">
         <v>8.3112290008841905E-2</v>
       </c>
     </row>
@@ -5938,10 +5939,10 @@
       <c r="BN29" s="15">
         <v>616.89814814814815</v>
       </c>
-      <c r="BO29" s="264">
+      <c r="BO29" s="216">
         <v>-2.4913621616431958E-2</v>
       </c>
-      <c r="BP29" s="264">
+      <c r="BP29" s="216">
         <v>-3.2657089049020094E-2</v>
       </c>
     </row>
@@ -5953,10 +5954,10 @@
       <c r="BN30" s="15">
         <v>500</v>
       </c>
-      <c r="BO30" s="264">
+      <c r="BO30" s="216">
         <v>0</v>
       </c>
-      <c r="BP30" s="264">
+      <c r="BP30" s="216">
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
@@ -5968,10 +5969,10 @@
       <c r="BN31" s="15">
         <v>329.94</v>
       </c>
-      <c r="BO31" s="264">
+      <c r="BO31" s="216">
         <v>1.1614377809721077E-2</v>
       </c>
-      <c r="BP31" s="264">
+      <c r="BP31" s="216">
         <v>3.3044549291597169E-2</v>
       </c>
     </row>
@@ -5982,10 +5983,10 @@
       <c r="BN32" s="15">
         <v>763.88888888888891</v>
       </c>
-      <c r="BO32" s="264">
+      <c r="BO32" s="216">
         <v>1.8518518518518601E-2</v>
       </c>
-      <c r="BP32" s="264">
+      <c r="BP32" s="216">
         <v>9.8090277777777679E-2</v>
       </c>
     </row>
@@ -5996,10 +5997,10 @@
       <c r="BN33" s="15">
         <v>644.73684210526312</v>
       </c>
-      <c r="BO33" s="264">
+      <c r="BO33" s="216">
         <v>4.9432057214977565E-3</v>
       </c>
-      <c r="BP33" s="264">
+      <c r="BP33" s="216">
         <v>8.1773225008830774E-2</v>
       </c>
     </row>
@@ -6010,10 +6011,10 @@
       <c r="BN34" s="15">
         <v>431.506849315068</v>
       </c>
-      <c r="BO34" s="264">
+      <c r="BO34" s="216">
         <v>2.1989906272529947E-2</v>
       </c>
-      <c r="BP34" s="264">
+      <c r="BP34" s="216">
         <v>9.5195049023015121E-2</v>
       </c>
     </row>
@@ -6024,10 +6025,10 @@
       <c r="BN35" s="15">
         <v>437.1</v>
       </c>
-      <c r="BO35" s="264">
+      <c r="BO35" s="216">
         <v>3.4130981694630469E-2</v>
       </c>
-      <c r="BP35" s="264">
+      <c r="BP35" s="216">
         <v>0.19841801541922433</v>
       </c>
     </row>
@@ -6038,10 +6039,10 @@
       <c r="BN36" s="15">
         <v>425.531914893617</v>
       </c>
-      <c r="BO36" s="264">
+      <c r="BO36" s="216">
         <v>-3.0889892250517081E-2</v>
       </c>
-      <c r="BP36" s="264">
+      <c r="BP36" s="216">
         <v>7.8920319877080702E-2</v>
       </c>
     </row>
@@ -6052,10 +6053,10 @@
       <c r="BN37" s="15">
         <v>1117</v>
       </c>
-      <c r="BO37" s="264">
+      <c r="BO37" s="216">
         <v>-9.7517730496453625E-3</v>
       </c>
-      <c r="BP37" s="264">
+      <c r="BP37" s="216">
         <v>1.7953157750842941E-2</v>
       </c>
     </row>
@@ -6066,10 +6067,10 @@
       <c r="BN38" s="15">
         <v>545</v>
       </c>
-      <c r="BO38" s="266">
+      <c r="BO38" s="218">
         <v>1.1111412693510339E-2</v>
       </c>
-      <c r="BP38" s="264">
+      <c r="BP38" s="216">
         <v>7.731464413795168E-2</v>
       </c>
     </row>
@@ -6290,7 +6291,7 @@
       <c r="BN58" s="15">
         <v>545</v>
       </c>
-      <c r="BO58" s="267">
+      <c r="BO58" s="219">
         <v>1.1111412693510339E-2</v>
       </c>
       <c r="BP58" s="72">
@@ -6403,11 +6404,11 @@
   <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomRight" activeCell="AJ4" sqref="AJ4:AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6428,96 +6429,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
     </row>
     <row r="2" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="248" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="245"/>
-      <c r="D2" s="241">
+      <c r="C2" s="249"/>
+      <c r="D2" s="245">
         <v>2022</v>
       </c>
-      <c r="E2" s="242"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="243"/>
-      <c r="P2" s="248">
+      <c r="E2" s="246"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="252">
         <v>2023</v>
       </c>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="249"/>
-      <c r="AB2" s="249">
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="253"/>
+      <c r="U2" s="253"/>
+      <c r="V2" s="253"/>
+      <c r="W2" s="253"/>
+      <c r="X2" s="253"/>
+      <c r="Y2" s="253"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="253"/>
+      <c r="AB2" s="253">
         <v>2024</v>
       </c>
-      <c r="AC2" s="249"/>
-      <c r="AD2" s="249"/>
-      <c r="AE2" s="249"/>
-      <c r="AF2" s="249"/>
+      <c r="AC2" s="253"/>
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="253"/>
       <c r="AG2" s="172"/>
       <c r="AH2" s="172"/>
       <c r="AI2" s="172"/>
       <c r="AJ2" s="172"/>
-      <c r="AK2" s="232" t="s">
+      <c r="AK2" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="232"/>
-      <c r="AN2" s="232"/>
-      <c r="AO2" s="232"/>
-      <c r="AP2" s="232"/>
-      <c r="AQ2" s="232"/>
-      <c r="AR2" s="232"/>
-      <c r="AS2" s="232"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="232"/>
-      <c r="AV2" s="232"/>
-      <c r="AW2" s="232"/>
-      <c r="AX2" s="237"/>
-      <c r="AY2" s="234" t="s">
+      <c r="AL2" s="236"/>
+      <c r="AM2" s="236"/>
+      <c r="AN2" s="236"/>
+      <c r="AO2" s="236"/>
+      <c r="AP2" s="236"/>
+      <c r="AQ2" s="236"/>
+      <c r="AR2" s="236"/>
+      <c r="AS2" s="236"/>
+      <c r="AT2" s="236"/>
+      <c r="AU2" s="236"/>
+      <c r="AV2" s="236"/>
+      <c r="AW2" s="236"/>
+      <c r="AX2" s="241"/>
+      <c r="AY2" s="238" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="235"/>
-      <c r="BA2" s="235"/>
-      <c r="BB2" s="235"/>
-      <c r="BC2" s="235"/>
-      <c r="BD2" s="235"/>
-      <c r="BE2" s="235"/>
-      <c r="BF2" s="235"/>
-      <c r="BG2" s="235"/>
-      <c r="BH2" s="235"/>
-      <c r="BI2" s="236"/>
+      <c r="AZ2" s="239"/>
+      <c r="BA2" s="239"/>
+      <c r="BB2" s="239"/>
+      <c r="BC2" s="239"/>
+      <c r="BD2" s="239"/>
+      <c r="BE2" s="239"/>
+      <c r="BF2" s="239"/>
+      <c r="BG2" s="239"/>
+      <c r="BH2" s="239"/>
+      <c r="BI2" s="240"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
+      <c r="B3" s="250"/>
+      <c r="C3" s="251"/>
       <c r="D3" s="56" t="s">
         <v>0</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>941.66666666666674</v>
       </c>
       <c r="AJ4" s="173">
-        <v>933.33333333333337</v>
+        <v>937</v>
       </c>
       <c r="AK4" s="208">
         <f t="shared" ref="AK4:AK15" si="0">+P4/O4-1</f>
@@ -6892,15 +6893,15 @@
       </c>
       <c r="BG4" s="111">
         <f>+AJ4/AI4-1</f>
-        <v>-8.8495575221239076E-3</v>
+        <v>-4.9557522123894193E-3</v>
       </c>
       <c r="BH4" s="111">
         <f>+AJ4/AA4-1</f>
-        <v>5.2615283855794726E-2</v>
+        <v>5.6750558185228117E-2</v>
       </c>
       <c r="BI4" s="107">
         <f>+AJ4/X4-1</f>
-        <v>6.1605777848068088E-2</v>
+        <v>6.5776371975328374E-2</v>
       </c>
     </row>
     <row r="5" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7010,7 +7011,7 @@
         <v>941.66666666666663</v>
       </c>
       <c r="AJ5" s="207">
-        <v>923.61111111111109</v>
+        <v>929</v>
       </c>
       <c r="AK5" s="209">
         <f t="shared" si="0"/>
@@ -7102,15 +7103,15 @@
       </c>
       <c r="BG5" s="111">
         <f t="shared" ref="BG5:BG14" si="15">+AJ5/AI5-1</f>
-        <v>-1.9174041297935096E-2</v>
+        <v>-1.3451327433628313E-2</v>
       </c>
       <c r="BH5" s="111">
         <f t="shared" ref="BH5:BH14" si="16">+AJ5/AA5-1</f>
-        <v>-5.3418803418803229E-3</v>
+        <v>4.6153846153851319E-4</v>
       </c>
       <c r="BI5" s="107">
         <f t="shared" ref="BI5:BI14" si="17">+AJ5/X5-1</f>
-        <v>1.5972222222222054E-2</v>
+        <v>2.1900000000000031E-2</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7220,7 +7221,7 @@
         <v>1074.0740740740739</v>
       </c>
       <c r="AJ6" s="207">
-        <v>1060.30303030303</v>
+        <v>1059</v>
       </c>
       <c r="AK6" s="209">
         <f t="shared" si="0"/>
@@ -7312,15 +7313,15 @@
       </c>
       <c r="BG6" s="111">
         <f t="shared" si="15"/>
-        <v>-1.2821316614420208E-2</v>
+        <v>-1.4034482758620515E-2</v>
       </c>
       <c r="BH6" s="111">
         <f t="shared" si="16"/>
-        <v>-1.5432900432900687E-2</v>
+        <v>-1.6642857142857181E-2</v>
       </c>
       <c r="BI6" s="107">
         <f t="shared" si="17"/>
-        <v>2.1209841074400604E-2</v>
+        <v>1.9954853273137729E-2</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7430,7 +7431,7 @@
         <v>1067.441860465116</v>
       </c>
       <c r="AJ7" s="207">
-        <v>1056.864375461937</v>
+        <v>1056</v>
       </c>
       <c r="AK7" s="209">
         <f t="shared" si="0"/>
@@ -7522,15 +7523,15 @@
       </c>
       <c r="BG7" s="111">
         <f t="shared" si="15"/>
-        <v>-9.9091907437188764E-3</v>
+        <v>-1.0718954248365664E-2</v>
       </c>
       <c r="BH7" s="111">
         <f t="shared" si="16"/>
-        <v>6.5375004399399472E-3</v>
+        <v>5.7142857142857828E-3</v>
       </c>
       <c r="BI7" s="107">
         <f t="shared" si="17"/>
-        <v>3.7648659544447849E-2</v>
+        <v>3.680000000000061E-2</v>
       </c>
     </row>
     <row r="8" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8060,7 +8061,7 @@
         <v>1190.4761904761899</v>
       </c>
       <c r="AJ10" s="207">
-        <v>1184.2105263157889</v>
+        <v>1181</v>
       </c>
       <c r="AK10" s="209">
         <f t="shared" si="0"/>
@@ -8152,15 +8153,15 @@
       </c>
       <c r="BG10" s="111">
         <f t="shared" si="15"/>
-        <v>-5.2631578947368585E-3</v>
+        <v>-7.959999999999523E-3</v>
       </c>
       <c r="BH10" s="111">
         <f t="shared" si="16"/>
-        <v>-3.3767030495130967E-2</v>
+        <v>-3.6386595434677038E-2</v>
       </c>
       <c r="BI10" s="107">
         <f t="shared" si="17"/>
-        <v>-1.0741138560692587E-3</v>
+        <v>-3.7823129251700616E-3</v>
       </c>
     </row>
     <row r="11" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8480,7 +8481,7 @@
         <v>1186.356589147287</v>
       </c>
       <c r="AJ12" s="207">
-        <v>1192.928039702233</v>
+        <v>1190</v>
       </c>
       <c r="AK12" s="209">
         <f t="shared" si="0"/>
@@ -8572,15 +8573,15 @@
       </c>
       <c r="BG12" s="111">
         <f t="shared" si="15"/>
-        <v>5.5391866282543667E-3</v>
+        <v>3.0710925248300658E-3</v>
       </c>
       <c r="BH12" s="111">
         <f t="shared" si="16"/>
-        <v>1.83532046238577E-2</v>
+        <v>1.5853658536585602E-2</v>
       </c>
       <c r="BI12" s="107">
         <f t="shared" si="17"/>
-        <v>4.8330701556507316E-2</v>
+        <v>4.5757575757575442E-2</v>
       </c>
     </row>
     <row r="13" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8690,7 +8691,7 @@
         <v>1287.2413793103451</v>
       </c>
       <c r="AJ13" s="207">
-        <v>1306.666666666667</v>
+        <v>1302</v>
       </c>
       <c r="AK13" s="209">
         <f t="shared" si="0"/>
@@ -8782,15 +8783,15 @@
       </c>
       <c r="BG13" s="111">
         <f t="shared" si="15"/>
-        <v>1.5090633092240457E-2</v>
+        <v>1.1465309402624912E-2</v>
       </c>
       <c r="BH13" s="111">
         <f t="shared" si="16"/>
-        <v>2.7602763011300269E-2</v>
+        <v>2.3932753143402596E-2</v>
       </c>
       <c r="BI13" s="107">
         <f t="shared" si="17"/>
-        <v>2.7715355805243869E-2</v>
+        <v>2.404494382022504E-2</v>
       </c>
     </row>
     <row r="14" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8900,7 +8901,7 @@
         <v>1273.333333333333</v>
       </c>
       <c r="AJ14" s="207">
-        <v>1253.700564971751</v>
+        <v>1256</v>
       </c>
       <c r="AK14" s="209">
         <f t="shared" si="0"/>
@@ -8992,22 +8993,22 @@
       </c>
       <c r="BG14" s="111">
         <f t="shared" si="15"/>
-        <v>-1.541840447244669E-2</v>
+        <v>-1.3612565445025981E-2</v>
       </c>
       <c r="BH14" s="111">
         <f t="shared" si="16"/>
-        <v>-3.7707847331791333E-2</v>
+        <v>-3.5942889777270115E-2</v>
       </c>
       <c r="BI14" s="107">
         <f t="shared" si="17"/>
-        <v>-1.9695474826606607E-2</v>
+        <v>-1.7897480451781078E-2</v>
       </c>
     </row>
     <row r="15" spans="1:61" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="238" t="s">
+      <c r="B15" s="242" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="239"/>
+      <c r="C15" s="243"/>
       <c r="D15" s="38">
         <v>730.02347994203103</v>
       </c>
@@ -9106,7 +9107,7 @@
       </c>
       <c r="AJ15" s="175">
         <f>AVERAGE(AJ4:AJ14)</f>
-        <v>1117.1128357594084</v>
+        <v>1116.9657768625129</v>
       </c>
       <c r="AK15" s="210">
         <f t="shared" si="0"/>
@@ -9198,15 +9199,15 @@
       </c>
       <c r="BG15" s="112">
         <f>+AJ15/AI15-1</f>
-        <v>-9.6517413480421421E-3</v>
+        <v>-9.7821127105381933E-3</v>
       </c>
       <c r="BH15" s="112">
         <f>+AJ15/AA15-1</f>
-        <v>-5.2423546220762285E-3</v>
+        <v>-5.3733064447791801E-3</v>
       </c>
       <c r="BI15" s="109">
         <f>+AJ15/X15-1</f>
-        <v>1.8055988115746269E-2</v>
+        <v>1.7921969254089953E-2</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
@@ -9396,9 +9397,9 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:BH15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH13" sqref="BH13"/>
+      <selection pane="topRight" activeCell="BC28" sqref="BC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9425,82 +9426,82 @@
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:60" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="261" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="253">
+      <c r="B2" s="262"/>
+      <c r="C2" s="257">
         <v>2022</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="263">
+      <c r="D2" s="258"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="267">
         <v>2023</v>
       </c>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="262"/>
-      <c r="AA2" s="263">
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="265"/>
+      <c r="S2" s="265"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
+      <c r="X2" s="265"/>
+      <c r="Y2" s="265"/>
+      <c r="Z2" s="266"/>
+      <c r="AA2" s="267">
         <v>2024</v>
       </c>
-      <c r="AB2" s="261"/>
-      <c r="AC2" s="261"/>
-      <c r="AD2" s="261"/>
-      <c r="AE2" s="261"/>
+      <c r="AB2" s="265"/>
+      <c r="AC2" s="265"/>
+      <c r="AD2" s="265"/>
+      <c r="AE2" s="265"/>
       <c r="AF2" s="95"/>
       <c r="AG2" s="95"/>
       <c r="AH2" s="95"/>
       <c r="AI2" s="95"/>
-      <c r="AJ2" s="261" t="s">
+      <c r="AJ2" s="265" t="s">
         <v>104</v>
       </c>
-      <c r="AK2" s="261"/>
-      <c r="AL2" s="261"/>
-      <c r="AM2" s="261"/>
-      <c r="AN2" s="261"/>
-      <c r="AO2" s="261"/>
-      <c r="AP2" s="261"/>
-      <c r="AQ2" s="261"/>
-      <c r="AR2" s="261"/>
-      <c r="AS2" s="261"/>
-      <c r="AT2" s="261"/>
-      <c r="AU2" s="261"/>
-      <c r="AV2" s="261"/>
-      <c r="AW2" s="262"/>
-      <c r="AX2" s="250" t="s">
+      <c r="AK2" s="265"/>
+      <c r="AL2" s="265"/>
+      <c r="AM2" s="265"/>
+      <c r="AN2" s="265"/>
+      <c r="AO2" s="265"/>
+      <c r="AP2" s="265"/>
+      <c r="AQ2" s="265"/>
+      <c r="AR2" s="265"/>
+      <c r="AS2" s="265"/>
+      <c r="AT2" s="265"/>
+      <c r="AU2" s="265"/>
+      <c r="AV2" s="265"/>
+      <c r="AW2" s="266"/>
+      <c r="AX2" s="254" t="s">
         <v>102</v>
       </c>
-      <c r="AY2" s="251"/>
-      <c r="AZ2" s="251"/>
-      <c r="BA2" s="251"/>
-      <c r="BB2" s="251"/>
-      <c r="BC2" s="251"/>
-      <c r="BD2" s="251"/>
-      <c r="BE2" s="251"/>
-      <c r="BF2" s="251"/>
-      <c r="BG2" s="251"/>
-      <c r="BH2" s="252"/>
+      <c r="AY2" s="255"/>
+      <c r="AZ2" s="255"/>
+      <c r="BA2" s="255"/>
+      <c r="BB2" s="255"/>
+      <c r="BC2" s="255"/>
+      <c r="BD2" s="255"/>
+      <c r="BE2" s="255"/>
+      <c r="BF2" s="255"/>
+      <c r="BG2" s="255"/>
+      <c r="BH2" s="256"/>
     </row>
     <row r="3" spans="1:60" s="7" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="259"/>
-      <c r="B3" s="260"/>
+      <c r="A3" s="263"/>
+      <c r="B3" s="264"/>
       <c r="C3" s="131" t="s">
         <v>0</v>
       </c>
@@ -11954,10 +11955,10 @@
       </c>
     </row>
     <row r="15" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="231" t="s">
+      <c r="A15" s="235" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="233"/>
+      <c r="B15" s="237"/>
       <c r="C15" s="47">
         <f>AVERAGE(C4:C14)</f>
         <v>8.0843345048625608</v>

--- a/2024_09_housing_prices.xlsx
+++ b/2024_09_housing_prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.ortiqov\Desktop\Cerr_old\Cerr\Regular\уй_жой\2024\09_september\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.khamidov\Documents\09_september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB786131-DCD3-45C8-B300-ED721FC51EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F51552-4A2D-4C77-82A3-AA98FFABE4AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{F0A68128-6003-4809-9CD7-322F14E0A5F8}"/>
+    <workbookView xWindow="19575" yWindow="15450" windowWidth="14385" windowHeight="11445" xr2:uid="{F0A68128-6003-4809-9CD7-322F14E0A5F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Регион_динамика_цен" sheetId="31" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="148">
   <si>
     <t>Январь</t>
   </si>
@@ -421,25 +420,67 @@
     <t>Tashkent region</t>
   </si>
   <si>
-    <t>Gulistan</t>
-  </si>
-  <si>
-    <t>Karshi</t>
-  </si>
-  <si>
-    <t>Nukus</t>
-  </si>
-  <si>
-    <t>Urgench</t>
-  </si>
-  <si>
-    <t>Cities</t>
-  </si>
-  <si>
-    <t>Termez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tashkent </t>
+    <t>Андижанская</t>
+  </si>
+  <si>
+    <t>Бухарская</t>
+  </si>
+  <si>
+    <t>Сырдарьинская</t>
+  </si>
+  <si>
+    <t>Джизакская</t>
+  </si>
+  <si>
+    <t>Кашкадарьинская</t>
+  </si>
+  <si>
+    <t>Навоийская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наманганская </t>
+  </si>
+  <si>
+    <t>Р.Каракалпакстан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самаркандская </t>
+  </si>
+  <si>
+    <t>Ташкентская</t>
+  </si>
+  <si>
+    <t>Сурхандарьинская</t>
+  </si>
+  <si>
+    <t>Хорезмская</t>
+  </si>
+  <si>
+    <t>Ферганская</t>
+  </si>
+  <si>
+    <t>Sirdarya</t>
+  </si>
+  <si>
+    <t>Kashkadarya</t>
+  </si>
+  <si>
+    <t>R.Karakaplakstan</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Tashkent city</t>
+  </si>
+  <si>
+    <t>Khorezm</t>
+  </si>
+  <si>
+    <t>Surkhandarya</t>
+  </si>
+  <si>
+    <t>Қоракалпоғистон Р.</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1340,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1766,9 +1807,6 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2250,12 +2288,12 @@
   </sheetPr>
   <dimension ref="A1:BP58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AY4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="BF4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="BG4" sqref="BG4:BG17"/>
+      <selection pane="bottomRight" activeCell="BI5" sqref="BI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2278,82 +2316,82 @@
   <sheetData>
     <row r="1" spans="1:68" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="230">
+      <c r="C2" s="221"/>
+      <c r="D2" s="227">
         <v>2022</v>
       </c>
-      <c r="E2" s="231"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="233"/>
-      <c r="P2" s="234">
+      <c r="E2" s="228"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="231">
         <v>2023</v>
       </c>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="237"/>
-      <c r="AB2" s="234">
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="232"/>
+      <c r="Y2" s="232"/>
+      <c r="Z2" s="232"/>
+      <c r="AA2" s="234"/>
+      <c r="AB2" s="231">
         <v>2024</v>
       </c>
-      <c r="AC2" s="235"/>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="237"/>
+      <c r="AC2" s="232"/>
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="234"/>
       <c r="AG2" s="163"/>
       <c r="AH2" s="163"/>
       <c r="AI2" s="163"/>
       <c r="AJ2" s="163"/>
-      <c r="AK2" s="234" t="s">
+      <c r="AK2" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="235"/>
-      <c r="AM2" s="235"/>
-      <c r="AN2" s="235"/>
-      <c r="AO2" s="235"/>
-      <c r="AP2" s="235"/>
-      <c r="AQ2" s="235"/>
-      <c r="AR2" s="235"/>
-      <c r="AS2" s="235"/>
-      <c r="AT2" s="236"/>
-      <c r="AU2" s="236"/>
-      <c r="AV2" s="236"/>
-      <c r="AW2" s="235"/>
-      <c r="AX2" s="237"/>
-      <c r="AY2" s="220" t="s">
+      <c r="AL2" s="232"/>
+      <c r="AM2" s="232"/>
+      <c r="AN2" s="232"/>
+      <c r="AO2" s="232"/>
+      <c r="AP2" s="232"/>
+      <c r="AQ2" s="232"/>
+      <c r="AR2" s="232"/>
+      <c r="AS2" s="232"/>
+      <c r="AT2" s="233"/>
+      <c r="AU2" s="233"/>
+      <c r="AV2" s="233"/>
+      <c r="AW2" s="232"/>
+      <c r="AX2" s="234"/>
+      <c r="AY2" s="217" t="s">
         <v>100</v>
       </c>
-      <c r="AZ2" s="221"/>
-      <c r="BA2" s="221"/>
-      <c r="BB2" s="221"/>
-      <c r="BC2" s="221"/>
-      <c r="BD2" s="221"/>
-      <c r="BE2" s="221"/>
-      <c r="BF2" s="221"/>
-      <c r="BG2" s="221"/>
-      <c r="BH2" s="221"/>
-      <c r="BI2" s="222"/>
+      <c r="AZ2" s="218"/>
+      <c r="BA2" s="218"/>
+      <c r="BB2" s="218"/>
+      <c r="BC2" s="218"/>
+      <c r="BD2" s="218"/>
+      <c r="BE2" s="218"/>
+      <c r="BF2" s="218"/>
+      <c r="BG2" s="218"/>
+      <c r="BH2" s="218"/>
+      <c r="BI2" s="219"/>
     </row>
     <row r="3" spans="1:68" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="225"/>
-      <c r="C3" s="226"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="223"/>
       <c r="D3" s="69" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2685,7 @@
       <c r="AI4" s="194">
         <v>562.5</v>
       </c>
-      <c r="AJ4" s="211">
+      <c r="AJ4" s="194">
         <v>536</v>
       </c>
       <c r="AK4" s="87">
@@ -2750,17 +2788,16 @@
         <f>+AJ4/X4-1</f>
         <v>1.132075471698113E-2</v>
       </c>
-      <c r="BJ4" s="15"/>
       <c r="BM4" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="BN4" s="15">
         <v>536</v>
       </c>
-      <c r="BO4" s="216">
+      <c r="BO4" s="72">
         <v>-4.7111111111111104E-2</v>
       </c>
-      <c r="BP4" s="216">
+      <c r="BP4" s="72">
         <v>1.132075471698113E-2</v>
       </c>
     </row>
@@ -2973,18 +3010,17 @@
         <f t="shared" ref="BI5:BI17" si="25">+AJ5/X5-1</f>
         <v>0.12536873156342176</v>
       </c>
-      <c r="BJ5" s="15"/>
       <c r="BM5" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="BN5" s="15">
-        <v>546.51162790697674</v>
-      </c>
-      <c r="BO5" s="216">
-        <v>1.6240630405535139E-2</v>
-      </c>
-      <c r="BP5" s="216">
-        <v>0.12849008712355081</v>
+        <v>545</v>
+      </c>
+      <c r="BO5" s="72">
+        <v>1.3429752066115519E-2</v>
+      </c>
+      <c r="BP5" s="72">
+        <v>0.12536873156342176</v>
       </c>
     </row>
     <row r="6" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3196,18 +3232,17 @@
         <f t="shared" si="25"/>
         <v>6.0209424083769614E-2</v>
       </c>
-      <c r="BJ6" s="15"/>
       <c r="BM6" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="BN6" s="15">
-        <v>416.65277777777783</v>
-      </c>
-      <c r="BO6" s="216">
-        <v>5.3078449328449295E-2</v>
-      </c>
-      <c r="BP6" s="216">
-        <v>9.0714077952297911E-2</v>
+        <v>405</v>
+      </c>
+      <c r="BO6" s="72">
+        <v>2.3626373626373542E-2</v>
+      </c>
+      <c r="BP6" s="72">
+        <v>6.0209424083769614E-2</v>
       </c>
     </row>
     <row r="7" spans="1:68" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3419,18 +3454,17 @@
         <f t="shared" si="25"/>
         <v>7.855000000000012E-2</v>
       </c>
-      <c r="BJ7" s="15"/>
       <c r="BM7" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="BN7" s="15">
-        <v>436.36363636363637</v>
-      </c>
-      <c r="BO7" s="217">
-        <v>0.12207792207792201</v>
-      </c>
-      <c r="BP7" s="216">
-        <v>0.15636363636363648</v>
+        <v>407</v>
+      </c>
+      <c r="BO7" s="72">
+        <v>4.6571428571428486E-2</v>
+      </c>
+      <c r="BP7" s="72">
+        <v>7.855000000000012E-2</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3642,18 +3676,17 @@
         <f t="shared" si="25"/>
         <v>8.2051282051281982E-2</v>
       </c>
-      <c r="BJ8" s="15"/>
       <c r="BM8" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="BN8" s="15">
-        <v>422.41379310344831</v>
-      </c>
-      <c r="BO8" s="216">
-        <v>-1.4367816091954033E-2</v>
-      </c>
-      <c r="BP8" s="216">
-        <v>8.3112290008841905E-2</v>
+        <v>422</v>
+      </c>
+      <c r="BO8" s="72">
+        <v>-1.5333333333333421E-2</v>
+      </c>
+      <c r="BP8" s="72">
+        <v>8.2051282051281982E-2</v>
       </c>
     </row>
     <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3865,18 +3898,17 @@
         <f t="shared" si="25"/>
         <v>-2.9361226523153316E-2</v>
       </c>
-      <c r="BJ9" s="15"/>
       <c r="BM9" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="BN9" s="15">
-        <v>616.89814814814815</v>
-      </c>
-      <c r="BO9" s="216">
-        <v>-2.4913621616431958E-2</v>
-      </c>
-      <c r="BP9" s="216">
-        <v>-3.2657089049020094E-2</v>
+        <v>619</v>
+      </c>
+      <c r="BO9" s="72">
+        <v>-2.1591376094584724E-2</v>
+      </c>
+      <c r="BP9" s="72">
+        <v>-2.9361226523153316E-2</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4088,18 +4120,17 @@
         <f t="shared" si="25"/>
         <v>2.7083333333333348E-2</v>
       </c>
-      <c r="BJ10" s="15"/>
       <c r="BM10" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="BN10" s="15">
-        <v>500</v>
-      </c>
-      <c r="BO10" s="216">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="216">
-        <v>4.1666666666666741E-2</v>
+        <v>493</v>
+      </c>
+      <c r="BO10" s="72">
+        <v>-1.4000000000000012E-2</v>
+      </c>
+      <c r="BP10" s="72">
+        <v>2.7083333333333348E-2</v>
       </c>
     </row>
     <row r="11" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4311,18 +4342,17 @@
         <f t="shared" si="25"/>
         <v>2.3839387823095803E-2</v>
       </c>
-      <c r="BJ11" s="15"/>
       <c r="BM11" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="BN11" s="15">
-        <v>329.94</v>
-      </c>
-      <c r="BO11" s="216">
-        <v>1.1614377809721077E-2</v>
-      </c>
-      <c r="BP11" s="216">
-        <v>3.3044549291597169E-2</v>
+        <v>327</v>
+      </c>
+      <c r="BO11" s="72">
+        <v>2.6001744067976063E-3</v>
+      </c>
+      <c r="BP11" s="72">
+        <v>2.3839387823095803E-2</v>
       </c>
     </row>
     <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4534,17 +4564,16 @@
         <f t="shared" si="25"/>
         <v>9.8090277777777679E-2</v>
       </c>
-      <c r="BJ12" s="15"/>
       <c r="BM12" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="BN12" s="15">
         <v>763.88888888888891</v>
       </c>
-      <c r="BO12" s="216">
+      <c r="BO12" s="72">
         <v>1.8518518518518601E-2</v>
       </c>
-      <c r="BP12" s="216">
+      <c r="BP12" s="72">
         <v>9.8090277777777679E-2</v>
       </c>
     </row>
@@ -4757,18 +4786,17 @@
         <f t="shared" si="25"/>
         <v>7.3825503355704702E-2</v>
       </c>
-      <c r="BJ13" s="15"/>
       <c r="BM13" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="BN13" s="15">
-        <v>644.73684210526312</v>
-      </c>
-      <c r="BO13" s="216">
-        <v>4.9432057214977565E-3</v>
-      </c>
-      <c r="BP13" s="216">
-        <v>8.1773225008830774E-2</v>
+        <v>640</v>
+      </c>
+      <c r="BO13" s="72">
+        <v>-2.4400504838030246E-3</v>
+      </c>
+      <c r="BP13" s="72">
+        <v>7.3825503355704702E-2</v>
       </c>
     </row>
     <row r="14" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4980,18 +5008,17 @@
         <f t="shared" si="25"/>
         <v>8.3756345177665059E-2</v>
       </c>
-      <c r="BJ14" s="15"/>
       <c r="BM14" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="BN14" s="15">
-        <v>431.506849315068</v>
-      </c>
-      <c r="BO14" s="216">
-        <v>2.1989906272529947E-2</v>
-      </c>
-      <c r="BP14" s="216">
-        <v>9.5195049023015121E-2</v>
+        <v>427</v>
+      </c>
+      <c r="BO14" s="72">
+        <v>1.1315789473684834E-2</v>
+      </c>
+      <c r="BP14" s="72">
+        <v>8.3756345177665059E-2</v>
       </c>
     </row>
     <row r="15" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5203,18 +5230,17 @@
         <f t="shared" si="25"/>
         <v>0.19540209270826292</v>
       </c>
-      <c r="BJ15" s="15"/>
       <c r="BM15" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="BN15" s="15">
-        <v>437.1</v>
-      </c>
-      <c r="BO15" s="216">
-        <v>3.4130981694630469E-2</v>
-      </c>
-      <c r="BP15" s="216">
-        <v>0.19841801541922433</v>
+        <v>436</v>
+      </c>
+      <c r="BO15" s="72">
+        <v>3.1528501530219355E-2</v>
+      </c>
+      <c r="BP15" s="72">
+        <v>0.19540209270826292</v>
       </c>
     </row>
     <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5426,18 +5452,17 @@
         <f t="shared" si="25"/>
         <v>8.7713520484079099E-2</v>
       </c>
-      <c r="BJ16" s="15"/>
       <c r="BM16" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="BN16" s="15">
-        <v>425.531914893617</v>
-      </c>
-      <c r="BO16" s="216">
-        <v>-3.0889892250517081E-2</v>
-      </c>
-      <c r="BP16" s="216">
-        <v>7.8920319877080702E-2</v>
+        <v>429</v>
+      </c>
+      <c r="BO16" s="72">
+        <v>-2.2991644872358719E-2</v>
+      </c>
+      <c r="BP16" s="72">
+        <v>8.7713520484079099E-2</v>
       </c>
     </row>
     <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5649,38 +5674,37 @@
         <f t="shared" si="25"/>
         <v>1.7953157750842941E-2</v>
       </c>
-      <c r="BJ17" s="15"/>
       <c r="BM17" t="s">
         <v>61</v>
       </c>
       <c r="BN17" s="15">
         <v>1117</v>
       </c>
-      <c r="BO17" s="216">
+      <c r="BO17" s="72">
         <v>-9.7517730496453625E-3</v>
       </c>
-      <c r="BP17" s="216">
+      <c r="BP17" s="72">
         <v>1.7953157750842941E-2</v>
       </c>
     </row>
     <row r="18" spans="1:68" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="224" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="229"/>
-      <c r="G18" s="229"/>
-      <c r="H18" s="229"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="229"/>
-      <c r="K18" s="229"/>
-      <c r="L18" s="229"/>
-      <c r="M18" s="229"/>
-      <c r="N18" s="229"/>
-      <c r="O18" s="229"/>
-      <c r="P18" s="229"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="226"/>
+      <c r="O18" s="226"/>
+      <c r="P18" s="226"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
@@ -5805,13 +5829,13 @@
         <v>79</v>
       </c>
       <c r="BN18" s="15">
-        <v>545</v>
-      </c>
-      <c r="BO18" s="218">
-        <v>1.1111412693510339E-2</v>
-      </c>
-      <c r="BP18" s="216">
-        <v>7.731464413795168E-2</v>
+        <v>540</v>
+      </c>
+      <c r="BO18" s="216">
+        <v>1.0265178034501127E-3</v>
+      </c>
+      <c r="BP18" s="72">
+        <v>6.6843041735933056E-2</v>
       </c>
     </row>
     <row r="19" spans="1:68" ht="15" x14ac:dyDescent="0.2">
@@ -5859,204 +5883,204 @@
     <row r="24" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="BM24" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BN24" s="15">
         <v>536</v>
       </c>
-      <c r="BO24" s="216">
+      <c r="BO24" s="72">
         <v>-4.7111111111111104E-2</v>
       </c>
-      <c r="BP24" s="216">
+      <c r="BP24" s="72">
         <v>1.132075471698113E-2</v>
       </c>
     </row>
     <row r="25" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="BM25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BN25" s="15">
-        <v>546.51162790697674</v>
-      </c>
-      <c r="BO25" s="216">
-        <v>1.6240630405535139E-2</v>
-      </c>
-      <c r="BP25" s="216">
-        <v>0.12849008712355081</v>
+        <v>545</v>
+      </c>
+      <c r="BO25" s="72">
+        <v>1.3429752066115519E-2</v>
+      </c>
+      <c r="BP25" s="72">
+        <v>0.12536873156342176</v>
       </c>
     </row>
     <row r="26" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="BM26" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="BN26" s="15">
-        <v>416.65277777777783</v>
-      </c>
-      <c r="BO26" s="216">
-        <v>5.3078449328449295E-2</v>
-      </c>
-      <c r="BP26" s="216">
-        <v>9.0714077952297911E-2</v>
+        <v>405</v>
+      </c>
+      <c r="BO26" s="72">
+        <v>2.3626373626373542E-2</v>
+      </c>
+      <c r="BP26" s="72">
+        <v>6.0209424083769614E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:68" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
-      <c r="BM27" t="s">
-        <v>23</v>
+      <c r="BM27" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="BN27" s="15">
-        <v>436.36363636363637</v>
-      </c>
-      <c r="BO27" s="217">
-        <v>0.12207792207792201</v>
-      </c>
-      <c r="BP27" s="216">
-        <v>0.15636363636363648</v>
+        <v>407</v>
+      </c>
+      <c r="BO27" s="72">
+        <v>4.6571428571428486E-2</v>
+      </c>
+      <c r="BP27" s="72">
+        <v>7.855000000000012E-2</v>
       </c>
     </row>
     <row r="28" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="BM28" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="BN28" s="15">
-        <v>422.41379310344831</v>
-      </c>
-      <c r="BO28" s="216">
-        <v>-1.4367816091954033E-2</v>
-      </c>
-      <c r="BP28" s="216">
-        <v>8.3112290008841905E-2</v>
+        <v>422</v>
+      </c>
+      <c r="BO28" s="72">
+        <v>-1.5333333333333421E-2</v>
+      </c>
+      <c r="BP28" s="72">
+        <v>8.2051282051281982E-2</v>
       </c>
     </row>
     <row r="29" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="BM29" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="BN29" s="15">
-        <v>616.89814814814815</v>
-      </c>
-      <c r="BO29" s="216">
-        <v>-2.4913621616431958E-2</v>
-      </c>
-      <c r="BP29" s="216">
-        <v>-3.2657089049020094E-2</v>
+        <v>619</v>
+      </c>
+      <c r="BO29" s="72">
+        <v>-2.1591376094584724E-2</v>
+      </c>
+      <c r="BP29" s="72">
+        <v>-2.9361226523153316E-2</v>
       </c>
     </row>
     <row r="30" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="BM30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BN30" s="15">
-        <v>500</v>
-      </c>
-      <c r="BO30" s="216">
-        <v>0</v>
-      </c>
-      <c r="BP30" s="216">
-        <v>4.1666666666666741E-2</v>
+        <v>493</v>
+      </c>
+      <c r="BO30" s="72">
+        <v>-1.4000000000000012E-2</v>
+      </c>
+      <c r="BP30" s="72">
+        <v>2.7083333333333348E-2</v>
       </c>
     </row>
     <row r="31" spans="1:68" ht="15" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
       <c r="BM31" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="BN31" s="15">
-        <v>329.94</v>
-      </c>
-      <c r="BO31" s="216">
-        <v>1.1614377809721077E-2</v>
-      </c>
-      <c r="BP31" s="216">
-        <v>3.3044549291597169E-2</v>
+        <v>327</v>
+      </c>
+      <c r="BO31" s="72">
+        <v>2.6001744067976063E-3</v>
+      </c>
+      <c r="BP31" s="72">
+        <v>2.3839387823095803E-2</v>
       </c>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.2">
       <c r="BM32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BN32" s="15">
         <v>763.88888888888891</v>
       </c>
-      <c r="BO32" s="216">
+      <c r="BO32" s="72">
         <v>1.8518518518518601E-2</v>
       </c>
-      <c r="BP32" s="216">
+      <c r="BP32" s="72">
         <v>9.8090277777777679E-2</v>
       </c>
     </row>
     <row r="33" spans="65:68" x14ac:dyDescent="0.2">
-      <c r="BM33" t="s">
-        <v>14</v>
+      <c r="BM33" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="BN33" s="15">
-        <v>644.73684210526312</v>
-      </c>
-      <c r="BO33" s="216">
-        <v>4.9432057214977565E-3</v>
-      </c>
-      <c r="BP33" s="216">
-        <v>8.1773225008830774E-2</v>
+        <v>640</v>
+      </c>
+      <c r="BO33" s="72">
+        <v>-2.4400504838030246E-3</v>
+      </c>
+      <c r="BP33" s="72">
+        <v>7.3825503355704702E-2</v>
       </c>
     </row>
     <row r="34" spans="65:68" x14ac:dyDescent="0.2">
       <c r="BM34" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="BN34" s="15">
-        <v>431.506849315068</v>
-      </c>
-      <c r="BO34" s="216">
-        <v>2.1989906272529947E-2</v>
-      </c>
-      <c r="BP34" s="216">
-        <v>9.5195049023015121E-2</v>
+        <v>427</v>
+      </c>
+      <c r="BO34" s="72">
+        <v>1.1315789473684834E-2</v>
+      </c>
+      <c r="BP34" s="72">
+        <v>8.3756345177665059E-2</v>
       </c>
     </row>
     <row r="35" spans="65:68" x14ac:dyDescent="0.2">
       <c r="BM35" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="BN35" s="15">
-        <v>437.1</v>
-      </c>
-      <c r="BO35" s="216">
-        <v>3.4130981694630469E-2</v>
-      </c>
-      <c r="BP35" s="216">
-        <v>0.19841801541922433</v>
+        <v>436</v>
+      </c>
+      <c r="BO35" s="72">
+        <v>3.1528501530219355E-2</v>
+      </c>
+      <c r="BP35" s="72">
+        <v>0.19540209270826292</v>
       </c>
     </row>
     <row r="36" spans="65:68" x14ac:dyDescent="0.2">
-      <c r="BM36" t="s">
-        <v>26</v>
+      <c r="BM36" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="BN36" s="15">
-        <v>425.531914893617</v>
-      </c>
-      <c r="BO36" s="216">
-        <v>-3.0889892250517081E-2</v>
-      </c>
-      <c r="BP36" s="216">
-        <v>7.8920319877080702E-2</v>
+        <v>429</v>
+      </c>
+      <c r="BO36" s="72">
+        <v>-2.2991644872358719E-2</v>
+      </c>
+      <c r="BP36" s="72">
+        <v>8.7713520484079099E-2</v>
       </c>
     </row>
     <row r="37" spans="65:68" x14ac:dyDescent="0.2">
-      <c r="BM37" t="s">
+      <c r="BM37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BN37" s="15">
         <v>1117</v>
       </c>
-      <c r="BO37" s="216">
+      <c r="BO37" s="72">
         <v>-9.7517730496453625E-3</v>
       </c>
-      <c r="BP37" s="216">
+      <c r="BP37" s="72">
         <v>1.7953157750842941E-2</v>
       </c>
     </row>
@@ -6065,18 +6089,18 @@
         <v>114</v>
       </c>
       <c r="BN38" s="15">
-        <v>545</v>
-      </c>
-      <c r="BO38" s="218">
-        <v>1.1111412693510339E-2</v>
-      </c>
-      <c r="BP38" s="216">
-        <v>7.731464413795168E-2</v>
+        <v>540</v>
+      </c>
+      <c r="BO38" s="216">
+        <v>1.0265178034501127E-3</v>
+      </c>
+      <c r="BP38" s="72">
+        <v>6.6843041735933056E-2</v>
       </c>
     </row>
     <row r="43" spans="65:68" x14ac:dyDescent="0.2">
       <c r="BM43" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="BN43" t="s">
         <v>115</v>
@@ -6107,27 +6131,27 @@
         <v>121</v>
       </c>
       <c r="BN45" s="15">
-        <v>546.51162790697674</v>
+        <v>545</v>
       </c>
       <c r="BO45" s="72">
-        <v>1.6240630405535139E-2</v>
+        <v>1.3429752066115519E-2</v>
       </c>
       <c r="BP45" s="72">
-        <v>0.12849008712355081</v>
+        <v>0.12536873156342176</v>
       </c>
     </row>
     <row r="46" spans="65:68" x14ac:dyDescent="0.2">
       <c r="BM46" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="BN46" s="15">
-        <v>416.65277777777783</v>
+        <v>405</v>
       </c>
       <c r="BO46" s="72">
-        <v>5.3078449328449295E-2</v>
+        <v>2.3626373626373542E-2</v>
       </c>
       <c r="BP46" s="72">
-        <v>9.0714077952297911E-2</v>
+        <v>6.0209424083769614E-2</v>
       </c>
     </row>
     <row r="47" spans="65:68" x14ac:dyDescent="0.2">
@@ -6135,27 +6159,27 @@
         <v>124</v>
       </c>
       <c r="BN47" s="15">
-        <v>436.36363636363637</v>
+        <v>407</v>
       </c>
       <c r="BO47" s="72">
-        <v>0.12207792207792201</v>
+        <v>4.6571428571428486E-2</v>
       </c>
       <c r="BP47" s="72">
-        <v>0.15636363636363648</v>
+        <v>7.855000000000012E-2</v>
       </c>
     </row>
     <row r="48" spans="65:68" x14ac:dyDescent="0.2">
       <c r="BM48" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="BN48" s="15">
-        <v>422.41379310344831</v>
+        <v>422</v>
       </c>
       <c r="BO48" s="72">
-        <v>-1.4367816091954033E-2</v>
+        <v>-1.5333333333333421E-2</v>
       </c>
       <c r="BP48" s="72">
-        <v>8.3112290008841905E-2</v>
+        <v>8.2051282051281982E-2</v>
       </c>
     </row>
     <row r="49" spans="65:68" x14ac:dyDescent="0.2">
@@ -6163,13 +6187,13 @@
         <v>119</v>
       </c>
       <c r="BN49" s="15">
-        <v>616.89814814814815</v>
+        <v>619</v>
       </c>
       <c r="BO49" s="72">
-        <v>-2.4913621616431958E-2</v>
+        <v>-2.1591376094584724E-2</v>
       </c>
       <c r="BP49" s="72">
-        <v>-3.2657089049020094E-2</v>
+        <v>-2.9361226523153316E-2</v>
       </c>
     </row>
     <row r="50" spans="65:68" x14ac:dyDescent="0.2">
@@ -6177,27 +6201,27 @@
         <v>122</v>
       </c>
       <c r="BN50" s="15">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="BO50" s="72">
-        <v>0</v>
+        <v>-1.4000000000000012E-2</v>
       </c>
       <c r="BP50" s="72">
-        <v>4.1666666666666741E-2</v>
+        <v>2.7083333333333348E-2</v>
       </c>
     </row>
     <row r="51" spans="65:68" x14ac:dyDescent="0.2">
       <c r="BM51" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="BN51" s="15">
-        <v>329.94</v>
+        <v>327</v>
       </c>
       <c r="BO51" s="72">
-        <v>1.1614377809721077E-2</v>
+        <v>2.6001744067976063E-3</v>
       </c>
       <c r="BP51" s="72">
-        <v>3.3044549291597169E-2</v>
+        <v>2.3839387823095803E-2</v>
       </c>
     </row>
     <row r="52" spans="65:68" x14ac:dyDescent="0.2">
@@ -6219,41 +6243,41 @@
         <v>126</v>
       </c>
       <c r="BN53" s="15">
-        <v>644.73684210526312</v>
+        <v>640</v>
       </c>
       <c r="BO53" s="72">
-        <v>4.9432057214977565E-3</v>
+        <v>-2.4400504838030246E-3</v>
       </c>
       <c r="BP53" s="72">
-        <v>8.1773225008830774E-2</v>
+        <v>7.3825503355704702E-2</v>
       </c>
     </row>
     <row r="54" spans="65:68" x14ac:dyDescent="0.2">
       <c r="BM54" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="BN54" s="15">
-        <v>431.506849315068</v>
+        <v>427</v>
       </c>
       <c r="BO54" s="72">
-        <v>2.1989906272529947E-2</v>
+        <v>1.1315789473684834E-2</v>
       </c>
       <c r="BP54" s="72">
-        <v>9.5195049023015121E-2</v>
+        <v>8.3756345177665059E-2</v>
       </c>
     </row>
     <row r="55" spans="65:68" x14ac:dyDescent="0.2">
       <c r="BM55" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="BN55" s="15">
-        <v>437.1</v>
+        <v>436</v>
       </c>
       <c r="BO55" s="72">
-        <v>3.4130981694630469E-2</v>
+        <v>3.1528501530219355E-2</v>
       </c>
       <c r="BP55" s="72">
-        <v>0.19841801541922433</v>
+        <v>0.19540209270826292</v>
       </c>
     </row>
     <row r="56" spans="65:68" x14ac:dyDescent="0.2">
@@ -6261,18 +6285,18 @@
         <v>123</v>
       </c>
       <c r="BN56" s="15">
-        <v>425.531914893617</v>
+        <v>429</v>
       </c>
       <c r="BO56" s="72">
-        <v>-3.0889892250517081E-2</v>
+        <v>-2.2991644872358719E-2</v>
       </c>
       <c r="BP56" s="72">
-        <v>7.8920319877080702E-2</v>
+        <v>8.7713520484079099E-2</v>
       </c>
     </row>
     <row r="57" spans="65:68" x14ac:dyDescent="0.2">
       <c r="BM57" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="BN57" s="15">
         <v>1117</v>
@@ -6289,13 +6313,13 @@
         <v>125</v>
       </c>
       <c r="BN58" s="15">
-        <v>545</v>
-      </c>
-      <c r="BO58" s="219">
-        <v>1.1111412693510339E-2</v>
+        <v>540</v>
+      </c>
+      <c r="BO58" s="216">
+        <v>1.0265178034501127E-3</v>
       </c>
       <c r="BP58" s="72">
-        <v>7.731464413795168E-2</v>
+        <v>6.6843041735933056E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6311,7 +6335,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="AK4:AW17 AW20">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6325,7 +6349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX17">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6339,7 +6363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG17">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6351,7 +6375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI4:BI18">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6404,11 +6428,11 @@
   <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D40" sqref="D40"/>
       <selection pane="topRight" activeCell="D40" sqref="D40"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
-      <selection pane="bottomRight" activeCell="AJ4" sqref="AJ4:AJ14"/>
+      <selection pane="bottomRight" activeCell="BG6" sqref="BG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6429,96 +6453,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
     </row>
     <row r="2" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="245" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="245">
+      <c r="C2" s="246"/>
+      <c r="D2" s="242">
         <v>2022</v>
       </c>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="252">
+      <c r="E2" s="243"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="249">
         <v>2023</v>
       </c>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="253"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="253"/>
-      <c r="U2" s="253"/>
-      <c r="V2" s="253"/>
-      <c r="W2" s="253"/>
-      <c r="X2" s="253"/>
-      <c r="Y2" s="253"/>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="253"/>
-      <c r="AB2" s="253">
+      <c r="Q2" s="250"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="250"/>
+      <c r="V2" s="250"/>
+      <c r="W2" s="250"/>
+      <c r="X2" s="250"/>
+      <c r="Y2" s="250"/>
+      <c r="Z2" s="250"/>
+      <c r="AA2" s="250"/>
+      <c r="AB2" s="250">
         <v>2024</v>
       </c>
-      <c r="AC2" s="253"/>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="253"/>
+      <c r="AC2" s="250"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
       <c r="AG2" s="172"/>
       <c r="AH2" s="172"/>
       <c r="AI2" s="172"/>
       <c r="AJ2" s="172"/>
-      <c r="AK2" s="236" t="s">
+      <c r="AK2" s="233" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="236"/>
-      <c r="AM2" s="236"/>
-      <c r="AN2" s="236"/>
-      <c r="AO2" s="236"/>
-      <c r="AP2" s="236"/>
-      <c r="AQ2" s="236"/>
-      <c r="AR2" s="236"/>
-      <c r="AS2" s="236"/>
-      <c r="AT2" s="236"/>
-      <c r="AU2" s="236"/>
-      <c r="AV2" s="236"/>
-      <c r="AW2" s="236"/>
-      <c r="AX2" s="241"/>
-      <c r="AY2" s="238" t="s">
+      <c r="AL2" s="233"/>
+      <c r="AM2" s="233"/>
+      <c r="AN2" s="233"/>
+      <c r="AO2" s="233"/>
+      <c r="AP2" s="233"/>
+      <c r="AQ2" s="233"/>
+      <c r="AR2" s="233"/>
+      <c r="AS2" s="233"/>
+      <c r="AT2" s="233"/>
+      <c r="AU2" s="233"/>
+      <c r="AV2" s="233"/>
+      <c r="AW2" s="233"/>
+      <c r="AX2" s="238"/>
+      <c r="AY2" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="239"/>
-      <c r="BA2" s="239"/>
-      <c r="BB2" s="239"/>
-      <c r="BC2" s="239"/>
-      <c r="BD2" s="239"/>
-      <c r="BE2" s="239"/>
-      <c r="BF2" s="239"/>
-      <c r="BG2" s="239"/>
-      <c r="BH2" s="239"/>
-      <c r="BI2" s="240"/>
+      <c r="AZ2" s="236"/>
+      <c r="BA2" s="236"/>
+      <c r="BB2" s="236"/>
+      <c r="BC2" s="236"/>
+      <c r="BD2" s="236"/>
+      <c r="BE2" s="236"/>
+      <c r="BF2" s="236"/>
+      <c r="BG2" s="236"/>
+      <c r="BH2" s="236"/>
+      <c r="BI2" s="237"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="250"/>
-      <c r="C3" s="251"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="248"/>
       <c r="D3" s="56" t="s">
         <v>0</v>
       </c>
@@ -9005,10 +9029,10 @@
       </c>
     </row>
     <row r="15" spans="1:61" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="242" t="s">
+      <c r="B15" s="239" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="243"/>
+      <c r="C15" s="240"/>
       <c r="D15" s="38">
         <v>730.02347994203103</v>
       </c>
@@ -9397,9 +9421,9 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:BH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC28" sqref="BC28"/>
+      <selection pane="topRight" activeCell="BH4" sqref="BH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9426,82 +9450,82 @@
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:60" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="258" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="257">
+      <c r="B2" s="259"/>
+      <c r="C2" s="254">
         <v>2022</v>
       </c>
-      <c r="D2" s="258"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="259"/>
-      <c r="M2" s="259"/>
-      <c r="N2" s="260"/>
-      <c r="O2" s="267">
+      <c r="D2" s="255"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="264">
         <v>2023</v>
       </c>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="265"/>
-      <c r="S2" s="265"/>
-      <c r="T2" s="265"/>
-      <c r="U2" s="265"/>
-      <c r="V2" s="265"/>
-      <c r="W2" s="265"/>
-      <c r="X2" s="265"/>
-      <c r="Y2" s="265"/>
-      <c r="Z2" s="266"/>
-      <c r="AA2" s="267">
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="264">
         <v>2024</v>
       </c>
-      <c r="AB2" s="265"/>
-      <c r="AC2" s="265"/>
-      <c r="AD2" s="265"/>
-      <c r="AE2" s="265"/>
+      <c r="AB2" s="262"/>
+      <c r="AC2" s="262"/>
+      <c r="AD2" s="262"/>
+      <c r="AE2" s="262"/>
       <c r="AF2" s="95"/>
       <c r="AG2" s="95"/>
       <c r="AH2" s="95"/>
       <c r="AI2" s="95"/>
-      <c r="AJ2" s="265" t="s">
+      <c r="AJ2" s="262" t="s">
         <v>104</v>
       </c>
-      <c r="AK2" s="265"/>
-      <c r="AL2" s="265"/>
-      <c r="AM2" s="265"/>
-      <c r="AN2" s="265"/>
-      <c r="AO2" s="265"/>
-      <c r="AP2" s="265"/>
-      <c r="AQ2" s="265"/>
-      <c r="AR2" s="265"/>
-      <c r="AS2" s="265"/>
-      <c r="AT2" s="265"/>
-      <c r="AU2" s="265"/>
-      <c r="AV2" s="265"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="254" t="s">
+      <c r="AK2" s="262"/>
+      <c r="AL2" s="262"/>
+      <c r="AM2" s="262"/>
+      <c r="AN2" s="262"/>
+      <c r="AO2" s="262"/>
+      <c r="AP2" s="262"/>
+      <c r="AQ2" s="262"/>
+      <c r="AR2" s="262"/>
+      <c r="AS2" s="262"/>
+      <c r="AT2" s="262"/>
+      <c r="AU2" s="262"/>
+      <c r="AV2" s="262"/>
+      <c r="AW2" s="263"/>
+      <c r="AX2" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="AY2" s="255"/>
-      <c r="AZ2" s="255"/>
-      <c r="BA2" s="255"/>
-      <c r="BB2" s="255"/>
-      <c r="BC2" s="255"/>
-      <c r="BD2" s="255"/>
-      <c r="BE2" s="255"/>
-      <c r="BF2" s="255"/>
-      <c r="BG2" s="255"/>
-      <c r="BH2" s="256"/>
+      <c r="AY2" s="252"/>
+      <c r="AZ2" s="252"/>
+      <c r="BA2" s="252"/>
+      <c r="BB2" s="252"/>
+      <c r="BC2" s="252"/>
+      <c r="BD2" s="252"/>
+      <c r="BE2" s="252"/>
+      <c r="BF2" s="252"/>
+      <c r="BG2" s="252"/>
+      <c r="BH2" s="253"/>
     </row>
     <row r="3" spans="1:60" s="7" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="263"/>
-      <c r="B3" s="264"/>
+      <c r="A3" s="260"/>
+      <c r="B3" s="261"/>
       <c r="C3" s="131" t="s">
         <v>0</v>
       </c>
@@ -11955,10 +11979,10 @@
       </c>
     </row>
     <row r="15" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="235" t="s">
+      <c r="A15" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="237"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="47">
         <f>AVERAGE(C4:C14)</f>
         <v>8.0843345048625608</v>
